--- a/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>10668492363.82</v>
+        <v>6552959889.657929</v>
       </c>
       <c r="F2">
-        <v>3195915176.08</v>
+        <v>2097983131.007991</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7472577187.74</v>
+        <v>4454976758.649939</v>
       </c>
       <c r="M2">
-        <v>-6.340269464999437e-08</v>
+        <v>-2.848260337421415e-08</v>
       </c>
       <c r="N2">
-        <v>7472577187.74</v>
+        <v>4454976758.649939</v>
       </c>
       <c r="O2">
         <v>591</v>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>4386484429.05</v>
+        <v>4370834007.667166</v>
       </c>
       <c r="F17">
-        <v>3555047447.99</v>
+        <v>3543707785.959492</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1492</v>
+        <v>1490.939999996342</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
       <c r="L17">
-        <v>337707683.24</v>
+        <v>333703568.9</v>
       </c>
       <c r="M17">
         <v>-5.471520125865936e-09</v>
       </c>
       <c r="N17">
-        <v>831436981.0599999</v>
+        <v>827126221.7076744</v>
       </c>
       <c r="O17">
         <v>4099</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>914771583.3</v>
+        <v>903810793.3</v>
       </c>
       <c r="F18">
-        <v>677155840.45</v>
+        <v>668126343.45</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>119888172.36</v>
+        <v>117956879.36</v>
       </c>
       <c r="M18">
         <v>-9.313225746154785e-10</v>
       </c>
       <c r="N18">
-        <v>237615742.85</v>
+        <v>235684449.85</v>
       </c>
       <c r="O18">
         <v>239</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>364260988.69</v>
+        <v>321818927.0128341</v>
       </c>
       <c r="F19">
-        <v>249213261.37</v>
+        <v>215552252.3705085</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1390,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>5.060000003658425</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>111575179.67</v>
+        <v>104986704.01</v>
       </c>
       <c r="M19">
         <v>1.746229827404022e-09</v>
       </c>
       <c r="N19">
-        <v>115047727.32</v>
+        <v>106266674.6423257</v>
       </c>
       <c r="O19">
         <v>233</v>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>9884060094.190001</v>
+        <v>9723084549.105</v>
       </c>
       <c r="F23">
-        <v>8401451079.46</v>
+        <v>8264621866.145</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1482609014.73</v>
+        <v>1458462682.96</v>
       </c>
       <c r="O23">
         <v>28</v>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>16640918613.61</v>
+        <v>16258187056.13755</v>
       </c>
       <c r="F24">
-        <v>14144780820.65</v>
+        <v>13819458996.81999</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2496137792.96</v>
+        <v>2438728059.317557</v>
       </c>
       <c r="O24">
         <v>36</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>19938942006.39</v>
+        <v>18226516770.36745</v>
       </c>
       <c r="F25">
-        <v>16948100704.31</v>
+        <v>15492539253.76501</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2990841302.08</v>
+        <v>2733977516.602443</v>
       </c>
       <c r="O25">
         <v>40</v>
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="E30">
-        <v>1641978892.91</v>
+        <v>1610950579.695</v>
       </c>
       <c r="F30">
-        <v>1395682058.88</v>
+        <v>1369307992.65</v>
       </c>
       <c r="G30">
-        <v>82098944.64</v>
+        <v>80547528.98</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>246296834.0299999</v>
+        <v>241642587.0449999</v>
       </c>
       <c r="O30">
         <v>21</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="E33">
-        <v>15359469140.63</v>
+        <v>15328440827.415</v>
       </c>
       <c r="F33">
-        <v>12973930754.57</v>
+        <v>12947556688.34</v>
       </c>
       <c r="G33">
-        <v>751649854.78</v>
+        <v>750098439.12</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2385538386.06</v>
+        <v>2380884139.075</v>
       </c>
       <c r="O33">
         <v>614</v>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>690009106.55</v>
+        <v>683999555.4102353</v>
       </c>
       <c r="F48">
-        <v>345004552.64</v>
+        <v>341999777.0789792</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>214</v>
+        <v>212.9776999979373</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>104896790.88</v>
+        <v>103772016.8809517</v>
       </c>
       <c r="M48">
-        <v>240107763.03</v>
+        <v>238227761.4503044</v>
       </c>
       <c r="N48">
-        <v>345004553.91</v>
+        <v>341999778.3312562</v>
       </c>
       <c r="O48">
         <v>454</v>
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="E50">
-        <v>341082946.07</v>
+        <v>337275478.7997647</v>
       </c>
       <c r="F50">
-        <v>170541472.88</v>
+        <v>168637739.2510208</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>82</v>
+        <v>81.02230000206265</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>51295331.38</v>
+        <v>50739978.34904829</v>
       </c>
       <c r="M50">
-        <v>119246141.81</v>
+        <v>117897761.1996955</v>
       </c>
       <c r="N50">
-        <v>170541473.19</v>
+        <v>168637739.5487438</v>
       </c>
       <c r="O50">
         <v>106</v>
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>13612726923.24</v>
+        <v>8794719092.155001</v>
       </c>
       <c r="F55">
-        <v>5712814534.61</v>
+        <v>3850585082.325</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>7899912388.63</v>
+        <v>4944134009.83</v>
       </c>
       <c r="M55">
-        <v>-5.613765097223222e-08</v>
+        <v>-3.703280526679009e-08</v>
       </c>
       <c r="N55">
-        <v>7899912388.63</v>
+        <v>4944134009.83</v>
       </c>
       <c r="O55">
         <v>1914</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="E56">
-        <v>10549932635.61</v>
+        <v>6696996957.425</v>
       </c>
       <c r="F56">
-        <v>3316536697.19</v>
+        <v>2369283668.3</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>7233395938.42</v>
+        <v>4327713289.125</v>
       </c>
       <c r="M56">
-        <v>-7.014023140072823e-08</v>
+        <v>-3.390596248209476e-08</v>
       </c>
       <c r="N56">
-        <v>7233395938.42</v>
+        <v>4327713289.125</v>
       </c>
       <c r="O56">
         <v>413</v>
@@ -3442,13 +3442,13 @@
         </is>
       </c>
       <c r="E58">
-        <v>11182939127.38</v>
+        <v>10877315936.18225</v>
       </c>
       <c r="F58">
-        <v>9060477063.98</v>
+        <v>8802389998.989258</v>
       </c>
       <c r="G58">
-        <v>1568971959.72</v>
+        <v>1536716993.20816</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>107</v>
+        <v>102.2000000000924</v>
       </c>
       <c r="L58">
-        <v>496038966</v>
+        <v>483413038.78077</v>
       </c>
       <c r="M58">
-        <v>1377371505.35</v>
+        <v>1352119651.119026</v>
       </c>
       <c r="N58">
-        <v>2122462063.4</v>
+        <v>2074925937.192997</v>
       </c>
       <c r="O58">
         <v>163</v>
@@ -3548,10 +3548,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>1733868108.61</v>
+        <v>460020251.6399525</v>
       </c>
       <c r="F60">
-        <v>1100826887.58</v>
+        <v>289893607.9861853</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>633041221.03</v>
+        <v>170126643.6537672</v>
       </c>
       <c r="M60">
-        <v>5.347828846424818e-09</v>
+        <v>2.938579302732237e-10</v>
       </c>
       <c r="N60">
-        <v>633041221.03</v>
+        <v>170126643.6537672</v>
       </c>
       <c r="O60">
         <v>630</v>
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="E61">
-        <v>4150553629.52</v>
+        <v>3875736665.699435</v>
       </c>
       <c r="F61">
-        <v>3241066251.39</v>
+        <v>3014956499.205289</v>
       </c>
       <c r="G61">
-        <v>719148000.5599999</v>
+        <v>686976953.0722671</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>168</v>
+        <v>153.7212225696989</v>
       </c>
       <c r="L61">
-        <v>77944166.29000001</v>
+        <v>70176140.27225883</v>
       </c>
       <c r="M61">
-        <v>254320846.22</v>
+        <v>238784794.4433374</v>
       </c>
       <c r="N61">
-        <v>909487378.13</v>
+        <v>860780166.4941459</v>
       </c>
       <c r="O61">
         <v>64</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>7547587664.68</v>
+        <v>7123805752.885106</v>
       </c>
       <c r="F62">
-        <v>4414441919.1</v>
+        <v>4141129948.454005</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>3133145745.58</v>
+        <v>2982675804.431101</v>
       </c>
       <c r="M62">
-        <v>-1.528314896859229e-08</v>
+        <v>-1.655924255103602e-08</v>
       </c>
       <c r="N62">
-        <v>3133145745.58</v>
+        <v>2982675804.431101</v>
       </c>
       <c r="O62">
         <v>2308</v>
@@ -3707,13 +3707,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>6271893202.65</v>
+        <v>5517217092.178309</v>
       </c>
       <c r="F63">
-        <v>4889009152.88</v>
+        <v>4258005296.585453</v>
       </c>
       <c r="G63">
-        <v>1069686917.74</v>
+        <v>992790683.2395726</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3725,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>158</v>
+        <v>134.0787774302087</v>
       </c>
       <c r="L63">
-        <v>116228386.71</v>
+        <v>88949454.30697116</v>
       </c>
       <c r="M63">
-        <v>382306333.65</v>
+        <v>327748468.9376366</v>
       </c>
       <c r="N63">
-        <v>1382884049.77</v>
+        <v>1259211795.592857</v>
       </c>
       <c r="O63">
         <v>45</v>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="E65">
-        <v>758838053.86</v>
+        <v>749602718.98</v>
       </c>
       <c r="F65">
-        <v>379419026.45</v>
+        <v>374801359.03</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>75883806.23999999</v>
+        <v>74960272.73</v>
       </c>
       <c r="M65">
-        <v>303535221.17</v>
+        <v>299841087.22</v>
       </c>
       <c r="N65">
-        <v>379419027.41</v>
+        <v>374801359.95</v>
       </c>
       <c r="O65">
         <v>89</v>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>1375808272.32</v>
+        <v>1375281515.968</v>
       </c>
       <c r="F66">
-        <v>753673560.96</v>
+        <v>753360246.284</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>622134711.36</v>
+        <v>621921269.684</v>
       </c>
       <c r="M66">
         <v>-9.749783203005791e-10</v>
       </c>
       <c r="N66">
-        <v>622134711.36</v>
+        <v>621921269.684</v>
       </c>
       <c r="O66">
         <v>408</v>
@@ -3919,10 +3919,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>9945026069.92</v>
+        <v>5131759767.67</v>
       </c>
       <c r="F67">
-        <v>3957094156.19</v>
+        <v>2096998391.88</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>5987931913.73</v>
+        <v>3034761375.79</v>
       </c>
       <c r="M67">
-        <v>-3.818058758042753e-08</v>
+        <v>-1.90757418749854e-08</v>
       </c>
       <c r="N67">
-        <v>5987931913.73</v>
+        <v>3034761375.79</v>
       </c>
       <c r="O67">
         <v>3422</v>
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="E69">
-        <v>730439578.51</v>
+        <v>722794485.9490119</v>
       </c>
       <c r="F69">
-        <v>299469583.89</v>
+        <v>295610293.2928183</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>430969994.62</v>
+        <v>427184192.6561936</v>
       </c>
       <c r="M69">
-        <v>-2.264278009533882e-08</v>
+        <v>-2.253643004218428e-08</v>
       </c>
       <c r="N69">
-        <v>430969994.62</v>
+        <v>427184192.6561936</v>
       </c>
       <c r="O69">
         <v>276</v>
@@ -4926,13 +4926,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>4074890205.44</v>
+        <v>4063673398.916</v>
       </c>
       <c r="F86">
-        <v>3496960685.72</v>
+        <v>3487426400.184</v>
       </c>
       <c r="G86">
-        <v>358557121.74</v>
+        <v>357996281.409</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="J86">
-        <v>455</v>
+        <v>453.8</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>577929519.72</v>
+        <v>576246998.732</v>
       </c>
       <c r="O86">
         <v>783</v>
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="E89">
-        <v>171228783.47</v>
+        <v>157505858.804</v>
       </c>
       <c r="F89">
-        <v>147020183.22</v>
+        <v>135355697.266</v>
       </c>
       <c r="G89">
-        <v>7823580.5</v>
+        <v>7137434.261</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="J89">
-        <v>33</v>
+        <v>31.2</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>24208600.25</v>
+        <v>22150161.538</v>
       </c>
       <c r="O89">
         <v>122</v>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="E106">
-        <v>612479658.1799999</v>
+        <v>600398633.9557805</v>
       </c>
       <c r="F106">
-        <v>520607708.87</v>
+        <v>510338838.4150292</v>
       </c>
       <c r="G106">
-        <v>66689341.37</v>
+        <v>65005618.90124533</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>91871949.31</v>
+        <v>90059795.54075132</v>
       </c>
       <c r="O106">
         <v>3</v>
@@ -6092,10 +6092,10 @@
         </is>
       </c>
       <c r="E108">
-        <v>221053185.13</v>
+        <v>110526592.5104128</v>
       </c>
       <c r="F108">
-        <v>110526592.54</v>
+        <v>55263296.2427064</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>11</v>
+        <v>5.499999997283643</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>110526592.59</v>
+        <v>55263296.26770639</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -6145,13 +6145,13 @@
         </is>
       </c>
       <c r="E109">
-        <v>4499586071.77</v>
+        <v>4488893788.538008</v>
       </c>
       <c r="F109">
-        <v>3824648156.14</v>
+        <v>3815559715.468382</v>
       </c>
       <c r="G109">
-        <v>674937915.63</v>
+        <v>673334073.0696262</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>674937915.63</v>
+        <v>673334073.0696262</v>
       </c>
       <c r="O109">
         <v>229</v>
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>2071668258.13</v>
+        <v>2048969412.158765</v>
       </c>
       <c r="F110">
-        <v>1681158789.29</v>
+        <v>1662738676.807847</v>
       </c>
       <c r="G110">
-        <v>390509468.84</v>
+        <v>386230735.3509181</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>390509468.84</v>
+        <v>386230735.3509181</v>
       </c>
       <c r="O110">
         <v>26</v>
@@ -6251,13 +6251,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>1629579450.57</v>
+        <v>1628667119.720215</v>
       </c>
       <c r="F111">
-        <v>1341510543</v>
+        <v>1340759489.443177</v>
       </c>
       <c r="G111">
-        <v>288068907.57</v>
+        <v>287907630.277038</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>288068907.57</v>
+        <v>287907630.277038</v>
       </c>
       <c r="O111">
         <v>3</v>
@@ -6463,13 +6463,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>39261334.58</v>
+        <v>2854299.024405497</v>
       </c>
       <c r="F115">
-        <v>33372133.92</v>
+        <v>2426154.136357572</v>
       </c>
       <c r="G115">
-        <v>5889200.66</v>
+        <v>428144.8880479246</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>5889200.659999999</v>
+        <v>428144.8880479245</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -6569,10 +6569,10 @@
         </is>
       </c>
       <c r="E117">
-        <v>221053185.13</v>
+        <v>110526592.6195872</v>
       </c>
       <c r="F117">
-        <v>110526592.54</v>
+        <v>55263296.29729361</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>5.500000002716357</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>110526592.59</v>
+        <v>55263296.32229361</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>139175810.49</v>
+        <v>102183703.5719921</v>
       </c>
       <c r="F118">
-        <v>118299437.95</v>
+        <v>86856147.42161825</v>
       </c>
       <c r="G118">
-        <v>20876372.54</v>
+        <v>15327556.15037381</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>20876372.54</v>
+        <v>15327556.15037381</v>
       </c>
       <c r="O118">
         <v>34</v>
@@ -6675,13 +6675,13 @@
         </is>
       </c>
       <c r="E119">
-        <v>135974928.66</v>
+        <v>121594046.1791665</v>
       </c>
       <c r="F119">
-        <v>110343653.84</v>
+        <v>98673568.24838112</v>
       </c>
       <c r="G119">
-        <v>25631274.82</v>
+        <v>22920477.93078539</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>25631274.82</v>
+        <v>22920477.93078539</v>
       </c>
       <c r="O119">
         <v>10</v>
@@ -6940,13 +6940,13 @@
         </is>
       </c>
       <c r="E124">
-        <v>207145387.01</v>
+        <v>9226725.199814001</v>
       </c>
       <c r="F124">
-        <v>176073578.41</v>
+        <v>7842716.318613252</v>
       </c>
       <c r="G124">
-        <v>5889200.66</v>
+        <v>1255577.58070675</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>31071808.59999999</v>
+        <v>1384008.88120075</v>
       </c>
       <c r="O124">
         <v>2</v>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>77557254.78999999</v>
+        <v>58558038.26206814</v>
       </c>
       <c r="F128">
-        <v>62937710.7</v>
+        <v>47519847.7537716</v>
       </c>
       <c r="G128">
-        <v>14619544.09</v>
+        <v>11038190.50829655</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>14619544.09</v>
+        <v>11038190.50829655</v>
       </c>
       <c r="O128">
         <v>8</v>
@@ -7205,13 +7205,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>28532549.38</v>
+        <v>20321571.72978491</v>
       </c>
       <c r="F129">
-        <v>23488707.77</v>
+        <v>16729225.75682293</v>
       </c>
       <c r="G129">
-        <v>5043841.61</v>
+        <v>3592345.972961977</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>5043841.61</v>
+        <v>3592345.972961977</v>
       </c>
       <c r="O129">
         <v>2</v>
@@ -7311,34 +7311,34 @@
         </is>
       </c>
       <c r="E131">
-        <v>16704418495.06</v>
+        <v>15435742462.78946</v>
       </c>
       <c r="F131">
-        <v>14007244305.28</v>
+        <v>12855879852.83287</v>
       </c>
       <c r="G131">
-        <v>2634085172.39</v>
+        <v>2541830504.804044</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>50</v>
+        <v>23.46000000019099</v>
       </c>
       <c r="J131">
-        <v>59</v>
+        <v>29.18999999967338</v>
       </c>
       <c r="K131">
-        <v>37</v>
+        <v>9.340000000895971</v>
       </c>
       <c r="L131">
-        <v>50312314.31</v>
+        <v>32756427.76564175</v>
       </c>
       <c r="M131">
-        <v>2507238.980000002</v>
+        <v>2507238.98</v>
       </c>
       <c r="N131">
-        <v>2697174189.78</v>
+        <v>2579862609.956591</v>
       </c>
       <c r="O131">
         <v>641</v>
@@ -7523,13 +7523,13 @@
         </is>
       </c>
       <c r="E135">
-        <v>9892282523.68</v>
+        <v>5117165920.12</v>
       </c>
       <c r="F135">
-        <v>8320832766.52</v>
+        <v>4298227197.19</v>
       </c>
       <c r="G135">
-        <v>871958136.1800001</v>
+        <v>469192912.44</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7541,16 +7541,16 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>698058325.8</v>
+        <v>349029162.9</v>
       </c>
       <c r="M135">
-        <v>-2.486558514647186e-09</v>
+        <v>-1.243279257323593e-09</v>
       </c>
       <c r="N135">
-        <v>1571449757.16</v>
+        <v>818938722.9300001</v>
       </c>
       <c r="O135">
         <v>2999</v>
@@ -7629,34 +7629,34 @@
         </is>
       </c>
       <c r="E137">
-        <v>10696133718.93</v>
+        <v>8843987119.794807</v>
       </c>
       <c r="F137">
-        <v>8924805144.6</v>
+        <v>7319666208.751851</v>
       </c>
       <c r="G137">
-        <v>1371272358.54</v>
+        <v>1153883505.105112</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>192</v>
+        <v>166.3999999993564</v>
       </c>
       <c r="J137">
-        <v>814</v>
+        <v>637.0400000065634</v>
       </c>
       <c r="K137">
-        <v>35</v>
+        <v>12.14000000014933</v>
       </c>
       <c r="L137">
-        <v>66065096.6</v>
+        <v>51481796.2083945</v>
       </c>
       <c r="M137">
-        <v>-1.964508555829525e-10</v>
+        <v>-4.179310053051054e-10</v>
       </c>
       <c r="N137">
-        <v>1771328574.33</v>
+        <v>1524320911.042957</v>
       </c>
       <c r="O137">
         <v>1018</v>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="E138">
-        <v>6535425892.08</v>
+        <v>2246072163.668969</v>
       </c>
       <c r="F138">
-        <v>5393766022.79</v>
+        <v>1875883495.690736</v>
       </c>
       <c r="G138">
-        <v>1091157996.09</v>
+        <v>319686794.7782325</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>84916543.37</v>
       </c>
       <c r="N138">
-        <v>1141659869.29</v>
+        <v>370188667.9782325</v>
       </c>
       <c r="O138">
         <v>6555</v>
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="E139">
-        <v>481240815.47</v>
+        <v>448869506.8561808</v>
       </c>
       <c r="F139">
-        <v>391617032.55</v>
+        <v>368198976.5401717</v>
       </c>
       <c r="G139">
-        <v>82428024.15000001</v>
+        <v>73474771.54600915</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>89623782.92</v>
+        <v>80670530.31600915</v>
       </c>
       <c r="O139">
         <v>2290</v>
@@ -7841,13 +7841,13 @@
         </is>
       </c>
       <c r="E141">
-        <v>3628316285.3</v>
+        <v>3374709781.360944</v>
       </c>
       <c r="F141">
-        <v>2866704184.47</v>
+        <v>2696953996.125652</v>
       </c>
       <c r="G141">
-        <v>722368802.6</v>
+        <v>639661575.8642932</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>395</v>
       </c>
       <c r="J141">
-        <v>403</v>
+        <v>363.7999999972268</v>
       </c>
       <c r="K141">
         <v>27</v>
@@ -7868,7 +7868,7 @@
         <v>2367534.24</v>
       </c>
       <c r="N141">
-        <v>761612100.83</v>
+        <v>677755785.2352918</v>
       </c>
       <c r="O141">
         <v>779</v>
@@ -8053,34 +8053,34 @@
         </is>
       </c>
       <c r="E145">
-        <v>25226485110.77</v>
+        <v>14491047188.12485</v>
       </c>
       <c r="F145">
-        <v>20732906951.33</v>
+        <v>11863017833.97909</v>
       </c>
       <c r="G145">
-        <v>4212486666.49</v>
+        <v>2443869463.465758</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J145">
-        <v>1089</v>
+        <v>292</v>
       </c>
       <c r="K145">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L145">
-        <v>121763968.46</v>
+        <v>85914290.68000001</v>
       </c>
       <c r="M145">
-        <v>260758262.32</v>
+        <v>183131867.73</v>
       </c>
       <c r="N145">
-        <v>4493578159.44</v>
+        <v>2628029354.145758</v>
       </c>
       <c r="O145">
         <v>18996</v>
@@ -8106,13 +8106,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>10553583835.07</v>
+        <v>5682167924.56</v>
       </c>
       <c r="F146">
-        <v>8636124580.33</v>
+        <v>4648445157.04</v>
       </c>
       <c r="G146">
-        <v>1349359772.53</v>
+        <v>712156812.22</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8124,16 +8124,16 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="L146">
-        <v>445125779.54</v>
+        <v>219946095.16</v>
       </c>
       <c r="M146">
-        <v>1058631746.21</v>
+        <v>467564908.96</v>
       </c>
       <c r="N146">
-        <v>1917459254.74</v>
+        <v>1033722767.52</v>
       </c>
       <c r="O146">
         <v>429</v>
@@ -8265,34 +8265,34 @@
         </is>
       </c>
       <c r="E149">
-        <v>5752084631.18</v>
+        <v>2535456775.534787</v>
       </c>
       <c r="F149">
-        <v>4795167653.37</v>
+        <v>2080569923.989627</v>
       </c>
       <c r="G149">
-        <v>806115701.17</v>
+        <v>389797940.206551</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>220</v>
+        <v>97.14000000045264</v>
       </c>
       <c r="J149">
-        <v>1503</v>
+        <v>737.9699999965364</v>
       </c>
       <c r="K149">
-        <v>397</v>
+        <v>187.5199999989547</v>
       </c>
       <c r="L149">
-        <v>60723858.93</v>
+        <v>23419720.01596375</v>
       </c>
       <c r="M149">
-        <v>119628290.5</v>
+        <v>59814145.24999999</v>
       </c>
       <c r="N149">
-        <v>956916977.8099999</v>
+        <v>454886851.5451602</v>
       </c>
       <c r="O149">
         <v>631</v>
@@ -8345,10 +8345,10 @@
         </is>
       </c>
       <c r="E151">
-        <v>9265020.33</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>4620260.15</v>
+        <v>0</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>4644760.18</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>5.820766091346741e-11</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>4644760.18</v>
+        <v>0</v>
       </c>
       <c r="O151">
         <v>5</v>

--- a/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S197"/>
+  <dimension ref="A1:T197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,75 +380,80 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>op_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>fin_vyuct_czv</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_eu</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_sr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_sf</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_kraj</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_obec</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_jine_nar_ver</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_soukr</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_narodni_verejne</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>fin_vyuct_narodni</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>n_prj</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_orig</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_id</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_typ</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_nazev</t>
         </is>
@@ -473,15 +478,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>6552959889.657929</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2097983131.007991</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -495,15 +502,18 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>4454976758.649939</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-2.848260337421415e-08</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4454976758.649939</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>591</v>
       </c>
     </row>
@@ -526,15 +536,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F3">
         <v>462812274.11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>152584940.45</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -548,15 +560,18 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>310227333.66</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4.336470738053322e-09</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>310227333.66</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>122</v>
       </c>
     </row>
@@ -579,15 +594,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F4">
         <v>1944195895.47</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>487273834.33</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -601,15 +618,18 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>1456922061.14</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-6.722984835505486e-09</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1456922061.14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>63</v>
       </c>
     </row>
@@ -632,15 +652,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F5">
         <v>5722555630.01</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2289022251.97</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -654,15 +676,18 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>3433533378.04</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.257285475730896e-08</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3433533378.04</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>23</v>
       </c>
     </row>
@@ -685,8 +710,10 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
       <c r="F6">
         <v>0</v>
@@ -716,6 +743,9 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>10</v>
       </c>
     </row>
@@ -738,8 +768,10 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
       <c r="F7">
         <v>0</v>
@@ -769,6 +801,9 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>437</v>
       </c>
     </row>
@@ -791,15 +826,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F8">
         <v>571811249.65</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>381472572.3</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -813,15 +850,18 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>190338677.35</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.629814505577087e-09</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>190338677.35</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>97</v>
       </c>
     </row>
@@ -844,15 +884,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9">
         <v>8523347.4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6818677.92</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -866,15 +908,18 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1704669.48</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>1704669.48</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>31</v>
       </c>
     </row>
@@ -897,8 +942,10 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
       </c>
       <c r="F10">
         <v>0</v>
@@ -928,6 +975,9 @@
         <v>0</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
     </row>
@@ -950,15 +1000,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F11">
         <v>35127845.4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>18561765.15</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -972,15 +1024,18 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>16566080.25</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.280568540096283e-09</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>16566080.25</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>49</v>
       </c>
     </row>
@@ -1003,37 +1058,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F12">
         <v>903625631.59</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>451812815.67</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>50</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>128251722.51</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>323561093.41</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>451812815.92</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>36</v>
       </c>
     </row>
@@ -1056,37 +1116,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F13">
         <v>10123068526.68</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4253350977.44</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>841480065.6</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>462</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1380</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>41718938.19</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1.164153218269348e-10</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>5869717549.24</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3931</v>
       </c>
     </row>
@@ -1109,37 +1174,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F14">
         <v>12609153756.22</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4136535126.69</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>51537211.59</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>408</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>6880498963.02</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.863998815882951e-09</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>8472618629.53</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4114</v>
       </c>
     </row>
@@ -1162,15 +1232,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15">
         <v>33378278.22</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>13351311.28</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -1184,15 +1256,18 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>20026966.94</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>9.313225746154785e-10</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>20026966.94</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>38</v>
       </c>
     </row>
@@ -1215,15 +1290,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16">
         <v>3766620465.98</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1398933631.18</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -1237,15 +1314,18 @@
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2367686834.8</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-2.479646354913712e-08</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2367686834.8</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>214</v>
       </c>
     </row>
@@ -1268,37 +1348,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F17">
         <v>4370834007.667166</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3543707785.959492</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1490.939999996342</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>11</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>333703568.9</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-5.471520125865936e-09</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>827126221.7076744</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4099</v>
       </c>
     </row>
@@ -1321,15 +1406,17 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F18">
         <v>903810793.3</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>668126343.45</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1337,21 +1424,24 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>91</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>117956879.36</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-9.313225746154785e-10</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>235684449.85</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>239</v>
       </c>
     </row>
@@ -1374,15 +1464,17 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F19">
         <v>321818927.0128341</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>215552252.3705085</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -1390,21 +1482,24 @@
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>5.060000003658425</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>104986704.01</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.746229827404022e-09</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>106266674.6423257</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>233</v>
       </c>
     </row>
@@ -1427,15 +1522,17 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F20">
         <v>3473463829.8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2952444252.69</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -1443,21 +1540,24 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>487</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>160</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1389562.11</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-9.313225746154785e-10</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>521019577.11</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>186</v>
       </c>
     </row>
@@ -1480,15 +1580,17 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F21">
         <v>61594016.23</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>52354913.66</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -1496,21 +1598,24 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>27</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>854669.35</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>9239102.569999998</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>60</v>
       </c>
     </row>
@@ -1533,15 +1638,17 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F22">
         <v>11453422544.25</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9735409152.49</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1549,21 +1656,24 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>2212</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>75</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>14014433.4</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3.725290298461914e-09</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1718013391.76</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>614</v>
       </c>
     </row>
@@ -1586,15 +1696,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F23">
         <v>9723084549.105</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8264621866.145</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -1614,9 +1726,12 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>1458462682.96</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>28</v>
       </c>
     </row>
@@ -1639,15 +1754,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F24">
         <v>16258187056.13755</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>13819458996.81999</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -1667,9 +1784,12 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>2438728059.317557</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>36</v>
       </c>
     </row>
@@ -1692,15 +1812,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F25">
         <v>18226516770.36745</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>15492539253.76501</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1720,9 +1842,12 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>2733977516.602443</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>40</v>
       </c>
     </row>
@@ -1745,15 +1870,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F26">
         <v>950038675.61</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>772085936.6900001</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -1767,15 +1894,18 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>175469672.67</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-2.793967723846436e-09</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>177952738.92</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>41</v>
       </c>
     </row>
@@ -1798,15 +1928,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F27">
         <v>2569592752.77</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2184153839.76</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -1826,9 +1958,12 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>385438913.01</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3</v>
       </c>
     </row>
@@ -1851,15 +1986,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F28">
         <v>12828115605.62</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>10903898264.11</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -1879,9 +2016,12 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>1924217341.51</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>14</v>
       </c>
     </row>
@@ -1904,24 +2044,26 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F29">
         <v>1160709543.42</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>948533763.9</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>50421607.58</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>47</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
@@ -1932,9 +2074,12 @@
         <v>0</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>212175779.52</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>44</v>
       </c>
     </row>
@@ -1957,24 +2102,26 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F30">
         <v>1610950579.695</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1369307992.65</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>80547528.98</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>24</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
@@ -1985,9 +2132,12 @@
         <v>0</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>241642587.0449999</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>21</v>
       </c>
     </row>
@@ -2010,15 +2160,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F31">
         <v>12037471018.91</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>10231850364.91</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -2038,9 +2190,12 @@
         <v>0</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>1805620654</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>46</v>
       </c>
     </row>
@@ -2063,15 +2218,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F32">
         <v>12701786933.66</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>10796518893.13</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -2091,9 +2248,12 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>1905268040.53</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>16</v>
       </c>
     </row>
@@ -2116,24 +2276,26 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F33">
         <v>15328440827.415</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>12947556688.34</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>750098439.12</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>537</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
@@ -2144,9 +2306,12 @@
         <v>0</v>
       </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>2380884139.075</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>614</v>
       </c>
     </row>
@@ -2169,8 +2334,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E34">
-        <v>0</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2200,6 +2367,9 @@
         <v>0</v>
       </c>
       <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>9</v>
       </c>
     </row>
@@ -2222,15 +2392,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F35">
         <v>464029264.61</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>394424874.9</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -2250,9 +2422,12 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>69604389.70999999</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>3</v>
       </c>
     </row>
@@ -2275,15 +2450,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F36">
         <v>11935125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>5848211.25</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
         <v>0</v>
       </c>
@@ -2297,15 +2474,18 @@
         <v>0</v>
       </c>
       <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>6086913.75</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>6086913.75</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>121</v>
       </c>
     </row>
@@ -2328,15 +2508,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F37">
         <v>243868603.68</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>105612241.96</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
@@ -2350,15 +2532,18 @@
         <v>0</v>
       </c>
       <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>138256361.72</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-4.656612873077393e-10</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>138256361.72</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>21</v>
       </c>
     </row>
@@ -2381,37 +2566,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F38">
         <v>5463873748.76</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4644292685.53</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>61901658.8</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>4</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>188</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>636907864.24</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1013353.650000013</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>819581063.23</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>381</v>
       </c>
     </row>
@@ -2434,37 +2624,42 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F39">
         <v>4552588031.64</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3869699826.64</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>30</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>147687690.73</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>1.404259819537401e-09</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>682888205</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>56</v>
       </c>
     </row>
@@ -2487,37 +2682,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F40">
         <v>126518574.2</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>63259287.09</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>12651857.43</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>50607429.68</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>63259287.11</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>7</v>
       </c>
     </row>
@@ -2540,37 +2740,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F41">
         <v>7677647103</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6526000036.19</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>170482224.74</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>289</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>643046686.24</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>7.147900760173798e-08</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1151647066.81</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>425</v>
       </c>
     </row>
@@ -2593,15 +2798,17 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F42">
         <v>678430449.91</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>576665882.36</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -2609,11 +2816,11 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>15</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2621,9 +2828,12 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>101764567.55</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>45</v>
       </c>
     </row>
@@ -2646,8 +2856,10 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E43">
-        <v>0</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2677,6 +2889,9 @@
         <v>0</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>105</v>
       </c>
     </row>
@@ -2699,15 +2914,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F44">
         <v>1693178732.22</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>676971589.12</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -2721,15 +2938,18 @@
         <v>0</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>1016207143.1</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>7.566995918750763e-10</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1016207143.1</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>122</v>
       </c>
     </row>
@@ -2752,18 +2972,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F45">
         <v>9818697508.9</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8000990589.12</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1324430987.48</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -2771,18 +2993,21 @@
         <v>0</v>
       </c>
       <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>169</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>308692633.29</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>818106817.04</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1817706919.78</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>148</v>
       </c>
     </row>
@@ -2805,15 +3030,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F46">
         <v>353405324.72</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>176683880.21</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -2827,15 +3054,18 @@
         <v>0</v>
       </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>176721444.51</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>-1.16779119707644e-09</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>176721444.51</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>293</v>
       </c>
     </row>
@@ -2858,37 +3088,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F47">
         <v>15734763285.53</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>13537404124.48</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>697276352.65</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>451</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1793</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>133922801.73</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>52968825.65</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>2197359161.05</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3558</v>
       </c>
     </row>
@@ -2911,37 +3146,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F48">
         <v>683999555.4102353</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>341999777.0789792</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>212.9776999979373</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>103772016.8809517</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>238227761.4503044</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>341999778.3312562</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>454</v>
       </c>
     </row>
@@ -2964,37 +3204,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F49">
         <v>4127764973.29</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>3508600225.18</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>211363383.49</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>417</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>33971461.51</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>24448432.62</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>619164748.11</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>490</v>
       </c>
     </row>
@@ -3017,37 +3262,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F50">
         <v>337275478.7997647</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>168637739.2510208</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>81.02230000206265</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>50739978.34904829</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>117897761.1996955</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>168637739.5487438</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>106</v>
       </c>
     </row>
@@ -3070,37 +3320,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F51">
         <v>7671775072.71</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>6473391321.74</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>370373932.64</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>50</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>9</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>27</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>571902095.75</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>-8.9290551841259e-08</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1198383750.97</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>319</v>
       </c>
     </row>
@@ -3123,37 +3378,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F52">
         <v>1755774499.36</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1492408323.32</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>111349079.89</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>15</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>249</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
       <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>23560355.09</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>47120709.74</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>263366176.04</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>586</v>
       </c>
     </row>
@@ -3176,37 +3436,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F53">
         <v>3983574813.13</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3386038588.73</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>285552208.59</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>76</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>202</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>82784130.47</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>164932401.89</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>597536224.4</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>632</v>
       </c>
     </row>
@@ -3229,37 +3494,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F54">
         <v>331576712.08</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>165788355.82</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>94</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>29736663.91</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>74134927.13</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>165788356.26</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>98</v>
       </c>
     </row>
@@ -3282,15 +3552,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F55">
         <v>8794719092.155001</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>3850585082.325</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -3304,15 +3576,18 @@
         <v>0</v>
       </c>
       <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>4944134009.83</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>-3.703280526679009e-08</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>4944134009.83</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>1914</v>
       </c>
     </row>
@@ -3335,15 +3610,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F56">
         <v>6696996957.425</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2369283668.3</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -3357,15 +3634,18 @@
         <v>0</v>
       </c>
       <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>4327713289.125</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>-3.390596248209476e-08</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>4327713289.125</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>413</v>
       </c>
     </row>
@@ -3388,15 +3668,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F57">
         <v>407162837.2</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>267669865.98</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
         <v>0</v>
       </c>
@@ -3410,15 +3692,18 @@
         <v>0</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>139492971.22</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>1.53668224811554e-08</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>139492971.22</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>32</v>
       </c>
     </row>
@@ -3441,18 +3726,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F58">
         <v>10877315936.18225</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>8802389998.989258</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1536716993.20816</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
       <c r="I58">
         <v>0</v>
       </c>
@@ -3460,18 +3747,21 @@
         <v>0</v>
       </c>
       <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>102.2000000000924</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>483413038.78077</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>1352119651.119026</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>2074925937.192997</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>163</v>
       </c>
     </row>
@@ -3494,15 +3784,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F59">
         <v>1214240638.87</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>607120319.35</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
         <v>0</v>
       </c>
@@ -3516,15 +3808,18 @@
         <v>0</v>
       </c>
       <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>607120319.52</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>-3.725290298461914e-09</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>607120319.52</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>121</v>
       </c>
     </row>
@@ -3547,15 +3842,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F60">
         <v>460020251.6399525</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>289893607.9861853</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
         <v>0</v>
       </c>
@@ -3569,15 +3866,18 @@
         <v>0</v>
       </c>
       <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>170126643.6537672</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>2.938579302732237e-10</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>170126643.6537672</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>630</v>
       </c>
     </row>
@@ -3600,18 +3900,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F61">
         <v>3875736665.699435</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>3014956499.205289</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>686976953.0722671</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
         <v>0</v>
       </c>
@@ -3619,18 +3921,21 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>153.7212225696989</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>70176140.27225883</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>238784794.4433374</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>860780166.4941459</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>64</v>
       </c>
     </row>
@@ -3653,15 +3958,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F62">
         <v>7123805752.885106</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>4141129948.454005</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
@@ -3675,15 +3982,18 @@
         <v>0</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>2982675804.431101</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>-1.655924255103602e-08</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>2982675804.431101</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2308</v>
       </c>
     </row>
@@ -3706,18 +4016,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F63">
         <v>5517217092.178309</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>4258005296.585453</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>992790683.2395726</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
       <c r="I63">
         <v>0</v>
       </c>
@@ -3725,18 +4037,21 @@
         <v>0</v>
       </c>
       <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>134.0787774302087</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>88949454.30697116</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>327748468.9376366</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>1259211795.592857</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>45</v>
       </c>
     </row>
@@ -3759,15 +4074,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F64">
         <v>126106346.41</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>88274441.95999999</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -3781,15 +4098,18 @@
         <v>0</v>
       </c>
       <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>37831904.45</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>-7.8580342233181e-10</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>37831904.45</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>137</v>
       </c>
     </row>
@@ -3812,37 +4132,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F65">
         <v>749602718.98</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>374801359.03</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>224</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>74960272.73</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>299841087.22</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>374801359.95</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>89</v>
       </c>
     </row>
@@ -3865,15 +4190,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F66">
         <v>1375281515.968</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>753360246.284</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -3887,15 +4214,18 @@
         <v>0</v>
       </c>
       <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>621921269.684</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>-9.749783203005791e-10</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>621921269.684</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>408</v>
       </c>
     </row>
@@ -3918,15 +4248,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F67">
         <v>5131759767.67</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2096998391.88</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
         <v>0</v>
       </c>
@@ -3940,15 +4272,18 @@
         <v>0</v>
       </c>
       <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>3034761375.79</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>-1.90757418749854e-08</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>3034761375.79</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>3422</v>
       </c>
     </row>
@@ -3971,37 +4306,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F68">
         <v>27733374.66</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>13866687.33</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>16</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>2773337.49</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>11093349.84</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>13866687.33</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>10</v>
       </c>
     </row>
@@ -4024,15 +4364,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F69">
         <v>722794485.9490119</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>295610293.2928183</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
       <c r="H69">
         <v>0</v>
       </c>
@@ -4046,15 +4388,18 @@
         <v>0</v>
       </c>
       <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>427184192.6561936</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>-2.253643004218428e-08</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>427184192.6561936</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>276</v>
       </c>
     </row>
@@ -4077,18 +4422,20 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F70">
         <v>1338058762.67</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>730678099.8200001</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>26420880.71</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="I70">
         <v>0</v>
       </c>
@@ -4099,15 +4446,18 @@
         <v>0</v>
       </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>580959782.14</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>-2.993829184561037e-09</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>607380662.85</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>1113</v>
       </c>
     </row>
@@ -4130,37 +4480,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F71">
         <v>140207742.75</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>70103871.33</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>15</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>12143414.57</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>57960456.85</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>70103871.42</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>8</v>
       </c>
     </row>
@@ -4183,15 +4538,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F72">
         <v>10654978451.32</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>4503355865.23</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
@@ -4205,15 +4562,18 @@
         <v>0</v>
       </c>
       <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
         <v>6151622586.09</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>2.380693331360817e-08</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>6151622586.09</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>4221</v>
       </c>
     </row>
@@ -4236,37 +4596,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F73">
         <v>165478499.37</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>82739249.62</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>25</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>16196776.29</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>66542473.46</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>82739249.75</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>27</v>
       </c>
     </row>
@@ -4289,15 +4654,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F74">
         <v>10430271293.73</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>4844454559.01</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
@@ -4311,15 +4678,18 @@
         <v>0</v>
       </c>
       <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>5585816734.72</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>-2.086380845867097e-08</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>5585816734.72</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>4428</v>
       </c>
     </row>
@@ -4342,15 +4712,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F75">
         <v>957945402.84</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>485077487.76</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -4364,15 +4736,18 @@
         <v>0</v>
       </c>
       <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>472867915.08</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>-6.548361852765083e-11</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>472867915.08</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1528</v>
       </c>
     </row>
@@ -4395,15 +4770,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F76">
         <v>4939953918.05</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>1517814370.17</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
@@ -4417,15 +4794,18 @@
         <v>0</v>
       </c>
       <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>3422139547.88</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>1.891748979687691e-09</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>3422139547.88</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>1132</v>
       </c>
     </row>
@@ -4448,15 +4828,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77">
         <v>6338671269.06</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>2610339816.13</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
@@ -4470,15 +4852,18 @@
         <v>0</v>
       </c>
       <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
         <v>3728331452.93</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2.028536982834339e-08</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>3728331452.93</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>1020</v>
       </c>
     </row>
@@ -4501,15 +4886,17 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F78">
         <v>540979143.2</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>459832271.27</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
         <v>0</v>
       </c>
@@ -4523,15 +4910,18 @@
         <v>0</v>
       </c>
       <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
         <v>81146871.93000001</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>-1.309672370553017e-09</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>81146871.92999999</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>532</v>
       </c>
     </row>
@@ -4554,24 +4944,26 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F79">
         <v>43255180.76</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>21627590.35</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>32</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
       <c r="K79">
         <v>0</v>
       </c>
@@ -4582,9 +4974,12 @@
         <v>0</v>
       </c>
       <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
         <v>21627590.41</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>42</v>
       </c>
     </row>
@@ -4607,15 +5002,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F80">
         <v>11704658.64</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>5267096.38</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
         <v>0</v>
       </c>
@@ -4629,15 +5026,18 @@
         <v>0</v>
       </c>
       <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>6437562.26</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>6.984919309616089e-10</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>6437562.260000001</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>42</v>
       </c>
     </row>
@@ -4660,37 +5060,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F81">
         <v>3731659003.61</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>3118260305.6</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>320017075.29</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>58</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>207</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
       <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>104823106.41</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>-6.51925802230835e-09</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>613398698.01</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>551</v>
       </c>
     </row>
@@ -4713,15 +5118,17 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82">
         <v>4370964954.63</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>1858459329.56</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82">
         <v>0</v>
       </c>
@@ -4735,15 +5142,18 @@
         <v>0</v>
       </c>
       <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>2512505625.07</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>4.733010428026319e-09</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>2510939681.84</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>661</v>
       </c>
     </row>
@@ -4766,37 +5176,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F83">
         <v>12746653910.31</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>11057009728.81</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>62157791.72</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
         <v>1</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>20</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>3</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>1592273964.99</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2.677552402019501e-09</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>1689644181.5</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>698</v>
       </c>
     </row>
@@ -4819,37 +5234,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F84">
         <v>3561928082.25</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>3164287808.31</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>3226666.69</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>68</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1328</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>83</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>85697058.39</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>-3.871718945447356e-09</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>397640273.94</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>3145</v>
       </c>
     </row>
@@ -4872,37 +5292,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F85">
         <v>665954895.4400001</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>597116744.75</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>52724881.44</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>5</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>10</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>11</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>1839526.46</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>-2.08092387765646e-09</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>68838150.69</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>126</v>
       </c>
     </row>
@@ -4925,27 +5350,29 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F86">
         <v>4063673398.916</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>3487426400.184</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>357996281.409</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>25</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>453.8</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
       <c r="L86">
         <v>0</v>
       </c>
@@ -4953,9 +5380,12 @@
         <v>0</v>
       </c>
       <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
         <v>576246998.732</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>783</v>
       </c>
     </row>
@@ -4978,8 +5408,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E87">
-        <v>0</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5009,6 +5441,9 @@
         <v>0</v>
       </c>
       <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
         <v>11</v>
       </c>
     </row>
@@ -5031,37 +5466,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F88">
         <v>897175639.12</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>755066236.35</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>3</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>137</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>1</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>6880444.23</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>-1.164153218269348e-09</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>142109402.77</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>566</v>
       </c>
     </row>
@@ -5084,27 +5524,29 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F89">
         <v>157505858.804</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>135355697.266</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>7137434.261</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
       <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>3</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>31.2</v>
       </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
       <c r="L89">
         <v>0</v>
       </c>
@@ -5112,9 +5554,12 @@
         <v>0</v>
       </c>
       <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
         <v>22150161.538</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>122</v>
       </c>
     </row>
@@ -5137,8 +5582,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E90">
-        <v>0</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5168,6 +5615,9 @@
         <v>0</v>
       </c>
       <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
         <v>7</v>
       </c>
     </row>
@@ -5190,37 +5640,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F91">
         <v>2133386917.89</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>1609418543.97</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>25723454.35</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
       <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>18</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>777</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>25</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>3387084.51</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>2.328306436538696e-10</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>523968373.92</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>1138</v>
       </c>
     </row>
@@ -5243,37 +5698,42 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F92">
         <v>1534129349.04</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1302934602.24</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>22571172.42</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
         <v>3</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>141</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
       <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
         <v>102283138.33</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>-4.281901055946946e-09</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>231194746.8</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>171</v>
       </c>
     </row>
@@ -5296,8 +5756,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E93">
-        <v>0</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5327,6 +5789,9 @@
         <v>0</v>
       </c>
       <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
         <v>93</v>
       </c>
     </row>
@@ -5349,8 +5814,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E94">
-        <v>0</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5380,6 +5847,9 @@
         <v>0</v>
       </c>
       <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
         <v>300</v>
       </c>
     </row>
@@ -5402,8 +5872,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E95">
-        <v>0</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5433,6 +5905,9 @@
         <v>0</v>
       </c>
       <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
         <v>138</v>
       </c>
     </row>
@@ -5455,14 +5930,16 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E96">
-        <v>3896184.35</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
       </c>
       <c r="F96">
         <v>3896184.35</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>3896184.35</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5486,6 +5963,9 @@
         <v>0</v>
       </c>
       <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
         <v>2</v>
       </c>
     </row>
@@ -5508,8 +5988,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E97">
-        <v>0</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5539,6 +6021,9 @@
         <v>0</v>
       </c>
       <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
         <v>118</v>
       </c>
     </row>
@@ -5561,37 +6046,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F98">
         <v>6585721235.57</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>5597863046.69</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>512385481.21</v>
       </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
         <v>126</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>105</v>
       </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
       <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
         <v>164801349.41</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>191904384.32</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>987858188.88</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>284</v>
       </c>
     </row>
@@ -5614,8 +6104,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E99">
-        <v>0</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5645,6 +6137,9 @@
         <v>0</v>
       </c>
       <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
         <v>404</v>
       </c>
     </row>
@@ -5667,8 +6162,10 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E100">
-        <v>0</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
       </c>
       <c r="F100">
         <v>0</v>
@@ -5698,6 +6195,9 @@
         <v>0</v>
       </c>
       <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <v>1</v>
       </c>
     </row>
@@ -5720,27 +6220,29 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F101">
         <v>216942840.56</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>184401414.34</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>10847142.07</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
         <v>257</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
       <c r="L101">
         <v>0</v>
       </c>
@@ -5748,9 +6250,12 @@
         <v>0</v>
       </c>
       <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
         <v>32541426.22</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>213</v>
       </c>
     </row>
@@ -5773,37 +6278,42 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F102">
         <v>3828520237.79</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>3637094218.53</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>4</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>1037</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>12</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>81175111.59</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>-3.055902197957039e-10</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>191426019.26</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>2790</v>
       </c>
     </row>
@@ -5826,8 +6336,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E103">
-        <v>0</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5857,6 +6369,9 @@
         <v>0</v>
       </c>
       <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
         <v>4</v>
       </c>
     </row>
@@ -5879,18 +6394,20 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F104">
         <v>1880293270.63</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>1598249274.2</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>282043996.43</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
       <c r="I104">
         <v>0</v>
       </c>
@@ -5907,9 +6424,12 @@
         <v>0</v>
       </c>
       <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
         <v>282043996.43</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>48</v>
       </c>
     </row>
@@ -5932,8 +6452,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E105">
-        <v>0</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5963,6 +6485,9 @@
         <v>0</v>
       </c>
       <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
         <v>34</v>
       </c>
     </row>
@@ -5985,18 +6510,20 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F106">
         <v>600398633.9557805</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>510338838.4150292</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>65005618.90124533</v>
       </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
       <c r="I106">
         <v>0</v>
       </c>
@@ -6013,9 +6540,12 @@
         <v>0</v>
       </c>
       <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
         <v>90059795.54075132</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>3</v>
       </c>
     </row>
@@ -6038,18 +6568,20 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F107">
         <v>1445510250.74</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>1228683712.32</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>216826538.42</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
       <c r="I107">
         <v>0</v>
       </c>
@@ -6066,9 +6598,12 @@
         <v>0</v>
       </c>
       <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
         <v>216826538.42</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>45</v>
       </c>
     </row>
@@ -6091,24 +6626,26 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F108">
         <v>110526592.5104128</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>55263296.2427064</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>5.499999997283643</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
       <c r="K108">
         <v>0</v>
       </c>
@@ -6119,9 +6656,12 @@
         <v>0</v>
       </c>
       <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
         <v>55263296.26770639</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>1</v>
       </c>
     </row>
@@ -6144,18 +6684,20 @@
           <t>OP TP</t>
         </is>
       </c>
-      <c r="E109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F109">
         <v>4488893788.538008</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>3815559715.468382</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>673334073.0696262</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
       <c r="I109">
         <v>0</v>
       </c>
@@ -6172,9 +6714,12 @@
         <v>0</v>
       </c>
       <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
         <v>673334073.0696262</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>229</v>
       </c>
     </row>
@@ -6197,18 +6742,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F110">
         <v>2048969412.158765</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>1662738676.807847</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>386230735.3509181</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
       <c r="I110">
         <v>0</v>
       </c>
@@ -6225,9 +6772,12 @@
         <v>0</v>
       </c>
       <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
         <v>386230735.3509181</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>26</v>
       </c>
     </row>
@@ -6250,18 +6800,20 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F111">
         <v>1628667119.720215</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>1340759489.443177</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>287907630.277038</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
       <c r="I111">
         <v>0</v>
       </c>
@@ -6278,9 +6830,12 @@
         <v>0</v>
       </c>
       <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
         <v>287907630.277038</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>3</v>
       </c>
     </row>
@@ -6303,18 +6858,20 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F112">
         <v>1677833563.38</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>1426158528.19</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>46488520.07</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
       <c r="I112">
         <v>0</v>
       </c>
@@ -6331,9 +6888,12 @@
         <v>0</v>
       </c>
       <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
         <v>251675035.19</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>53</v>
       </c>
     </row>
@@ -6356,18 +6916,20 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F113">
         <v>6651007</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>5653355.95</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>997651.05</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
       <c r="I113">
         <v>0</v>
       </c>
@@ -6384,9 +6946,12 @@
         <v>0</v>
       </c>
       <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
         <v>997651.0499999998</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>1</v>
       </c>
     </row>
@@ -6409,8 +6974,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E114">
-        <v>0</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6440,6 +7007,9 @@
         <v>0</v>
       </c>
       <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
         <v>1</v>
       </c>
     </row>
@@ -6462,18 +7032,20 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F115">
         <v>2854299.024405497</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>2426154.136357572</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>428144.8880479246</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
       <c r="I115">
         <v>0</v>
       </c>
@@ -6490,9 +7062,12 @@
         <v>0</v>
       </c>
       <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
         <v>428144.8880479245</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>1</v>
       </c>
     </row>
@@ -6515,18 +7090,20 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F116">
         <v>20576183.3</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>17489755.79</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>3086427.51</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
       <c r="I116">
         <v>0</v>
       </c>
@@ -6543,9 +7120,12 @@
         <v>0</v>
       </c>
       <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
         <v>3086427.51</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>2</v>
       </c>
     </row>
@@ -6568,24 +7148,26 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F117">
         <v>110526592.6195872</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>55263296.29729361</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>5.500000002716357</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
       <c r="K117">
         <v>0</v>
       </c>
@@ -6596,9 +7178,12 @@
         <v>0</v>
       </c>
       <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
         <v>55263296.32229361</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>1</v>
       </c>
     </row>
@@ -6621,18 +7206,20 @@
           <t>OP TP</t>
         </is>
       </c>
-      <c r="E118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F118">
         <v>102183703.5719921</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>86856147.42161825</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>15327556.15037381</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
       <c r="I118">
         <v>0</v>
       </c>
@@ -6649,9 +7236,12 @@
         <v>0</v>
       </c>
       <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
         <v>15327556.15037381</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>34</v>
       </c>
     </row>
@@ -6674,18 +7264,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F119">
         <v>121594046.1791665</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>98673568.24838112</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>22920477.93078539</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
       <c r="I119">
         <v>0</v>
       </c>
@@ -6702,9 +7294,12 @@
         <v>0</v>
       </c>
       <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
         <v>22920477.93078539</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>10</v>
       </c>
     </row>
@@ -6727,18 +7322,20 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F120">
         <v>88194763.13</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>72604133.76000001</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>15590629.37</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
       <c r="I120">
         <v>0</v>
       </c>
@@ -6755,9 +7352,12 @@
         <v>0</v>
       </c>
       <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
         <v>15590629.37</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>2</v>
       </c>
     </row>
@@ -6780,18 +7380,20 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F121">
         <v>8976379</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>7629922.15</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>1346456.85</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
       <c r="I121">
         <v>0</v>
       </c>
@@ -6808,9 +7410,12 @@
         <v>0</v>
       </c>
       <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
         <v>1346456.85</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>9</v>
       </c>
     </row>
@@ -6833,18 +7438,20 @@
           <t>IROP</t>
         </is>
       </c>
-      <c r="E122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F122">
         <v>80317629.86</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>68269985.27</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>12047644.59</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
       <c r="I122">
         <v>0</v>
       </c>
@@ -6861,9 +7468,12 @@
         <v>0</v>
       </c>
       <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
         <v>12047644.59</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>22</v>
       </c>
     </row>
@@ -6886,8 +7496,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E123">
-        <v>0</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F123">
         <v>0</v>
@@ -6917,6 +7529,9 @@
         <v>0</v>
       </c>
       <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
         <v>27</v>
       </c>
     </row>
@@ -6939,18 +7554,20 @@
           <t>OP D</t>
         </is>
       </c>
-      <c r="E124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F124">
         <v>9226725.199814001</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>7842716.318613252</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>1255577.58070675</v>
       </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
       <c r="I124">
         <v>0</v>
       </c>
@@ -6967,9 +7584,12 @@
         <v>0</v>
       </c>
       <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
         <v>1384008.88120075</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>2</v>
       </c>
     </row>
@@ -6992,18 +7612,20 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F125">
         <v>12871984.85</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>10941186.98</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>1930797.87</v>
       </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
       <c r="I125">
         <v>0</v>
       </c>
@@ -7020,9 +7642,12 @@
         <v>0</v>
       </c>
       <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
         <v>1930797.87</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>5</v>
       </c>
     </row>
@@ -7045,24 +7670,26 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F126">
         <v>21730492.98</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>10865246.48</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <v>9</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
       <c r="K126">
         <v>0</v>
       </c>
@@ -7073,9 +7700,12 @@
         <v>0</v>
       </c>
       <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
         <v>10865246.5</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7728,20 @@
           <t>OP TP</t>
         </is>
       </c>
-      <c r="E127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F127">
         <v>154108536.68</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>130992257</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>23116279.68</v>
       </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
       <c r="I127">
         <v>0</v>
       </c>
@@ -7126,9 +7758,12 @@
         <v>0</v>
       </c>
       <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
         <v>23116279.68</v>
       </c>
-      <c r="O127">
+      <c r="P127">
         <v>7</v>
       </c>
     </row>
@@ -7151,18 +7786,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F128">
         <v>58558038.26206814</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>47519847.7537716</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>11038190.50829655</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
       <c r="I128">
         <v>0</v>
       </c>
@@ -7179,9 +7816,12 @@
         <v>0</v>
       </c>
       <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
         <v>11038190.50829655</v>
       </c>
-      <c r="O128">
+      <c r="P128">
         <v>8</v>
       </c>
     </row>
@@ -7204,18 +7844,20 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F129">
         <v>20321571.72978491</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>16729225.75682293</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>3592345.972961977</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
       <c r="I129">
         <v>0</v>
       </c>
@@ -7232,9 +7874,12 @@
         <v>0</v>
       </c>
       <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
         <v>3592345.972961977</v>
       </c>
-      <c r="O129">
+      <c r="P129">
         <v>2</v>
       </c>
     </row>
@@ -7257,18 +7902,20 @@
           <t>OP ŽP</t>
         </is>
       </c>
-      <c r="E130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F130">
         <v>31632098.46</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>26887283.62</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>640136.65</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
       <c r="I130">
         <v>0</v>
       </c>
@@ -7285,9 +7932,12 @@
         <v>0</v>
       </c>
       <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
         <v>4744814.840000001</v>
       </c>
-      <c r="O130">
+      <c r="P130">
         <v>6</v>
       </c>
     </row>
@@ -7310,37 +7960,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F131">
         <v>15435742462.78946</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>12855879852.83287</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>2541830504.804044</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
       <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
         <v>23.46000000019099</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>29.18999999967338</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>9.340000000895971</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>32756427.76564175</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>2507238.98</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>2579862609.956591</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>641</v>
       </c>
     </row>
@@ -7363,24 +8018,26 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F132">
         <v>739141755.08</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>679201556.92</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>51378986.03</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
       <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
         <v>24</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
       <c r="K132">
         <v>0</v>
       </c>
@@ -7391,9 +8048,12 @@
         <v>0</v>
       </c>
       <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
         <v>59940198.15999997</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>8</v>
       </c>
     </row>
@@ -7416,37 +8076,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F133">
         <v>117859071.82</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>58929535.82</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>180</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
         <v>6655867.69</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>49018472.23</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>58929536</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>57</v>
       </c>
     </row>
@@ -7469,37 +8134,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F134">
         <v>5354064790.61</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>4323250146.5</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>898778044.37</v>
       </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
       <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
         <v>49</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>630</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>49</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>112558209.08</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>30129948.39</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>1030814644.11</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>3046</v>
       </c>
     </row>
@@ -7522,18 +8192,20 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F135">
         <v>5117165920.12</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>4298227197.19</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>469192912.44</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
       <c r="I135">
         <v>0</v>
       </c>
@@ -7541,18 +8213,21 @@
         <v>0</v>
       </c>
       <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
         <v>5</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>349029162.9</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>-1.243279257323593e-09</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>818938722.9300001</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>2999</v>
       </c>
     </row>
@@ -7575,18 +8250,20 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F136">
         <v>1431322304.2</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>1179252132.5</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>250028133.79</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
       <c r="I136">
         <v>0</v>
       </c>
@@ -7594,18 +8271,21 @@
         <v>0</v>
       </c>
       <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
         <v>8</v>
       </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
       <c r="M136">
         <v>0</v>
       </c>
       <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
         <v>252070171.7</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>13</v>
       </c>
     </row>
@@ -7628,37 +8308,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F137">
         <v>8843987119.794807</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>7319666208.751851</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>1153883505.105112</v>
       </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
       <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
         <v>166.3999999993564</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>637.0400000065634</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>12.14000000014933</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>51481796.2083945</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>-4.179310053051054e-10</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>1524320911.042957</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>1018</v>
       </c>
     </row>
@@ -7681,37 +8366,42 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F138">
         <v>2246072163.668969</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>1875883495.690736</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>319686794.7782325</v>
       </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
         <v>33</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>2</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>42422950.43</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>84916543.37</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>370188667.9782325</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>6555</v>
       </c>
     </row>
@@ -7734,18 +8424,20 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F139">
         <v>448869506.8561808</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>368198976.5401717</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>73474771.54600915</v>
       </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
       <c r="I139">
         <v>0</v>
       </c>
@@ -7753,18 +8445,21 @@
         <v>0</v>
       </c>
       <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
         <v>57</v>
       </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
         <v>80670530.31600915</v>
       </c>
-      <c r="O139">
+      <c r="P139">
         <v>2290</v>
       </c>
     </row>
@@ -7787,37 +8482,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F140">
         <v>587239174.0599999</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>293619585.64</v>
       </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
         <v>549</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
         <v>1927755.31</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>17349796.22</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>293619588.42</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>341</v>
       </c>
     </row>
@@ -7840,37 +8540,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F141">
         <v>3374709781.360944</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>2696953996.125652</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>639661575.8642932</v>
       </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
         <v>395</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>363.7999999972268</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>27</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>1629235.94</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>2367534.24</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>677755785.2352918</v>
       </c>
-      <c r="O141">
+      <c r="P141">
         <v>779</v>
       </c>
     </row>
@@ -7893,37 +8598,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F142">
         <v>849475510.3099999</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>722054172.9299999</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>105226419.59</v>
       </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
         <v>406</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>67</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>15448397.63</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>481694.6600000001</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <v>127421337.38</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>1309</v>
       </c>
     </row>
@@ -7946,8 +8656,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E143">
-        <v>0</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F143">
         <v>0</v>
@@ -7977,6 +8689,9 @@
         <v>0</v>
       </c>
       <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
         <v>9</v>
       </c>
     </row>
@@ -7999,37 +8714,42 @@
           <t>OP PPR</t>
         </is>
       </c>
-      <c r="E144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F144">
         <v>452571104.87</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>226285551.6</v>
       </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
         <v>1049</v>
       </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
         <v>2230555.96</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>20075002.74</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>226285553.27</v>
       </c>
-      <c r="O144">
+      <c r="P144">
         <v>888</v>
       </c>
     </row>
@@ -8052,37 +8772,42 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F145">
         <v>14491047188.12485</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>11863017833.97909</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>2443869463.465758</v>
       </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
       <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
         <v>95</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>292</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>92</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>85914290.68000001</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>183131867.73</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>2628029354.145758</v>
       </c>
-      <c r="O145">
+      <c r="P145">
         <v>18996</v>
       </c>
     </row>
@@ -8105,37 +8830,42 @@
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F146">
         <v>5682167924.56</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>4648445157.04</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>712156812.22</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
       <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
         <v>24</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
       <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
         <v>552</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>219946095.16</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>467564908.96</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>1033722767.52</v>
       </c>
-      <c r="O146">
+      <c r="P146">
         <v>429</v>
       </c>
     </row>
@@ -8158,8 +8888,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E147">
-        <v>0</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8189,6 +8921,9 @@
         <v>0</v>
       </c>
       <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
         <v>78</v>
       </c>
     </row>
@@ -8211,8 +8946,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E148">
-        <v>0</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F148">
         <v>0</v>
@@ -8242,6 +8979,9 @@
         <v>0</v>
       </c>
       <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
         <v>1842</v>
       </c>
     </row>
@@ -8264,37 +9004,42 @@
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F149">
         <v>2535456775.534787</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>2080569923.989627</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>389797940.206551</v>
       </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
       <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
         <v>97.14000000045264</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>737.9699999965364</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>187.5199999989547</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>23419720.01596375</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>59814145.24999999</v>
       </c>
-      <c r="N149">
+      <c r="O149">
         <v>454886851.5451602</v>
       </c>
-      <c r="O149">
+      <c r="P149">
         <v>631</v>
       </c>
     </row>
@@ -8304,8 +9049,10 @@
           <t>OP ČR-PL</t>
         </is>
       </c>
-      <c r="E150">
-        <v>0</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F150">
         <v>0</v>
@@ -8335,6 +9082,9 @@
         <v>0</v>
       </c>
       <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
         <v>1</v>
       </c>
     </row>
@@ -8344,8 +9094,10 @@
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="E151">
-        <v>0</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8375,6 +9127,9 @@
         <v>0</v>
       </c>
       <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
         <v>5</v>
       </c>
     </row>
@@ -8387,31 +9142,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>10552666</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>5223552</v>
       </c>
-      <c r="N152">
+      <c r="O152">
         <v>5329114</v>
       </c>
-      <c r="P152" t="inlineStr">
+      <c r="Q152" t="inlineStr">
         <is>
           <t>1.1.1-Vzdělávací akce</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="R152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8426,31 +9181,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>17736550</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>8779573</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>8956977</v>
       </c>
-      <c r="P153" t="inlineStr">
+      <c r="Q153" t="inlineStr">
         <is>
           <t>1.2.1-Informační akce</t>
         </is>
       </c>
-      <c r="Q153" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8465,21 +9220,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>5064036</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>2506691</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>2557345</v>
       </c>
-      <c r="P154" t="inlineStr">
+      <c r="Q154" t="inlineStr">
         <is>
           <t>16.1.1-PE 16.1.1</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr">
+      <c r="S154" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8494,21 +9249,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>119800433</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>59301207</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>60499226</v>
       </c>
-      <c r="P155" t="inlineStr">
+      <c r="Q155" t="inlineStr">
         <is>
           <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8523,21 +9278,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>1425520552</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>705632661</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>719887891</v>
       </c>
-      <c r="P156" t="inlineStr">
+      <c r="Q156" t="inlineStr">
         <is>
           <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
-      <c r="R156" t="inlineStr">
+      <c r="S156" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8552,21 +9307,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>23444689</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>11605116</v>
       </c>
-      <c r="N157">
+      <c r="O157">
         <v>11839573</v>
       </c>
-      <c r="P157" t="inlineStr">
+      <c r="Q157" t="inlineStr">
         <is>
           <t>16.3.1-PE 16.3.1</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8581,21 +9336,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>1560265225</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>998606513.6</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>561658711.4</v>
       </c>
-      <c r="P158" t="inlineStr">
+      <c r="Q158" t="inlineStr">
         <is>
           <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
         </is>
       </c>
-      <c r="R158" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8610,21 +9365,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>3417031</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>2186896</v>
       </c>
-      <c r="N159">
+      <c r="O159">
         <v>1230135</v>
       </c>
-      <c r="P159" t="inlineStr">
+      <c r="Q159" t="inlineStr">
         <is>
           <t>19.3.1-PE 19.3.1</t>
         </is>
       </c>
-      <c r="R159" t="inlineStr">
+      <c r="S159" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8639,21 +9394,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>207511920</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>102718316</v>
       </c>
-      <c r="N160">
+      <c r="O160">
         <v>104793604</v>
       </c>
-      <c r="P160" t="inlineStr">
+      <c r="Q160" t="inlineStr">
         <is>
           <t>20.1-Podpora technické pomoci (mimo CSV)</t>
         </is>
       </c>
-      <c r="R160" t="inlineStr">
+      <c r="S160" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8668,21 +9423,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>33083552</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>16376326</v>
       </c>
-      <c r="N161">
+      <c r="O161">
         <v>16707226</v>
       </c>
-      <c r="P161" t="inlineStr">
+      <c r="Q161" t="inlineStr">
         <is>
           <t>20.2-Podpora pro zřízení a činnost CSV</t>
         </is>
       </c>
-      <c r="R161" t="inlineStr">
+      <c r="S161" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8697,21 +9452,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>8151341343</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>4034912512.72</v>
       </c>
-      <c r="N162">
+      <c r="O162">
         <v>4116428830.28</v>
       </c>
-      <c r="P162" t="inlineStr">
+      <c r="Q162" t="inlineStr">
         <is>
           <t>4.1.1-Investice do zemědělských podniků</t>
         </is>
       </c>
-      <c r="R162" t="inlineStr">
+      <c r="S162" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8726,21 +9481,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>1870907660</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>926098960</v>
       </c>
-      <c r="N163">
+      <c r="O163">
         <v>944808700</v>
       </c>
-      <c r="P163" t="inlineStr">
+      <c r="Q163" t="inlineStr">
         <is>
           <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr">
+      <c r="S163" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8755,21 +9510,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>2756088829</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>1364263827</v>
       </c>
-      <c r="N164">
+      <c r="O164">
         <v>1391825002</v>
       </c>
-      <c r="P164" t="inlineStr">
+      <c r="Q164" t="inlineStr">
         <is>
           <t>4.3.1-Pozemkové úpravy</t>
         </is>
       </c>
-      <c r="R164" t="inlineStr">
+      <c r="S164" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8784,21 +9539,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>671466497</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>332375802</v>
       </c>
-      <c r="N165">
+      <c r="O165">
         <v>339090695</v>
       </c>
-      <c r="P165" t="inlineStr">
+      <c r="Q165" t="inlineStr">
         <is>
           <t>4.3.2-Lesnická infrastruktura</t>
         </is>
       </c>
-      <c r="R165" t="inlineStr">
+      <c r="S165" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -8813,31 +9568,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>925694805.03</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>458218221.52</v>
       </c>
-      <c r="N166">
+      <c r="O166">
         <v>467476583.51</v>
       </c>
-      <c r="P166" t="inlineStr">
+      <c r="Q166" t="inlineStr">
         <is>
           <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
+      <c r="R166" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="S166" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="T166" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -8852,31 +9607,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>471381398</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>233333660</v>
       </c>
-      <c r="N167">
+      <c r="O167">
         <v>238047738</v>
       </c>
-      <c r="P167" t="inlineStr">
+      <c r="Q167" t="inlineStr">
         <is>
           <t>6.4.1-Investice do nezemědělských činností</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr">
+      <c r="R167" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="T167" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -8891,31 +9646,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>185921951</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>92031330</v>
       </c>
-      <c r="N168">
+      <c r="O168">
         <v>93890621</v>
       </c>
-      <c r="P168" t="inlineStr">
+      <c r="Q168" t="inlineStr">
         <is>
           <t>6.4.2-Podpora agroturistiky</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr">
+      <c r="R168" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr">
+      <c r="S168" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="T168" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -8930,31 +9685,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>21946709</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>10863614</v>
       </c>
-      <c r="N169">
+      <c r="O169">
         <v>11083095</v>
       </c>
-      <c r="P169" t="inlineStr">
+      <c r="Q169" t="inlineStr">
         <is>
           <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr">
+      <c r="R169" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr">
+      <c r="S169" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="T169" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -8969,31 +9724,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>52156617</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>25817516</v>
       </c>
-      <c r="N170">
+      <c r="O170">
         <v>26339101</v>
       </c>
-      <c r="P170" t="inlineStr">
+      <c r="Q170" t="inlineStr">
         <is>
           <t>8.3.1-Zavádění preventivních opatření v lesích</t>
         </is>
       </c>
-      <c r="Q170" t="inlineStr">
+      <c r="R170" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr">
+      <c r="S170" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="T170" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9008,31 +9763,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>128356732</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>63536537</v>
       </c>
-      <c r="N171">
+      <c r="O171">
         <v>64820195</v>
       </c>
-      <c r="P171" t="inlineStr">
+      <c r="Q171" t="inlineStr">
         <is>
           <t>8.4.1-Obnova lesních porostů po kalamitách</t>
         </is>
       </c>
-      <c r="Q171" t="inlineStr">
+      <c r="R171" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="T171" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9047,31 +9802,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>28497569</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>14106292</v>
       </c>
-      <c r="N172">
+      <c r="O172">
         <v>14391277</v>
       </c>
-      <c r="P172" t="inlineStr">
+      <c r="Q172" t="inlineStr">
         <is>
           <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
         </is>
       </c>
-      <c r="Q172" t="inlineStr">
+      <c r="R172" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R172" t="inlineStr">
+      <c r="S172" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="T172" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9086,31 +9841,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>32007332</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>15843561</v>
       </c>
-      <c r="N173">
+      <c r="O173">
         <v>16163771</v>
       </c>
-      <c r="P173" t="inlineStr">
+      <c r="Q173" t="inlineStr">
         <is>
           <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
         </is>
       </c>
-      <c r="Q173" t="inlineStr">
+      <c r="R173" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr">
+      <c r="S173" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="T173" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9125,31 +9880,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>116673057</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>57753103</v>
       </c>
-      <c r="N174">
+      <c r="O174">
         <v>58919954</v>
       </c>
-      <c r="P174" t="inlineStr">
+      <c r="Q174" t="inlineStr">
         <is>
           <t>8.5.2-Neproduktivní investice v lesích</t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr">
+      <c r="R174" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9164,31 +9919,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>109453796</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>54179621</v>
       </c>
-      <c r="N175">
+      <c r="O175">
         <v>55274175</v>
       </c>
-      <c r="P175" t="inlineStr">
+      <c r="Q175" t="inlineStr">
         <is>
           <t>8.5.3-Přeměna porostů náhradních dřevin</t>
         </is>
       </c>
-      <c r="Q175" t="inlineStr">
+      <c r="R175" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9203,31 +9958,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>477232720</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>236229945</v>
       </c>
-      <c r="N176">
+      <c r="O176">
         <v>241002775</v>
       </c>
-      <c r="P176" t="inlineStr">
+      <c r="Q176" t="inlineStr">
         <is>
           <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
         </is>
       </c>
-      <c r="Q176" t="inlineStr">
+      <c r="R176" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr">
+      <c r="T176" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9242,31 +9997,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>111471771</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>55178496</v>
       </c>
-      <c r="N177">
+      <c r="O177">
         <v>56293275</v>
       </c>
-      <c r="P177" t="inlineStr">
+      <c r="Q177" t="inlineStr">
         <is>
           <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
         </is>
       </c>
-      <c r="Q177" t="inlineStr">
+      <c r="R177" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr">
+      <c r="S177" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="T177" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9281,31 +10036,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>12896222457.44</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>9672808263.870001</v>
       </c>
-      <c r="N178">
+      <c r="O178">
         <v>3223414193.57</v>
       </c>
-      <c r="P178" t="inlineStr">
+      <c r="Q178" t="inlineStr">
         <is>
           <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
-      <c r="Q178" t="inlineStr">
+      <c r="R178" t="inlineStr">
         <is>
           <t>AEKO</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
+      <c r="S178" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="T178" t="inlineStr">
         <is>
           <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
@@ -9320,21 +10075,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>143396206.46</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>107555281.89</v>
       </c>
-      <c r="N179">
+      <c r="O179">
         <v>35840924.57</v>
       </c>
-      <c r="P179" t="inlineStr">
+      <c r="Q179" t="inlineStr">
         <is>
           <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
         </is>
       </c>
-      <c r="R179" t="inlineStr">
+      <c r="S179" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9349,21 +10104,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>8680053794.65</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>6510540691.67</v>
       </c>
-      <c r="N180">
+      <c r="O180">
         <v>2169513102.98</v>
       </c>
-      <c r="P180" t="inlineStr">
+      <c r="Q180" t="inlineStr">
         <is>
           <t>ANC-ANC</t>
         </is>
       </c>
-      <c r="R180" t="inlineStr">
+      <c r="S180" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9378,31 +10133,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>5466893578.45</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>4100404216.54</v>
       </c>
-      <c r="N181">
+      <c r="O181">
         <v>1366489361.91</v>
       </c>
-      <c r="P181" t="inlineStr">
+      <c r="Q181" t="inlineStr">
         <is>
           <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr">
+      <c r="R181" t="inlineStr">
         <is>
           <t>EKOZ</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr">
+      <c r="S181" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="inlineStr">
         <is>
           <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
@@ -9417,31 +10172,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>107650775.54</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>80738535.95999999</v>
       </c>
-      <c r="N182">
+      <c r="O182">
         <v>26912239.58</v>
       </c>
-      <c r="P182" t="inlineStr">
+      <c r="Q182" t="inlineStr">
         <is>
           <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr">
+      <c r="R182" t="inlineStr">
         <is>
           <t>ELESP</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr">
+      <c r="S182" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="T182" t="inlineStr">
         <is>
           <t>ELESP-Péče a náhrada</t>
         </is>
@@ -9456,21 +10211,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>13561320.19</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>10170985.28</v>
       </c>
-      <c r="N183">
+      <c r="O183">
         <v>3390334.91</v>
       </c>
-      <c r="P183" t="inlineStr">
+      <c r="Q183" t="inlineStr">
         <is>
           <t>GEN-GEN</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr">
+      <c r="S183" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9485,21 +10240,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>-34875</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>-26156.25</v>
       </c>
-      <c r="N184">
+      <c r="O184">
         <v>-8718.75</v>
       </c>
-      <c r="P184" t="inlineStr">
+      <c r="Q184" t="inlineStr">
         <is>
           <t>I.1.1.1-Modernizace zemědělských podniků</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr">
+      <c r="S184" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9514,21 +10269,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>-175944.13</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>-131958.1</v>
       </c>
-      <c r="N185">
+      <c r="O185">
         <v>-43986.03</v>
       </c>
-      <c r="P185" t="inlineStr">
+      <c r="Q185" t="inlineStr">
         <is>
           <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr">
+      <c r="S185" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9543,21 +10298,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>130502</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>64598</v>
       </c>
-      <c r="N186">
+      <c r="O186">
         <v>65904</v>
       </c>
-      <c r="P186" t="inlineStr">
+      <c r="Q186" t="inlineStr">
         <is>
           <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr">
+      <c r="S186" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9572,21 +10327,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>6364572</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>3150463</v>
       </c>
-      <c r="N187">
+      <c r="O187">
         <v>3214109</v>
       </c>
-      <c r="P187" t="inlineStr">
+      <c r="Q187" t="inlineStr">
         <is>
           <t>III.1.3.b-Ubytování, sport</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr">
+      <c r="S187" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9601,31 +10356,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>33974260.9</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>25480620.42</v>
       </c>
-      <c r="N188">
+      <c r="O188">
         <v>8493640.48</v>
       </c>
-      <c r="P188" t="inlineStr">
+      <c r="Q188" t="inlineStr">
         <is>
           <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
         </is>
       </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="inlineStr">
         <is>
           <t>LEOD</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
+      <c r="S188" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S188" t="inlineStr">
+      <c r="T188" t="inlineStr">
         <is>
           <t>LEOD</t>
         </is>
@@ -9640,31 +10395,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>18111505.42</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>13583613.92</v>
       </c>
-      <c r="N189">
+      <c r="O189">
         <v>4527891.5</v>
       </c>
-      <c r="P189" t="inlineStr">
+      <c r="Q189" t="inlineStr">
         <is>
           <t>LESND-Natura 2000 v lesích</t>
         </is>
       </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
+      <c r="S189" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S189" t="inlineStr">
+      <c r="T189" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
@@ -9679,31 +10434,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>4751134404.82</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>3563563261.26</v>
       </c>
-      <c r="N190">
+      <c r="O190">
         <v>1187571143.56</v>
       </c>
-      <c r="P190" t="inlineStr">
+      <c r="Q190" t="inlineStr">
         <is>
           <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr">
+      <c r="R190" t="inlineStr">
         <is>
           <t>LFA</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr">
+      <c r="S190" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="T190" t="inlineStr">
         <is>
           <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
@@ -9718,31 +10473,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>50316366.39</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>37738356.82</v>
       </c>
-      <c r="N191">
+      <c r="O191">
         <v>12578009.57</v>
       </c>
-      <c r="P191" t="inlineStr">
+      <c r="Q191" t="inlineStr">
         <is>
           <t>NAT-Natura 2000 na zemědělské půdě</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr">
+      <c r="R191" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
+      <c r="S191" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="T191" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
@@ -9757,21 +10512,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>130612367.79</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>97959317.86</v>
       </c>
-      <c r="N192">
+      <c r="O192">
         <v>32653049.93</v>
       </c>
-      <c r="P192" t="inlineStr">
+      <c r="Q192" t="inlineStr">
         <is>
           <t>POR-Zachování porostního typu</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr">
+      <c r="S192" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9786,21 +10541,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>14197879.57</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>10648941.65</v>
       </c>
-      <c r="N193">
+      <c r="O193">
         <v>3548937.92</v>
       </c>
-      <c r="P193" t="inlineStr">
+      <c r="Q193" t="inlineStr">
         <is>
           <t>PPO-PPO</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr">
+      <c r="S193" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9815,21 +10570,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>360348391.45</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>178367237.6</v>
       </c>
-      <c r="N194">
+      <c r="O194">
         <v>181981153.85</v>
       </c>
-      <c r="P194" t="inlineStr">
+      <c r="Q194" t="inlineStr">
         <is>
           <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
+      <c r="S194" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9844,21 +10599,21 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>3151410605.91</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>1560227897.37</v>
       </c>
-      <c r="N195">
+      <c r="O195">
         <v>1591182708.54</v>
       </c>
-      <c r="P195" t="inlineStr">
+      <c r="Q195" t="inlineStr">
         <is>
           <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr">
+      <c r="S195" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -9873,31 +10628,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>11785416.06</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>8839234.58</v>
       </c>
-      <c r="N196">
+      <c r="O196">
         <v>2946181.48</v>
       </c>
-      <c r="P196" t="inlineStr">
+      <c r="Q196" t="inlineStr">
         <is>
           <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
       </c>
-      <c r="Q196" t="inlineStr">
+      <c r="R196" t="inlineStr">
         <is>
           <t>ZZPLP</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr">
+      <c r="S196" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="T196" t="inlineStr">
         <is>
           <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
@@ -9912,31 +10667,31 @@
           <t>PRV</t>
         </is>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>6447153.27</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>4835383.36</v>
       </c>
-      <c r="N197">
+      <c r="O197">
         <v>1611769.91</v>
       </c>
-      <c r="P197" t="inlineStr">
+      <c r="Q197" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>
       </c>
-      <c r="Q197" t="inlineStr">
+      <c r="R197" t="inlineStr">
         <is>
           <t>ZZPPN</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr">
+      <c r="S197" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="T197" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>

--- a/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T197"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,25 +435,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>fin_vyuct_verejne</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>n_prj</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_orig</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_id</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_typ</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>prv_opatreni_nazev</t>
         </is>
@@ -514,6 +519,9 @@
         <v>4454976758.649939</v>
       </c>
       <c r="P2">
+        <v>2097983131.007991</v>
+      </c>
+      <c r="Q2">
         <v>591</v>
       </c>
     </row>
@@ -572,6 +580,9 @@
         <v>310227333.66</v>
       </c>
       <c r="P3">
+        <v>152584940.45</v>
+      </c>
+      <c r="Q3">
         <v>122</v>
       </c>
     </row>
@@ -630,6 +641,9 @@
         <v>1456922061.14</v>
       </c>
       <c r="P4">
+        <v>487273834.33</v>
+      </c>
+      <c r="Q4">
         <v>63</v>
       </c>
     </row>
@@ -688,6 +702,9 @@
         <v>3433533378.04</v>
       </c>
       <c r="P5">
+        <v>2289022251.97</v>
+      </c>
+      <c r="Q5">
         <v>23</v>
       </c>
     </row>
@@ -746,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
     </row>
@@ -804,6 +824,9 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>437</v>
       </c>
     </row>
@@ -862,6 +885,9 @@
         <v>190338677.35</v>
       </c>
       <c r="P8">
+        <v>381472572.3</v>
+      </c>
+      <c r="Q8">
         <v>97</v>
       </c>
     </row>
@@ -920,6 +946,9 @@
         <v>1704669.48</v>
       </c>
       <c r="P9">
+        <v>6818677.92</v>
+      </c>
+      <c r="Q9">
         <v>31</v>
       </c>
     </row>
@@ -978,6 +1007,9 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
       </c>
     </row>
@@ -1036,6 +1068,9 @@
         <v>16566080.25</v>
       </c>
       <c r="P11">
+        <v>18561765.15</v>
+      </c>
+      <c r="Q11">
         <v>49</v>
       </c>
     </row>
@@ -1094,6 +1129,9 @@
         <v>451812815.92</v>
       </c>
       <c r="P12">
+        <v>775373909.08</v>
+      </c>
+      <c r="Q12">
         <v>36</v>
       </c>
     </row>
@@ -1152,6 +1190,9 @@
         <v>5869717549.24</v>
       </c>
       <c r="P13">
+        <v>28725955.31</v>
+      </c>
+      <c r="Q13">
         <v>3931</v>
       </c>
     </row>
@@ -1210,6 +1251,9 @@
         <v>8472618629.53</v>
       </c>
       <c r="P14">
+        <v>3318112356.43</v>
+      </c>
+      <c r="Q14">
         <v>4114</v>
       </c>
     </row>
@@ -1268,6 +1312,9 @@
         <v>20026966.94</v>
       </c>
       <c r="P15">
+        <v>13351311.28</v>
+      </c>
+      <c r="Q15">
         <v>38</v>
       </c>
     </row>
@@ -1326,6 +1373,9 @@
         <v>2367686834.8</v>
       </c>
       <c r="P16">
+        <v>1398933631.18</v>
+      </c>
+      <c r="Q16">
         <v>214</v>
       </c>
     </row>
@@ -1384,6 +1434,9 @@
         <v>827126221.7076744</v>
       </c>
       <c r="P17">
+        <v>958333712.5429</v>
+      </c>
+      <c r="Q17">
         <v>4099</v>
       </c>
     </row>
@@ -1442,6 +1495,9 @@
         <v>235684449.85</v>
       </c>
       <c r="P18">
+        <v>356212279.56</v>
+      </c>
+      <c r="Q18">
         <v>239</v>
       </c>
     </row>
@@ -1500,6 +1556,9 @@
         <v>106266674.6423257</v>
       </c>
       <c r="P19">
+        <v>208299059.8871</v>
+      </c>
+      <c r="Q19">
         <v>233</v>
       </c>
     </row>
@@ -1558,6 +1617,9 @@
         <v>521019577.11</v>
       </c>
       <c r="P20">
+        <v>7874185.189999999</v>
+      </c>
+      <c r="Q20">
         <v>186</v>
       </c>
     </row>
@@ -1616,6 +1678,9 @@
         <v>9239102.569999998</v>
       </c>
       <c r="P21">
+        <v>4843126.2</v>
+      </c>
+      <c r="Q21">
         <v>60</v>
       </c>
     </row>
@@ -1674,6 +1739,9 @@
         <v>1718013391.76</v>
       </c>
       <c r="P22">
+        <v>79415122.48</v>
+      </c>
+      <c r="Q22">
         <v>614</v>
       </c>
     </row>
@@ -1732,6 +1800,9 @@
         <v>1458462682.96</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>28</v>
       </c>
     </row>
@@ -1790,6 +1861,9 @@
         <v>2438728059.317557</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>36</v>
       </c>
     </row>
@@ -1848,6 +1922,9 @@
         <v>2733977516.602443</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>40</v>
       </c>
     </row>
@@ -1906,6 +1983,9 @@
         <v>177952738.92</v>
       </c>
       <c r="P26">
+        <v>758015227.9400001</v>
+      </c>
+      <c r="Q26">
         <v>41</v>
       </c>
     </row>
@@ -1964,6 +2044,9 @@
         <v>385438913.01</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>3</v>
       </c>
     </row>
@@ -2022,6 +2105,9 @@
         <v>1924217341.51</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>14</v>
       </c>
     </row>
@@ -2080,6 +2166,9 @@
         <v>212175779.52</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>44</v>
       </c>
     </row>
@@ -2138,6 +2227,9 @@
         <v>241642587.0449999</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>21</v>
       </c>
     </row>
@@ -2196,6 +2288,9 @@
         <v>1805620654</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>46</v>
       </c>
     </row>
@@ -2254,6 +2349,9 @@
         <v>1905268040.53</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>16</v>
       </c>
     </row>
@@ -2312,6 +2410,9 @@
         <v>2380884139.075</v>
       </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>614</v>
       </c>
     </row>
@@ -2370,6 +2471,9 @@
         <v>0</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>9</v>
       </c>
     </row>
@@ -2428,6 +2532,9 @@
         <v>69604389.70999999</v>
       </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>3</v>
       </c>
     </row>
@@ -2486,6 +2593,9 @@
         <v>6086913.75</v>
       </c>
       <c r="P36">
+        <v>5848211.25</v>
+      </c>
+      <c r="Q36">
         <v>121</v>
       </c>
     </row>
@@ -2544,6 +2654,9 @@
         <v>138256361.72</v>
       </c>
       <c r="P37">
+        <v>105612241.96</v>
+      </c>
+      <c r="Q37">
         <v>21</v>
       </c>
     </row>
@@ -2602,6 +2715,9 @@
         <v>819581063.23</v>
       </c>
       <c r="P38">
+        <v>3615900254.8</v>
+      </c>
+      <c r="Q38">
         <v>381</v>
       </c>
     </row>
@@ -2660,6 +2776,9 @@
         <v>682888205</v>
       </c>
       <c r="P39">
+        <v>836896913.79</v>
+      </c>
+      <c r="Q39">
         <v>56</v>
       </c>
     </row>
@@ -2718,6 +2837,9 @@
         <v>63259287.11</v>
       </c>
       <c r="P40">
+        <v>113866716.77</v>
+      </c>
+      <c r="Q40">
         <v>7</v>
       </c>
     </row>
@@ -2776,6 +2898,9 @@
         <v>1151647066.81</v>
       </c>
       <c r="P41">
+        <v>3643931221.01</v>
+      </c>
+      <c r="Q41">
         <v>425</v>
       </c>
     </row>
@@ -2834,6 +2959,9 @@
         <v>101764567.55</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>45</v>
       </c>
     </row>
@@ -2892,6 +3020,9 @@
         <v>0</v>
       </c>
       <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>105</v>
       </c>
     </row>
@@ -2950,6 +3081,9 @@
         <v>1016207143.1</v>
       </c>
       <c r="P44">
+        <v>676971589.12</v>
+      </c>
+      <c r="Q44">
         <v>122</v>
       </c>
     </row>
@@ -3008,6 +3142,9 @@
         <v>1817706919.78</v>
       </c>
       <c r="P45">
+        <v>5818338927.49</v>
+      </c>
+      <c r="Q45">
         <v>148</v>
       </c>
     </row>
@@ -3066,6 +3203,9 @@
         <v>176721444.51</v>
       </c>
       <c r="P46">
+        <v>176683880.21</v>
+      </c>
+      <c r="Q46">
         <v>293</v>
       </c>
     </row>
@@ -3124,6 +3264,9 @@
         <v>2197359161.05</v>
       </c>
       <c r="P47">
+        <v>1163791115.84</v>
+      </c>
+      <c r="Q47">
         <v>3558</v>
       </c>
     </row>
@@ -3182,6 +3325,9 @@
         <v>341999778.3312562</v>
       </c>
       <c r="P48">
+        <v>580227538.5292836</v>
+      </c>
+      <c r="Q48">
         <v>454</v>
       </c>
     </row>
@@ -3240,6 +3386,9 @@
         <v>619164748.11</v>
       </c>
       <c r="P49">
+        <v>355494497.84</v>
+      </c>
+      <c r="Q49">
         <v>490</v>
       </c>
     </row>
@@ -3298,6 +3447,9 @@
         <v>168637739.5487438</v>
       </c>
       <c r="P50">
+        <v>286535500.4507164</v>
+      </c>
+      <c r="Q50">
         <v>106</v>
       </c>
     </row>
@@ -3356,6 +3508,9 @@
         <v>1198383750.97</v>
       </c>
       <c r="P51">
+        <v>3240778538.11</v>
+      </c>
+      <c r="Q51">
         <v>319</v>
       </c>
     </row>
@@ -3414,6 +3569,9 @@
         <v>263366176.04</v>
       </c>
       <c r="P52">
+        <v>447646742.41</v>
+      </c>
+      <c r="Q52">
         <v>586</v>
       </c>
     </row>
@@ -3472,6 +3630,9 @@
         <v>597536224.4</v>
       </c>
       <c r="P53">
+        <v>1568659410.97</v>
+      </c>
+      <c r="Q53">
         <v>632</v>
       </c>
     </row>
@@ -3530,6 +3691,9 @@
         <v>165788356.26</v>
       </c>
       <c r="P54">
+        <v>178006517.92</v>
+      </c>
+      <c r="Q54">
         <v>98</v>
       </c>
     </row>
@@ -3588,6 +3752,9 @@
         <v>4944134009.83</v>
       </c>
       <c r="P55">
+        <v>3850585082.325</v>
+      </c>
+      <c r="Q55">
         <v>1914</v>
       </c>
     </row>
@@ -3646,6 +3813,9 @@
         <v>4327713289.125</v>
       </c>
       <c r="P56">
+        <v>2369283668.3</v>
+      </c>
+      <c r="Q56">
         <v>413</v>
       </c>
     </row>
@@ -3704,6 +3874,9 @@
         <v>139492971.22</v>
       </c>
       <c r="P57">
+        <v>267669865.98</v>
+      </c>
+      <c r="Q57">
         <v>32</v>
       </c>
     </row>
@@ -3762,6 +3935,9 @@
         <v>2074925937.192997</v>
       </c>
       <c r="P58">
+        <v>9184847364.939142</v>
+      </c>
+      <c r="Q58">
         <v>163</v>
       </c>
     </row>
@@ -3820,6 +3996,9 @@
         <v>607120319.52</v>
       </c>
       <c r="P59">
+        <v>607120319.35</v>
+      </c>
+      <c r="Q59">
         <v>121</v>
       </c>
     </row>
@@ -3878,6 +4057,9 @@
         <v>170126643.6537672</v>
       </c>
       <c r="P60">
+        <v>289893607.9861853</v>
+      </c>
+      <c r="Q60">
         <v>630</v>
       </c>
     </row>
@@ -3936,6 +4118,9 @@
         <v>860780166.4941459</v>
       </c>
       <c r="P61">
+        <v>1333346636.059157</v>
+      </c>
+      <c r="Q61">
         <v>64</v>
       </c>
     </row>
@@ -3994,6 +4179,9 @@
         <v>2982675804.431101</v>
       </c>
       <c r="P62">
+        <v>4141129948.454005</v>
+      </c>
+      <c r="Q62">
         <v>2308</v>
       </c>
     </row>
@@ -4052,6 +4240,9 @@
         <v>1259211795.592857</v>
       </c>
       <c r="P63">
+        <v>1690039619.5117</v>
+      </c>
+      <c r="Q63">
         <v>45</v>
       </c>
     </row>
@@ -4110,6 +4301,9 @@
         <v>37831904.45</v>
       </c>
       <c r="P64">
+        <v>88274441.95999999</v>
+      </c>
+      <c r="Q64">
         <v>137</v>
       </c>
     </row>
@@ -4168,6 +4362,9 @@
         <v>374801359.95</v>
       </c>
       <c r="P65">
+        <v>674642446.25</v>
+      </c>
+      <c r="Q65">
         <v>89</v>
       </c>
     </row>
@@ -4226,6 +4423,9 @@
         <v>621921269.684</v>
       </c>
       <c r="P66">
+        <v>753360246.284</v>
+      </c>
+      <c r="Q66">
         <v>408</v>
       </c>
     </row>
@@ -4284,6 +4484,9 @@
         <v>3034761375.79</v>
       </c>
       <c r="P67">
+        <v>2096998391.88</v>
+      </c>
+      <c r="Q67">
         <v>3422</v>
       </c>
     </row>
@@ -4342,6 +4545,9 @@
         <v>13866687.33</v>
       </c>
       <c r="P68">
+        <v>24960037.17</v>
+      </c>
+      <c r="Q68">
         <v>10</v>
       </c>
     </row>
@@ -4400,6 +4606,9 @@
         <v>427184192.6561936</v>
       </c>
       <c r="P69">
+        <v>295610293.2928182</v>
+      </c>
+      <c r="Q69">
         <v>276</v>
       </c>
     </row>
@@ -4458,6 +4667,9 @@
         <v>607380662.85</v>
       </c>
       <c r="P70">
+        <v>580959776.8099999</v>
+      </c>
+      <c r="Q70">
         <v>1113</v>
       </c>
     </row>
@@ -4516,6 +4728,9 @@
         <v>70103871.42</v>
       </c>
       <c r="P71">
+        <v>128064328.18</v>
+      </c>
+      <c r="Q71">
         <v>8</v>
       </c>
     </row>
@@ -4574,6 +4789,9 @@
         <v>6151622586.09</v>
       </c>
       <c r="P72">
+        <v>4503355865.23</v>
+      </c>
+      <c r="Q72">
         <v>4221</v>
       </c>
     </row>
@@ -4632,6 +4850,9 @@
         <v>82739249.75</v>
       </c>
       <c r="P73">
+        <v>149281723.08</v>
+      </c>
+      <c r="Q73">
         <v>27</v>
       </c>
     </row>
@@ -4690,6 +4911,9 @@
         <v>5585816734.72</v>
       </c>
       <c r="P74">
+        <v>4844454559.01</v>
+      </c>
+      <c r="Q74">
         <v>4428</v>
       </c>
     </row>
@@ -4748,6 +4972,9 @@
         <v>472867915.08</v>
       </c>
       <c r="P75">
+        <v>485077487.76</v>
+      </c>
+      <c r="Q75">
         <v>1528</v>
       </c>
     </row>
@@ -4806,6 +5033,9 @@
         <v>3422139547.88</v>
       </c>
       <c r="P76">
+        <v>1517814370.17</v>
+      </c>
+      <c r="Q76">
         <v>1132</v>
       </c>
     </row>
@@ -4864,6 +5094,9 @@
         <v>3728331452.93</v>
       </c>
       <c r="P77">
+        <v>2610339816.13</v>
+      </c>
+      <c r="Q77">
         <v>1020</v>
       </c>
     </row>
@@ -4922,6 +5155,9 @@
         <v>81146871.92999999</v>
       </c>
       <c r="P78">
+        <v>459832271.27</v>
+      </c>
+      <c r="Q78">
         <v>532</v>
       </c>
     </row>
@@ -4980,6 +5216,9 @@
         <v>21627590.41</v>
       </c>
       <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
         <v>42</v>
       </c>
     </row>
@@ -5038,6 +5277,9 @@
         <v>6437562.260000001</v>
       </c>
       <c r="P80">
+        <v>5267096.380000001</v>
+      </c>
+      <c r="Q80">
         <v>42</v>
       </c>
     </row>
@@ -5096,6 +5338,9 @@
         <v>613398698.01</v>
       </c>
       <c r="P81">
+        <v>561662422.8</v>
+      </c>
+      <c r="Q81">
         <v>551</v>
       </c>
     </row>
@@ -5154,6 +5399,9 @@
         <v>2510939681.84</v>
       </c>
       <c r="P82">
+        <v>1858459329.56</v>
+      </c>
+      <c r="Q82">
         <v>661</v>
       </c>
     </row>
@@ -5212,6 +5460,9 @@
         <v>1689644181.5</v>
       </c>
       <c r="P83">
+        <v>2189559231.1</v>
+      </c>
+      <c r="Q83">
         <v>698</v>
       </c>
     </row>
@@ -5270,6 +5521,9 @@
         <v>397640273.94</v>
       </c>
       <c r="P84">
+        <v>370482997.42</v>
+      </c>
+      <c r="Q84">
         <v>3145</v>
       </c>
     </row>
@@ -5328,6 +5582,9 @@
         <v>68838150.69</v>
       </c>
       <c r="P85">
+        <v>13533390.32</v>
+      </c>
+      <c r="Q85">
         <v>126</v>
       </c>
     </row>
@@ -5386,6 +5643,9 @@
         <v>576246998.732</v>
       </c>
       <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>783</v>
       </c>
     </row>
@@ -5444,6 +5704,9 @@
         <v>0</v>
       </c>
       <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>11</v>
       </c>
     </row>
@@ -5502,6 +5765,9 @@
         <v>142109402.77</v>
       </c>
       <c r="P88">
+        <v>38989183.63</v>
+      </c>
+      <c r="Q88">
         <v>566</v>
       </c>
     </row>
@@ -5560,6 +5826,9 @@
         <v>22150161.538</v>
       </c>
       <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>122</v>
       </c>
     </row>
@@ -5618,6 +5887,9 @@
         <v>0</v>
       </c>
       <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>7</v>
       </c>
     </row>
@@ -5676,6 +5948,9 @@
         <v>523968373.92</v>
       </c>
       <c r="P91">
+        <v>19193478.71</v>
+      </c>
+      <c r="Q91">
         <v>1138</v>
       </c>
     </row>
@@ -5734,6 +6009,9 @@
         <v>231194746.8</v>
       </c>
       <c r="P92">
+        <v>572435491.23</v>
+      </c>
+      <c r="Q92">
         <v>171</v>
       </c>
     </row>
@@ -5792,6 +6070,9 @@
         <v>0</v>
       </c>
       <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
         <v>93</v>
       </c>
     </row>
@@ -5850,6 +6131,9 @@
         <v>0</v>
       </c>
       <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>300</v>
       </c>
     </row>
@@ -5908,6 +6192,9 @@
         <v>0</v>
       </c>
       <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>138</v>
       </c>
     </row>
@@ -5966,6 +6253,9 @@
         <v>0</v>
       </c>
       <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>2</v>
       </c>
     </row>
@@ -6024,6 +6314,9 @@
         <v>0</v>
       </c>
       <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
         <v>118</v>
       </c>
     </row>
@@ -6082,6 +6375,9 @@
         <v>987858188.88</v>
       </c>
       <c r="P98">
+        <v>2213236864.15</v>
+      </c>
+      <c r="Q98">
         <v>284</v>
       </c>
     </row>
@@ -6140,6 +6436,9 @@
         <v>0</v>
       </c>
       <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
         <v>404</v>
       </c>
     </row>
@@ -6198,6 +6497,9 @@
         <v>0</v>
       </c>
       <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
         <v>1</v>
       </c>
     </row>
@@ -6256,6 +6558,9 @@
         <v>32541426.22</v>
       </c>
       <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
         <v>213</v>
       </c>
     </row>
@@ -6314,6 +6619,9 @@
         <v>191426019.26</v>
       </c>
       <c r="P102">
+        <v>1542327038.47</v>
+      </c>
+      <c r="Q102">
         <v>2790</v>
       </c>
     </row>
@@ -6372,6 +6680,9 @@
         <v>0</v>
       </c>
       <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
         <v>4</v>
       </c>
     </row>
@@ -6430,6 +6741,9 @@
         <v>282043996.43</v>
       </c>
       <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>48</v>
       </c>
     </row>
@@ -6488,6 +6802,9 @@
         <v>0</v>
       </c>
       <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
         <v>34</v>
       </c>
     </row>
@@ -6546,6 +6863,9 @@
         <v>90059795.54075132</v>
       </c>
       <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>3</v>
       </c>
     </row>
@@ -6604,6 +6924,9 @@
         <v>216826538.42</v>
       </c>
       <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
         <v>45</v>
       </c>
     </row>
@@ -6662,6 +6985,9 @@
         <v>55263296.26770639</v>
       </c>
       <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
         <v>1</v>
       </c>
     </row>
@@ -6720,6 +7046,9 @@
         <v>673334073.0696262</v>
       </c>
       <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>229</v>
       </c>
     </row>
@@ -6778,6 +7107,9 @@
         <v>386230735.3509181</v>
       </c>
       <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>26</v>
       </c>
     </row>
@@ -6836,6 +7168,9 @@
         <v>287907630.277038</v>
       </c>
       <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
         <v>3</v>
       </c>
     </row>
@@ -6894,6 +7229,9 @@
         <v>251675035.19</v>
       </c>
       <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>53</v>
       </c>
     </row>
@@ -6952,6 +7290,9 @@
         <v>997651.0499999998</v>
       </c>
       <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
         <v>1</v>
       </c>
     </row>
@@ -7010,6 +7351,9 @@
         <v>0</v>
       </c>
       <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
         <v>1</v>
       </c>
     </row>
@@ -7068,6 +7412,9 @@
         <v>428144.8880479245</v>
       </c>
       <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
         <v>1</v>
       </c>
     </row>
@@ -7126,6 +7473,9 @@
         <v>3086427.51</v>
       </c>
       <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
         <v>2</v>
       </c>
     </row>
@@ -7184,6 +7534,9 @@
         <v>55263296.32229361</v>
       </c>
       <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
         <v>1</v>
       </c>
     </row>
@@ -7242,6 +7595,9 @@
         <v>15327556.15037381</v>
       </c>
       <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
         <v>34</v>
       </c>
     </row>
@@ -7300,6 +7656,9 @@
         <v>22920477.93078539</v>
       </c>
       <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
         <v>10</v>
       </c>
     </row>
@@ -7358,6 +7717,9 @@
         <v>15590629.37</v>
       </c>
       <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
         <v>2</v>
       </c>
     </row>
@@ -7416,6 +7778,9 @@
         <v>1346456.85</v>
       </c>
       <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
         <v>9</v>
       </c>
     </row>
@@ -7474,6 +7839,9 @@
         <v>12047644.59</v>
       </c>
       <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
         <v>22</v>
       </c>
     </row>
@@ -7532,6 +7900,9 @@
         <v>0</v>
       </c>
       <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
         <v>27</v>
       </c>
     </row>
@@ -7590,6 +7961,9 @@
         <v>1384008.88120075</v>
       </c>
       <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
         <v>2</v>
       </c>
     </row>
@@ -7648,6 +8022,9 @@
         <v>1930797.87</v>
       </c>
       <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
         <v>5</v>
       </c>
     </row>
@@ -7706,6 +8083,9 @@
         <v>10865246.5</v>
       </c>
       <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
         <v>1</v>
       </c>
     </row>
@@ -7764,6 +8144,9 @@
         <v>23116279.68</v>
       </c>
       <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
         <v>7</v>
       </c>
     </row>
@@ -7822,6 +8205,9 @@
         <v>11038190.50829655</v>
       </c>
       <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
         <v>8</v>
       </c>
     </row>
@@ -7880,6 +8266,9 @@
         <v>3592345.972961977</v>
       </c>
       <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
         <v>2</v>
       </c>
     </row>
@@ -7938,6 +8327,9 @@
         <v>4744814.840000001</v>
       </c>
       <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
         <v>6</v>
       </c>
     </row>
@@ -7996,6 +8388,9 @@
         <v>2579862609.956591</v>
       </c>
       <c r="P131">
+        <v>226281844.3295787</v>
+      </c>
+      <c r="Q131">
         <v>641</v>
       </c>
     </row>
@@ -8054,6 +8449,9 @@
         <v>59940198.15999997</v>
       </c>
       <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
         <v>8</v>
       </c>
     </row>
@@ -8112,6 +8510,9 @@
         <v>58929536</v>
       </c>
       <c r="P133">
+        <v>104692812.01</v>
+      </c>
+      <c r="Q133">
         <v>57</v>
       </c>
     </row>
@@ -8170,6 +8571,9 @@
         <v>1030814644.11</v>
       </c>
       <c r="P134">
+        <v>685687781.35</v>
+      </c>
+      <c r="Q134">
         <v>3046</v>
       </c>
     </row>
@@ -8228,6 +8632,9 @@
         <v>818938722.9300001</v>
       </c>
       <c r="P135">
+        <v>1736208313.93</v>
+      </c>
+      <c r="Q135">
         <v>2999</v>
       </c>
     </row>
@@ -8286,6 +8693,9 @@
         <v>252070171.7</v>
       </c>
       <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
         <v>13</v>
       </c>
     </row>
@@ -8344,6 +8754,9 @@
         <v>1524320911.042957</v>
       </c>
       <c r="P137">
+        <v>292414422.3192651</v>
+      </c>
+      <c r="Q137">
         <v>1018</v>
       </c>
     </row>
@@ -8402,6 +8815,9 @@
         <v>370188667.9782325</v>
       </c>
       <c r="P138">
+        <v>788781506.34</v>
+      </c>
+      <c r="Q138">
         <v>6555</v>
       </c>
     </row>
@@ -8460,6 +8876,9 @@
         <v>80670530.31600915</v>
       </c>
       <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
         <v>2290</v>
       </c>
     </row>
@@ -8518,6 +8937,9 @@
         <v>293619588.42</v>
       </c>
       <c r="P140">
+        <v>36627347.54</v>
+      </c>
+      <c r="Q140">
         <v>341</v>
       </c>
     </row>
@@ -8576,6 +8998,9 @@
         <v>677755785.2352918</v>
       </c>
       <c r="P141">
+        <v>21543025.74</v>
+      </c>
+      <c r="Q141">
         <v>779</v>
       </c>
     </row>
@@ -8634,6 +9059,9 @@
         <v>127421337.38</v>
       </c>
       <c r="P142">
+        <v>90752209.03</v>
+      </c>
+      <c r="Q142">
         <v>1309</v>
       </c>
     </row>
@@ -8692,6 +9120,9 @@
         <v>0</v>
       </c>
       <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
         <v>9</v>
       </c>
     </row>
@@ -8750,6 +9181,9 @@
         <v>226285553.27</v>
       </c>
       <c r="P144">
+        <v>42380561.33</v>
+      </c>
+      <c r="Q144">
         <v>888</v>
       </c>
     </row>
@@ -8808,6 +9242,9 @@
         <v>2628029354.145758</v>
       </c>
       <c r="P145">
+        <v>1399741169.37</v>
+      </c>
+      <c r="Q145">
         <v>18996</v>
       </c>
     </row>
@@ -8866,6 +9303,9 @@
         <v>1033722767.52</v>
       </c>
       <c r="P146">
+        <v>3546180750.17</v>
+      </c>
+      <c r="Q146">
         <v>429</v>
       </c>
     </row>
@@ -8924,6 +9364,9 @@
         <v>0</v>
       </c>
       <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
         <v>78</v>
       </c>
     </row>
@@ -8982,6 +9425,9 @@
         <v>0</v>
       </c>
       <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
         <v>1842</v>
       </c>
     </row>
@@ -9040,6 +9486,9 @@
         <v>454886851.5451602</v>
       </c>
       <c r="P149">
+        <v>426545296.9611562</v>
+      </c>
+      <c r="Q149">
         <v>631</v>
       </c>
     </row>
@@ -9085,6 +9534,9 @@
         <v>0</v>
       </c>
       <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
         <v>1</v>
       </c>
     </row>
@@ -9130,6 +9582,9 @@
         <v>0</v>
       </c>
       <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
         <v>5</v>
       </c>
     </row>
@@ -9151,22 +9606,22 @@
       <c r="O152">
         <v>5329114</v>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="R152" t="inlineStr">
         <is>
           <t>1.1.1-Vzdělávací akce</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="U152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9190,22 +9645,22 @@
       <c r="O153">
         <v>8956977</v>
       </c>
-      <c r="Q153" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>1.2.1-Informační akce</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9229,12 +9684,12 @@
       <c r="O154">
         <v>2557345</v>
       </c>
-      <c r="Q154" t="inlineStr">
+      <c r="R154" t="inlineStr">
         <is>
           <t>16.1.1-PE 16.1.1</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="T154" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9258,12 +9713,12 @@
       <c r="O155">
         <v>60499226</v>
       </c>
-      <c r="Q155" t="inlineStr">
+      <c r="R155" t="inlineStr">
         <is>
           <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="T155" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9287,12 +9742,12 @@
       <c r="O156">
         <v>719887891</v>
       </c>
-      <c r="Q156" t="inlineStr">
+      <c r="R156" t="inlineStr">
         <is>
           <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="T156" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9316,12 +9771,12 @@
       <c r="O157">
         <v>11839573</v>
       </c>
-      <c r="Q157" t="inlineStr">
+      <c r="R157" t="inlineStr">
         <is>
           <t>16.3.1-PE 16.3.1</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="T157" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9345,12 +9800,12 @@
       <c r="O158">
         <v>561658711.4</v>
       </c>
-      <c r="Q158" t="inlineStr">
+      <c r="R158" t="inlineStr">
         <is>
           <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr">
+      <c r="T158" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9374,12 +9829,12 @@
       <c r="O159">
         <v>1230135</v>
       </c>
-      <c r="Q159" t="inlineStr">
+      <c r="R159" t="inlineStr">
         <is>
           <t>19.3.1-PE 19.3.1</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="T159" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9403,12 +9858,12 @@
       <c r="O160">
         <v>104793604</v>
       </c>
-      <c r="Q160" t="inlineStr">
+      <c r="R160" t="inlineStr">
         <is>
           <t>20.1-Podpora technické pomoci (mimo CSV)</t>
         </is>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="T160" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9432,12 +9887,12 @@
       <c r="O161">
         <v>16707226</v>
       </c>
-      <c r="Q161" t="inlineStr">
+      <c r="R161" t="inlineStr">
         <is>
           <t>20.2-Podpora pro zřízení a činnost CSV</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="T161" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9461,12 +9916,12 @@
       <c r="O162">
         <v>4116428830.28</v>
       </c>
-      <c r="Q162" t="inlineStr">
+      <c r="R162" t="inlineStr">
         <is>
           <t>4.1.1-Investice do zemědělských podniků</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="T162" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9490,12 +9945,12 @@
       <c r="O163">
         <v>944808700</v>
       </c>
-      <c r="Q163" t="inlineStr">
+      <c r="R163" t="inlineStr">
         <is>
           <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
         </is>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="T163" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9519,12 +9974,12 @@
       <c r="O164">
         <v>1391825002</v>
       </c>
-      <c r="Q164" t="inlineStr">
+      <c r="R164" t="inlineStr">
         <is>
           <t>4.3.1-Pozemkové úpravy</t>
         </is>
       </c>
-      <c r="S164" t="inlineStr">
+      <c r="T164" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9548,12 +10003,12 @@
       <c r="O165">
         <v>339090695</v>
       </c>
-      <c r="Q165" t="inlineStr">
+      <c r="R165" t="inlineStr">
         <is>
           <t>4.3.2-Lesnická infrastruktura</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="T165" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
@@ -9577,22 +10032,22 @@
       <c r="O166">
         <v>467476583.51</v>
       </c>
-      <c r="Q166" t="inlineStr">
+      <c r="R166" t="inlineStr">
         <is>
           <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="S166" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="T166" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T166" t="inlineStr">
+      <c r="U166" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -9616,22 +10071,22 @@
       <c r="O167">
         <v>238047738</v>
       </c>
-      <c r="Q167" t="inlineStr">
+      <c r="R167" t="inlineStr">
         <is>
           <t>6.4.1-Investice do nezemědělských činností</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="T167" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T167" t="inlineStr">
+      <c r="U167" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -9655,22 +10110,22 @@
       <c r="O168">
         <v>93890621</v>
       </c>
-      <c r="Q168" t="inlineStr">
+      <c r="R168" t="inlineStr">
         <is>
           <t>6.4.2-Podpora agroturistiky</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr">
+      <c r="S168" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="T168" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr">
+      <c r="U168" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -9694,22 +10149,22 @@
       <c r="O169">
         <v>11083095</v>
       </c>
-      <c r="Q169" t="inlineStr">
+      <c r="R169" t="inlineStr">
         <is>
           <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr">
+      <c r="S169" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="T169" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T169" t="inlineStr">
+      <c r="U169" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -9733,22 +10188,22 @@
       <c r="O170">
         <v>26339101</v>
       </c>
-      <c r="Q170" t="inlineStr">
+      <c r="R170" t="inlineStr">
         <is>
           <t>8.3.1-Zavádění preventivních opatření v lesích</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr">
+      <c r="S170" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="T170" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T170" t="inlineStr">
+      <c r="U170" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9772,22 +10227,22 @@
       <c r="O171">
         <v>64820195</v>
       </c>
-      <c r="Q171" t="inlineStr">
+      <c r="R171" t="inlineStr">
         <is>
           <t>8.4.1-Obnova lesních porostů po kalamitách</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="T171" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr">
+      <c r="U171" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9811,22 +10266,22 @@
       <c r="O172">
         <v>14391277</v>
       </c>
-      <c r="Q172" t="inlineStr">
+      <c r="R172" t="inlineStr">
         <is>
           <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
         </is>
       </c>
-      <c r="R172" t="inlineStr">
+      <c r="S172" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="T172" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T172" t="inlineStr">
+      <c r="U172" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9850,22 +10305,22 @@
       <c r="O173">
         <v>16163771</v>
       </c>
-      <c r="Q173" t="inlineStr">
+      <c r="R173" t="inlineStr">
         <is>
           <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr">
+      <c r="S173" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="T173" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr">
+      <c r="U173" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9889,22 +10344,22 @@
       <c r="O174">
         <v>58919954</v>
       </c>
-      <c r="Q174" t="inlineStr">
+      <c r="R174" t="inlineStr">
         <is>
           <t>8.5.2-Neproduktivní investice v lesích</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T174" t="inlineStr">
+      <c r="U174" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9928,22 +10383,22 @@
       <c r="O175">
         <v>55274175</v>
       </c>
-      <c r="Q175" t="inlineStr">
+      <c r="R175" t="inlineStr">
         <is>
           <t>8.5.3-Přeměna porostů náhradních dřevin</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T175" t="inlineStr">
+      <c r="U175" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -9967,22 +10422,22 @@
       <c r="O176">
         <v>241002775</v>
       </c>
-      <c r="Q176" t="inlineStr">
+      <c r="R176" t="inlineStr">
         <is>
           <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr">
+      <c r="T176" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr">
+      <c r="U176" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -10006,22 +10461,22 @@
       <c r="O177">
         <v>56293275</v>
       </c>
-      <c r="Q177" t="inlineStr">
+      <c r="R177" t="inlineStr">
         <is>
           <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr">
+      <c r="S177" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="T177" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
         </is>
       </c>
-      <c r="T177" t="inlineStr">
+      <c r="U177" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -10045,22 +10500,22 @@
       <c r="O178">
         <v>3223414193.57</v>
       </c>
-      <c r="Q178" t="inlineStr">
+      <c r="R178" t="inlineStr">
         <is>
           <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
+      <c r="S178" t="inlineStr">
         <is>
           <t>AEKO</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="T178" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T178" t="inlineStr">
+      <c r="U178" t="inlineStr">
         <is>
           <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
@@ -10084,12 +10539,12 @@
       <c r="O179">
         <v>35840924.57</v>
       </c>
-      <c r="Q179" t="inlineStr">
+      <c r="R179" t="inlineStr">
         <is>
           <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
         </is>
       </c>
-      <c r="S179" t="inlineStr">
+      <c r="T179" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10113,12 +10568,12 @@
       <c r="O180">
         <v>2169513102.98</v>
       </c>
-      <c r="Q180" t="inlineStr">
+      <c r="R180" t="inlineStr">
         <is>
           <t>ANC-ANC</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="T180" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10142,22 +10597,22 @@
       <c r="O181">
         <v>1366489361.91</v>
       </c>
-      <c r="Q181" t="inlineStr">
+      <c r="R181" t="inlineStr">
         <is>
           <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr">
+      <c r="S181" t="inlineStr">
         <is>
           <t>EKOZ</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T181" t="inlineStr">
+      <c r="U181" t="inlineStr">
         <is>
           <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
@@ -10181,22 +10636,22 @@
       <c r="O182">
         <v>26912239.58</v>
       </c>
-      <c r="Q182" t="inlineStr">
+      <c r="R182" t="inlineStr">
         <is>
           <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr">
+      <c r="S182" t="inlineStr">
         <is>
           <t>ELESP</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="T182" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T182" t="inlineStr">
+      <c r="U182" t="inlineStr">
         <is>
           <t>ELESP-Péče a náhrada</t>
         </is>
@@ -10220,12 +10675,12 @@
       <c r="O183">
         <v>3390334.91</v>
       </c>
-      <c r="Q183" t="inlineStr">
+      <c r="R183" t="inlineStr">
         <is>
           <t>GEN-GEN</t>
         </is>
       </c>
-      <c r="S183" t="inlineStr">
+      <c r="T183" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10249,12 +10704,12 @@
       <c r="O184">
         <v>-8718.75</v>
       </c>
-      <c r="Q184" t="inlineStr">
+      <c r="R184" t="inlineStr">
         <is>
           <t>I.1.1.1-Modernizace zemědělských podniků</t>
         </is>
       </c>
-      <c r="S184" t="inlineStr">
+      <c r="T184" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10278,12 +10733,12 @@
       <c r="O185">
         <v>-43986.03</v>
       </c>
-      <c r="Q185" t="inlineStr">
+      <c r="R185" t="inlineStr">
         <is>
           <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="T185" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10307,12 +10762,12 @@
       <c r="O186">
         <v>65904</v>
       </c>
-      <c r="Q186" t="inlineStr">
+      <c r="R186" t="inlineStr">
         <is>
           <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="T186" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10336,12 +10791,12 @@
       <c r="O187">
         <v>3214109</v>
       </c>
-      <c r="Q187" t="inlineStr">
+      <c r="R187" t="inlineStr">
         <is>
           <t>III.1.3.b-Ubytování, sport</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="T187" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10365,22 +10820,22 @@
       <c r="O188">
         <v>8493640.48</v>
       </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="inlineStr">
         <is>
           <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
+      <c r="S188" t="inlineStr">
         <is>
           <t>LEOD</t>
         </is>
       </c>
-      <c r="S188" t="inlineStr">
+      <c r="T188" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T188" t="inlineStr">
+      <c r="U188" t="inlineStr">
         <is>
           <t>LEOD</t>
         </is>
@@ -10404,22 +10859,22 @@
       <c r="O189">
         <v>4527891.5</v>
       </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="inlineStr">
         <is>
           <t>LESND-Natura 2000 v lesích</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
+      <c r="S189" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
       </c>
-      <c r="S189" t="inlineStr">
+      <c r="T189" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr">
+      <c r="U189" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
@@ -10443,22 +10898,22 @@
       <c r="O190">
         <v>1187571143.56</v>
       </c>
-      <c r="Q190" t="inlineStr">
+      <c r="R190" t="inlineStr">
         <is>
           <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr">
+      <c r="S190" t="inlineStr">
         <is>
           <t>LFA</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="T190" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T190" t="inlineStr">
+      <c r="U190" t="inlineStr">
         <is>
           <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
@@ -10482,22 +10937,22 @@
       <c r="O191">
         <v>12578009.57</v>
       </c>
-      <c r="Q191" t="inlineStr">
+      <c r="R191" t="inlineStr">
         <is>
           <t>NAT-Natura 2000 na zemědělské půdě</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
+      <c r="S191" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="T191" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr">
+      <c r="U191" t="inlineStr">
         <is>
           <t>Natura</t>
         </is>
@@ -10521,12 +10976,12 @@
       <c r="O192">
         <v>32653049.93</v>
       </c>
-      <c r="Q192" t="inlineStr">
+      <c r="R192" t="inlineStr">
         <is>
           <t>POR-Zachování porostního typu</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="T192" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10550,12 +11005,12 @@
       <c r="O193">
         <v>3548937.92</v>
       </c>
-      <c r="Q193" t="inlineStr">
+      <c r="R193" t="inlineStr">
         <is>
           <t>PPO-PPO</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="T193" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10579,12 +11034,12 @@
       <c r="O194">
         <v>181981153.85</v>
       </c>
-      <c r="Q194" t="inlineStr">
+      <c r="R194" t="inlineStr">
         <is>
           <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
         </is>
       </c>
-      <c r="S194" t="inlineStr">
+      <c r="T194" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10608,12 +11063,12 @@
       <c r="O195">
         <v>1591182708.54</v>
       </c>
-      <c r="Q195" t="inlineStr">
+      <c r="R195" t="inlineStr">
         <is>
           <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
         </is>
       </c>
-      <c r="S195" t="inlineStr">
+      <c r="T195" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
@@ -10637,22 +11092,22 @@
       <c r="O196">
         <v>2946181.48</v>
       </c>
-      <c r="Q196" t="inlineStr">
+      <c r="R196" t="inlineStr">
         <is>
           <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr">
+      <c r="S196" t="inlineStr">
         <is>
           <t>ZZPLP</t>
         </is>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="T196" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T196" t="inlineStr">
+      <c r="U196" t="inlineStr">
         <is>
           <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
@@ -10676,22 +11131,22 @@
       <c r="O197">
         <v>1611769.91</v>
       </c>
-      <c r="Q197" t="inlineStr">
+      <c r="R197" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr">
+      <c r="S197" t="inlineStr">
         <is>
           <t>ZZPPN</t>
         </is>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="T197" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T197" t="inlineStr">
+      <c r="U197" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>

--- a/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,34 +476,34 @@
         </is>
       </c>
       <c r="F2">
-        <v>2895764.4475</v>
+        <v>7677453.895</v>
       </c>
       <c r="G2">
-        <v>2461399.78</v>
+        <v>6525835.81</v>
       </c>
       <c r="H2">
-        <v>434364.6675</v>
+        <v>1057321.835</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>94296.25</v>
       </c>
       <c r="J2">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="K2">
-        <v>2457660.7475</v>
+        <v>4915321.495</v>
       </c>
       <c r="L2">
-        <v>433704.84</v>
+        <v>867409.6800000001</v>
       </c>
       <c r="M2">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>433704.8399999999</v>
+        <v>867409.6799999997</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>6172500</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5246625</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>925875</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="F11">
-        <v>312499915</v>
+        <v>1249999660</v>
       </c>
       <c r="G11">
-        <v>251810869.00625</v>
+        <v>1007243476.025</v>
       </c>
       <c r="H11">
-        <v>60689045.99375</v>
+        <v>242756183.975</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -976,34 +976,34 @@
         </is>
       </c>
       <c r="F12">
-        <v>200894</v>
+        <v>4871590.333333335</v>
       </c>
       <c r="G12">
-        <v>170759.8951851852</v>
+        <v>4140851.64</v>
       </c>
       <c r="H12">
-        <v>30134.10481481481</v>
+        <v>730738.6933333334</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7812.407407407407</v>
+        <v>70311.66666666667</v>
       </c>
       <c r="K12">
-        <v>6640.544814814815</v>
+        <v>59764.90333333334</v>
       </c>
       <c r="L12">
-        <v>1171.862592592593</v>
+        <v>10546.76333333333</v>
       </c>
       <c r="M12">
-        <v>7812.407407407407</v>
+        <v>70311.66666666667</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1171.862592592592</v>
+        <v>10546.76333333333</v>
       </c>
       <c r="P12">
         <v>981</v>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="F13">
-        <v>589374.375</v>
+        <v>2357497.5</v>
       </c>
       <c r="G13">
-        <v>294687.1875</v>
+        <v>1178748.75</v>
       </c>
       <c r="H13">
-        <v>294687.1875</v>
+        <v>1178748.75</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1076,34 +1076,34 @@
         </is>
       </c>
       <c r="F14">
-        <v>27799723.61833333</v>
+        <v>255281937.7733333</v>
       </c>
       <c r="G14">
-        <v>18451768.12342593</v>
+        <v>170193469.5616667</v>
       </c>
       <c r="H14">
-        <v>9347955.494907405</v>
+        <v>85088468.21166669</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14260.90740740741</v>
+        <v>96105.66666666667</v>
       </c>
       <c r="K14">
-        <v>10993.28106481482</v>
+        <v>77175.84833333333</v>
       </c>
       <c r="L14">
-        <v>3267.626342592593</v>
+        <v>18929.81833333333</v>
       </c>
       <c r="M14">
-        <v>14260.90740740741</v>
+        <v>96105.66666666667</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3267.626342592592</v>
+        <v>18929.81833333333</v>
       </c>
       <c r="P14">
         <v>1614</v>
@@ -1134,34 +1134,34 @@
         </is>
       </c>
       <c r="F15">
-        <v>7221406179.998684</v>
+        <v>9898073404.749714</v>
       </c>
       <c r="G15">
-        <v>2649065978.997841</v>
+        <v>3431398494.482035</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4572340201.000843</v>
+        <v>6466674910.267679</v>
       </c>
       <c r="J15">
-        <v>4806222595.293526</v>
+        <v>6892222550.941645</v>
       </c>
       <c r="K15">
-        <v>1686387980.460241</v>
+        <v>2243529144.123043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1686387980.460241</v>
+        <v>2243529144.123043</v>
       </c>
       <c r="N15">
-        <v>3119834614.833285</v>
+        <v>4648693406.818603</v>
       </c>
       <c r="O15">
-        <v>3119834614.833285</v>
+        <v>4648693406.818603</v>
       </c>
       <c r="P15">
         <v>355</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>702258284.22</v>
+        <v>702258284.2199999</v>
       </c>
       <c r="G16">
         <v>265784879.04</v>
@@ -1216,10 +1216,10 @@
         <v>165806905.15</v>
       </c>
       <c r="N16">
-        <v>339529434.08</v>
+        <v>339529434.0799999</v>
       </c>
       <c r="O16">
-        <v>339529434.08</v>
+        <v>339529434.0799999</v>
       </c>
       <c r="P16">
         <v>74</v>
@@ -1253,7 +1253,7 @@
         <v>2644194805.25</v>
       </c>
       <c r="G17">
-        <v>667367822.89</v>
+        <v>667367822.8900001</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40346393.71</v>
+        <v>40346393.70999999</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>1854111525.56</v>
+        <v>1854111525.559999</v>
       </c>
       <c r="G20">
         <v>1341746167.94</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>512365357.62</v>
+        <v>512365357.6200003</v>
       </c>
       <c r="J20">
         <v>35292490.04</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>844582997.1799999</v>
+        <v>844582997.1800001</v>
       </c>
       <c r="G21">
         <v>575492616.62</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>269090380.56</v>
+        <v>269090380.5600001</v>
       </c>
       <c r="J21">
-        <v>615912166.5600001</v>
+        <v>615912166.5599999</v>
       </c>
       <c r="K21">
         <v>409532011.53</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>59211146.47</v>
+        <v>59211146.46999999</v>
       </c>
       <c r="G22">
         <v>44792200.12</v>
@@ -1564,10 +1564,10 @@
         <v>13072125.01</v>
       </c>
       <c r="N22">
-        <v>3268031.26</v>
+        <v>3268031.259999999</v>
       </c>
       <c r="O22">
-        <v>3268031.26</v>
+        <v>3268031.259999999</v>
       </c>
       <c r="P22">
         <v>19</v>
@@ -1598,34 +1598,34 @@
         </is>
       </c>
       <c r="F23">
-        <v>65541764.4475</v>
+        <v>80277453.895</v>
       </c>
       <c r="G23">
-        <v>55710499.78</v>
+        <v>68235835.81</v>
       </c>
       <c r="H23">
-        <v>9831264.6675</v>
+        <v>11947321.835</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>94296.25</v>
       </c>
       <c r="J23">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="K23">
-        <v>2457660.7475</v>
+        <v>4915321.495</v>
       </c>
       <c r="L23">
-        <v>433704.84</v>
+        <v>867409.6800000001</v>
       </c>
       <c r="M23">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>433704.8399999999</v>
+        <v>867409.6799999997</v>
       </c>
       <c r="P23">
         <v>13</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>712003308.25</v>
+        <v>712003308.2500001</v>
       </c>
       <c r="J24">
         <v>59460417.6</v>
@@ -1717,7 +1717,7 @@
         <v>1793407125.88</v>
       </c>
       <c r="G25">
-        <v>896703562.9</v>
+        <v>896703562.8999999</v>
       </c>
       <c r="H25">
         <v>660463502.37</v>
@@ -1735,10 +1735,10 @@
         <v>366695683.76</v>
       </c>
       <c r="M25">
-        <v>873986284.6799999</v>
+        <v>873986284.6800001</v>
       </c>
       <c r="N25">
-        <v>140594917.43</v>
+        <v>140594917.4299999</v>
       </c>
       <c r="O25">
         <v>507290601.19</v>
@@ -1772,34 +1772,34 @@
         </is>
       </c>
       <c r="F26">
-        <v>21111621018.75</v>
+        <v>21111621018.75003</v>
       </c>
       <c r="G26">
-        <v>8663084885.120001</v>
+        <v>8663084885.120005</v>
       </c>
       <c r="H26">
-        <v>12287089226.28</v>
+        <v>12287089226.28001</v>
       </c>
       <c r="I26">
         <v>161446907.35</v>
       </c>
       <c r="J26">
-        <v>13209999502.2</v>
+        <v>13209999502.19997</v>
       </c>
       <c r="K26">
         <v>5470260589.86</v>
       </c>
       <c r="L26">
-        <v>7689759531.89</v>
+        <v>7689759531.88999</v>
       </c>
       <c r="M26">
-        <v>13160020121.75</v>
+        <v>13160020121.74998</v>
       </c>
       <c r="N26">
-        <v>49979380.44999995</v>
+        <v>49979380.44999998</v>
       </c>
       <c r="O26">
-        <v>7739738912.34</v>
+        <v>7739738912.339989</v>
       </c>
       <c r="P26">
         <v>2650</v>
@@ -1830,34 +1830,34 @@
         </is>
       </c>
       <c r="F27">
-        <v>23077293691.22</v>
+        <v>23077293691.21995</v>
       </c>
       <c r="G27">
-        <v>7645305950.28</v>
+        <v>7645305950.279994</v>
       </c>
       <c r="H27">
-        <v>3084783334.68</v>
+        <v>3084783334.679999</v>
       </c>
       <c r="I27">
-        <v>12347204406.26</v>
+        <v>12347204406.25999</v>
       </c>
       <c r="J27">
-        <v>14458872615.99</v>
+        <v>14458872615.98998</v>
       </c>
       <c r="K27">
-        <v>4767760136.58</v>
+        <v>4767760136.579988</v>
       </c>
       <c r="L27">
         <v>1744630658.42</v>
       </c>
       <c r="M27">
-        <v>6512390795</v>
+        <v>6512390794.999992</v>
       </c>
       <c r="N27">
-        <v>7946481820.99</v>
+        <v>7946481820.989984</v>
       </c>
       <c r="O27">
-        <v>9691112479.41</v>
+        <v>9691112479.409998</v>
       </c>
       <c r="P27">
         <v>3187</v>
@@ -1912,10 +1912,10 @@
         <v>19370074.94</v>
       </c>
       <c r="N28">
-        <v>29055112.44</v>
+        <v>29055112.44000001</v>
       </c>
       <c r="O28">
-        <v>29055112.44</v>
+        <v>29055112.44000001</v>
       </c>
       <c r="P28">
         <v>19</v>
@@ -1946,19 +1946,19 @@
         </is>
       </c>
       <c r="F29">
-        <v>7388997027.58</v>
+        <v>7388997027.580003</v>
       </c>
       <c r="G29">
-        <v>2830256231.66</v>
+        <v>2830256231.659999</v>
       </c>
       <c r="H29">
         <v>29969062.5</v>
       </c>
       <c r="I29">
-        <v>4528771733.42</v>
+        <v>4528771733.420002</v>
       </c>
       <c r="J29">
-        <v>4356156520.87</v>
+        <v>4356156520.870001</v>
       </c>
       <c r="K29">
         <v>1631975721.17</v>
@@ -1970,10 +1970,10 @@
         <v>1631975721.17</v>
       </c>
       <c r="N29">
-        <v>2724180799.7</v>
+        <v>2724180799.700001</v>
       </c>
       <c r="O29">
-        <v>2724180799.7</v>
+        <v>2724180799.700001</v>
       </c>
       <c r="P29">
         <v>169</v>
@@ -2004,34 +2004,34 @@
         </is>
       </c>
       <c r="F30">
-        <v>8090986816.465674</v>
+        <v>8128454869.548186</v>
       </c>
       <c r="G30">
-        <v>6272521542.022122</v>
+        <v>6292694748.140993</v>
       </c>
       <c r="H30">
-        <v>871900380.0697457</v>
+        <v>872155896.3971772</v>
       </c>
       <c r="I30">
-        <v>946564894.373806</v>
+        <v>963604225.0100002</v>
       </c>
       <c r="J30">
-        <v>5740946183.745883</v>
+        <v>5749954306.839893</v>
       </c>
       <c r="K30">
-        <v>4646599047.422471</v>
+        <v>4653192006.552219</v>
       </c>
       <c r="L30">
-        <v>626425798.8546059</v>
+        <v>626680860.307675</v>
       </c>
       <c r="M30">
-        <v>5273024846.277077</v>
+        <v>5279872866.859892</v>
       </c>
       <c r="N30">
-        <v>467921337.468806</v>
+        <v>470081439.9800002</v>
       </c>
       <c r="O30">
-        <v>1094347136.323412</v>
+        <v>1096762300.287676</v>
       </c>
       <c r="P30">
         <v>2637</v>
@@ -2062,34 +2062,34 @@
         </is>
       </c>
       <c r="F31">
-        <v>2947355969.55</v>
+        <v>2950755188.04</v>
       </c>
       <c r="G31">
-        <v>1993827014.758</v>
+        <v>1996572476.05</v>
       </c>
       <c r="H31">
-        <v>333862907.73</v>
+        <v>333862907.7299999</v>
       </c>
       <c r="I31">
-        <v>619666047.062</v>
+        <v>620319804.2599998</v>
       </c>
       <c r="J31">
-        <v>1401354630.15384</v>
+        <v>1404464809.8</v>
       </c>
       <c r="K31">
-        <v>977198794.28184</v>
+        <v>979655216.73</v>
       </c>
       <c r="L31">
         <v>212228517.19</v>
       </c>
       <c r="M31">
-        <v>1189427311.47184</v>
+        <v>1191883733.92</v>
       </c>
       <c r="N31">
-        <v>211927318.682</v>
+        <v>212581075.8800001</v>
       </c>
       <c r="O31">
-        <v>424155835.872</v>
+        <v>424809593.0700002</v>
       </c>
       <c r="P31">
         <v>187</v>
@@ -2120,34 +2120,34 @@
         </is>
       </c>
       <c r="F32">
-        <v>1000404955.239321</v>
+        <v>1041272226.811823</v>
       </c>
       <c r="G32">
-        <v>584909948.9481225</v>
+        <v>607828616.359</v>
       </c>
       <c r="H32">
-        <v>164645016.2253927</v>
+        <v>164900532.5528235</v>
       </c>
       <c r="I32">
-        <v>250849990.065806</v>
+        <v>268543077.9</v>
       </c>
       <c r="J32">
-        <v>458527925.3799263</v>
+        <v>470646228.1201018</v>
       </c>
       <c r="K32">
-        <v>307561286.249863</v>
+        <v>316610667.8277762</v>
       </c>
       <c r="L32">
-        <v>4790236.739257235</v>
+        <v>5045298.192325661</v>
       </c>
       <c r="M32">
-        <v>312351522.9891202</v>
+        <v>321655966.0201018</v>
       </c>
       <c r="N32">
-        <v>146176402.390806</v>
+        <v>148990262.1</v>
       </c>
       <c r="O32">
-        <v>150966639.1300632</v>
+        <v>154035560.2923258</v>
       </c>
       <c r="P32">
         <v>124</v>
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="F33">
-        <v>4172522259.45</v>
+        <v>4172522259.450001</v>
       </c>
       <c r="G33">
-        <v>3546643919.93</v>
+        <v>3546643919.929999</v>
       </c>
       <c r="H33">
-        <v>624487089.92</v>
+        <v>624487089.9200001</v>
       </c>
       <c r="I33">
         <v>1391249.6</v>
       </c>
       <c r="J33">
-        <v>4016436469.1</v>
+        <v>4016436469.100001</v>
       </c>
       <c r="K33">
-        <v>3413543017.3</v>
+        <v>3413543017.299999</v>
       </c>
       <c r="L33">
         <v>601503889.6900001</v>
@@ -2202,10 +2202,10 @@
         <v>4015046906.99</v>
       </c>
       <c r="N33">
-        <v>1389562.109999932</v>
+        <v>1389562.110000083</v>
       </c>
       <c r="O33">
-        <v>602893451.8</v>
+        <v>602893451.8000002</v>
       </c>
       <c r="P33">
         <v>144</v>
@@ -2297,7 +2297,7 @@
         <v>13529825321.61</v>
       </c>
       <c r="G35">
-        <v>11500351521.6</v>
+        <v>11500351521.60002</v>
       </c>
       <c r="H35">
         <v>2013046852.6</v>
@@ -2312,16 +2312,16 @@
         <v>10874692739.66</v>
       </c>
       <c r="L35">
-        <v>1907348318.16</v>
+        <v>1907348318.160002</v>
       </c>
       <c r="M35">
         <v>12782041057.82</v>
       </c>
       <c r="N35">
-        <v>14014433.40000002</v>
+        <v>14014433.4</v>
       </c>
       <c r="O35">
-        <v>1921362751.56</v>
+        <v>1921362751.560001</v>
       </c>
       <c r="P35">
         <v>417</v>
@@ -2352,34 +2352,34 @@
         </is>
       </c>
       <c r="F36">
-        <v>13643290572.47</v>
+        <v>13770263788.16</v>
       </c>
       <c r="G36">
-        <v>11596796986.5585</v>
+        <v>11704724219.895</v>
       </c>
       <c r="H36">
-        <v>2046493585.9115</v>
+        <v>2065539568.265</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>10399934359.8249</v>
+        <v>10496935770.273</v>
       </c>
       <c r="K36">
-        <v>8839944205.235901</v>
+        <v>8922395404.112999</v>
       </c>
       <c r="L36">
-        <v>1559990154.589</v>
+        <v>1574540366.16</v>
       </c>
       <c r="M36">
-        <v>10399934359.8249</v>
+        <v>10496935770.273</v>
       </c>
       <c r="N36">
-        <v>-5.21540641784668e-08</v>
+        <v>-3.725290298461914e-08</v>
       </c>
       <c r="O36">
-        <v>1559990154.589</v>
+        <v>1574540366.16</v>
       </c>
       <c r="P36">
         <v>27</v>
@@ -2410,34 +2410,34 @@
         </is>
       </c>
       <c r="F37">
-        <v>24735412788.65858</v>
+        <v>25205552941.11368</v>
       </c>
       <c r="G37">
-        <v>21025100870.29845</v>
+        <v>21424719999.885</v>
       </c>
       <c r="H37">
-        <v>3710311918.360131</v>
+        <v>3780832941.228676</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18119420871.74126</v>
+        <v>18413182638.23256</v>
       </c>
       <c r="K37">
-        <v>15401507740.00233</v>
+        <v>15651205241.50212</v>
       </c>
       <c r="L37">
-        <v>2717913131.738934</v>
+        <v>2761977396.730438</v>
       </c>
       <c r="M37">
-        <v>18119420871.74126</v>
+        <v>18413182638.23256</v>
       </c>
       <c r="N37">
-        <v>1.490116119384766e-07</v>
+        <v>4.470348358154297e-08</v>
       </c>
       <c r="O37">
-        <v>2717913131.738934</v>
+        <v>2761977396.730439</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -2468,34 +2468,34 @@
         </is>
       </c>
       <c r="F38">
-        <v>22337875014.22123</v>
+        <v>22681041950.98632</v>
       </c>
       <c r="G38">
-        <v>18987193761.99995</v>
+        <v>19278885658.25</v>
       </c>
       <c r="H38">
-        <v>3350681252.221278</v>
+        <v>3402156292.736324</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>18897418107.19125</v>
+        <v>19094178463.23444</v>
       </c>
       <c r="K38">
-        <v>16062805390.01219</v>
+        <v>16230051692.63488</v>
       </c>
       <c r="L38">
-        <v>2834612717.179057</v>
+        <v>2864126770.599561</v>
       </c>
       <c r="M38">
-        <v>18897418107.19125</v>
+        <v>19094178463.23444</v>
       </c>
       <c r="N38">
-        <v>1.192092895507812e-07</v>
+        <v>3.427267074584961e-07</v>
       </c>
       <c r="O38">
-        <v>2834612717.179057</v>
+        <v>2864126770.599561</v>
       </c>
       <c r="P38">
         <v>39</v>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>4629087971.96</v>
+        <v>4629087971.960001</v>
       </c>
       <c r="G39">
         <v>3588631275.25</v>
@@ -2541,7 +2541,7 @@
         <v>1008227018.13</v>
       </c>
       <c r="K39">
-        <v>807600487.3</v>
+        <v>807600487.3000001</v>
       </c>
       <c r="L39">
         <v>5234657.4</v>
@@ -2608,10 +2608,10 @@
         <v>2808811525.5</v>
       </c>
       <c r="N40">
-        <v>1.192092895507812e-07</v>
+        <v>2.384185791015625e-07</v>
       </c>
       <c r="O40">
-        <v>421321728.9400001</v>
+        <v>421321728.9400002</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -2703,7 +2703,7 @@
         <v>3081739457.47</v>
       </c>
       <c r="G42">
-        <v>2566039640.07</v>
+        <v>2566039640.069999</v>
       </c>
       <c r="H42">
         <v>515699817.4</v>
@@ -2724,7 +2724,7 @@
         <v>1431580285.13</v>
       </c>
       <c r="N42">
-        <v>-4.656612873077393e-09</v>
+        <v>-5.587935447692871e-09</v>
       </c>
       <c r="O42">
         <v>257178603.76</v>
@@ -2758,34 +2758,34 @@
         </is>
       </c>
       <c r="F43">
-        <v>4927192793.8</v>
+        <v>4976858420.910001</v>
       </c>
       <c r="G43">
-        <v>4137675002.3425</v>
+        <v>4179890785.385</v>
       </c>
       <c r="H43">
-        <v>789517791.4575</v>
+        <v>796967635.525</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2895725109.9775</v>
+        <v>2931456692.355</v>
       </c>
       <c r="K43">
-        <v>2461366343.3775</v>
+        <v>2491738188.395</v>
       </c>
       <c r="L43">
-        <v>434358766.6</v>
+        <v>439718503.96</v>
       </c>
       <c r="M43">
-        <v>2895725109.9775</v>
+        <v>2931456692.355</v>
       </c>
       <c r="N43">
         <v>-1.490116119384766e-08</v>
       </c>
       <c r="O43">
-        <v>434358766.6</v>
+        <v>439718503.96</v>
       </c>
       <c r="P43">
         <v>17</v>
@@ -2819,10 +2819,10 @@
         <v>28764473338.5</v>
       </c>
       <c r="G44">
-        <v>24449802337.72</v>
+        <v>24449802337.72001</v>
       </c>
       <c r="H44">
-        <v>4314671000.78</v>
+        <v>4314671000.780001</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>14781307448.16</v>
       </c>
       <c r="N44">
-        <v>3.539025783538818e-08</v>
+        <v>-8.381903171539307e-08</v>
       </c>
       <c r="O44">
         <v>2217196118.58</v>
@@ -2898,7 +2898,7 @@
         <v>13213845405</v>
       </c>
       <c r="N45">
-        <v>-5.960464477539062e-08</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="O45">
         <v>1982076811.26</v>
@@ -2932,34 +2932,34 @@
         </is>
       </c>
       <c r="F46">
-        <v>29979010718.34</v>
+        <v>30028676345.45</v>
       </c>
       <c r="G46">
-        <v>24714708607.0025</v>
+        <v>24756924390.04499</v>
       </c>
       <c r="H46">
-        <v>5264302111.3375</v>
+        <v>5271751955.404995</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>18008661548.9275</v>
+        <v>18044393131.305</v>
       </c>
       <c r="K46">
-        <v>15085921095.9975</v>
+        <v>15116292941.01501</v>
       </c>
       <c r="L46">
-        <v>2922740452.93</v>
+        <v>2928100190.290001</v>
       </c>
       <c r="M46">
-        <v>18008661548.9275</v>
+        <v>18044393131.305</v>
       </c>
       <c r="N46">
-        <v>9.778887033462524e-08</v>
+        <v>1.387670636177063e-07</v>
       </c>
       <c r="O46">
-        <v>2922740452.93</v>
+        <v>2928100190.290001</v>
       </c>
       <c r="P46">
         <v>440</v>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>88972852.47999999</v>
+        <v>88972852.48</v>
       </c>
       <c r="G48">
         <v>58193113.54</v>
@@ -3109,7 +3109,7 @@
         <v>1452708980.57</v>
       </c>
       <c r="G49">
-        <v>693032583.63</v>
+        <v>693032583.6299999</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3164,34 +3164,34 @@
         </is>
       </c>
       <c r="F50">
-        <v>7513637913.51</v>
+        <v>7513637913.510005</v>
       </c>
       <c r="G50">
-        <v>6386592225.94</v>
+        <v>6386592225.940001</v>
       </c>
       <c r="H50">
-        <v>341169748.97</v>
+        <v>341169748.9699998</v>
       </c>
       <c r="I50">
-        <v>785875938.6</v>
+        <v>785875938.5999999</v>
       </c>
       <c r="J50">
-        <v>5647291407.06</v>
+        <v>5647291407.059999</v>
       </c>
       <c r="K50">
-        <v>4800197695.05</v>
+        <v>4800197695.049999</v>
       </c>
       <c r="L50">
-        <v>193412324.63</v>
+        <v>193412324.6299998</v>
       </c>
       <c r="M50">
-        <v>4993610019.68</v>
+        <v>4993610019.679998</v>
       </c>
       <c r="N50">
         <v>653681387.38</v>
       </c>
       <c r="O50">
-        <v>847093712.01</v>
+        <v>847093712.0100001</v>
       </c>
       <c r="P50">
         <v>209</v>
@@ -3231,19 +3231,19 @@
         <v>1494380282.15</v>
       </c>
       <c r="I51">
-        <v>685168845.66</v>
+        <v>685168845.6599998</v>
       </c>
       <c r="J51">
         <v>5695332743.46</v>
       </c>
       <c r="K51">
-        <v>4841032831.57</v>
+        <v>4841032831.570003</v>
       </c>
       <c r="L51">
-        <v>587661919.63</v>
+        <v>587661919.6299999</v>
       </c>
       <c r="M51">
-        <v>5428694751.2</v>
+        <v>5428694751.200001</v>
       </c>
       <c r="N51">
         <v>266637992.2600001</v>
@@ -3338,22 +3338,22 @@
         </is>
       </c>
       <c r="F53">
-        <v>10121076790.43</v>
+        <v>10124654527.33</v>
       </c>
       <c r="G53">
-        <v>8602915270.99</v>
+        <v>8605956347.349998</v>
       </c>
       <c r="H53">
-        <v>797875614.79</v>
+        <v>798412275.3299992</v>
       </c>
       <c r="I53">
         <v>720285904.65</v>
       </c>
       <c r="J53">
-        <v>8322678360.09</v>
+        <v>8322678360.090001</v>
       </c>
       <c r="K53">
-        <v>7074276604.54</v>
+        <v>7074276604.539992</v>
       </c>
       <c r="L53">
         <v>595113841.21</v>
@@ -3365,7 +3365,7 @@
         <v>653287914.34</v>
       </c>
       <c r="O53">
-        <v>1248401755.55</v>
+        <v>1248401755.550001</v>
       </c>
       <c r="P53">
         <v>361</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>2067061476.82</v>
+        <v>2067061476.819999</v>
       </c>
       <c r="G54">
         <v>1757002255.21</v>
@@ -3408,7 +3408,7 @@
         <v>11998817.99</v>
       </c>
       <c r="J54">
-        <v>837717973.8299999</v>
+        <v>837717973.83</v>
       </c>
       <c r="K54">
         <v>712060277.62</v>
@@ -3420,7 +3420,7 @@
         <v>837717973.83</v>
       </c>
       <c r="N54">
-        <v>-1.862645149230957e-08</v>
+        <v>-2.235174179077148e-08</v>
       </c>
       <c r="O54">
         <v>125657696.21</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="F55">
-        <v>4775525060.69</v>
+        <v>4775525060.690001</v>
       </c>
       <c r="G55">
-        <v>3929685212.66</v>
+        <v>3929685212.659999</v>
       </c>
       <c r="H55">
         <v>522062125.96</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>5173391629.2</v>
+        <v>5173391629.199999</v>
       </c>
       <c r="G56">
         <v>2224062866.59</v>
@@ -3527,13 +3527,13 @@
         <v>1821922227.44</v>
       </c>
       <c r="K56">
-        <v>731919171.83</v>
+        <v>731919171.8300002</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>731919171.83</v>
+        <v>731919171.8300002</v>
       </c>
       <c r="N56">
         <v>1090003055.61</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>15444472949.33</v>
+        <v>15444472949.32999</v>
       </c>
       <c r="G57">
         <v>12580015883.14</v>
@@ -3579,25 +3579,25 @@
         <v>2404518598.83</v>
       </c>
       <c r="I57">
-        <v>459938467.36</v>
+        <v>459938467.3599999</v>
       </c>
       <c r="J57">
         <v>11791292433.7</v>
       </c>
       <c r="K57">
-        <v>9621904529.790001</v>
+        <v>9621904529.789995</v>
       </c>
       <c r="L57">
-        <v>1800016805.52</v>
+        <v>1800016805.520001</v>
       </c>
       <c r="M57">
-        <v>11421921335.31</v>
+        <v>11421921335.31001</v>
       </c>
       <c r="N57">
         <v>369371098.39</v>
       </c>
       <c r="O57">
-        <v>2169387903.91</v>
+        <v>2169387903.909998</v>
       </c>
       <c r="P57">
         <v>148</v>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>456501729.93</v>
+        <v>456501729.9300001</v>
       </c>
       <c r="G58">
         <v>228230529.7</v>
@@ -3640,7 +3640,7 @@
         <v>228271200.23</v>
       </c>
       <c r="J58">
-        <v>366574433.79</v>
+        <v>366574433.7900001</v>
       </c>
       <c r="K58">
         <v>183268434.74</v>
@@ -3686,34 +3686,34 @@
         </is>
       </c>
       <c r="F59">
-        <v>21817439466.52</v>
+        <v>21819701900.31999</v>
       </c>
       <c r="G59">
-        <v>18806624559.08</v>
+        <v>18808773871.19</v>
       </c>
       <c r="H59">
-        <v>2838847097.32</v>
+        <v>2838960219.009995</v>
       </c>
       <c r="I59">
-        <v>171967810.12</v>
+        <v>171967810.1200002</v>
       </c>
       <c r="J59">
-        <v>17419088455.96</v>
+        <v>17419088455.96001</v>
       </c>
       <c r="K59">
-        <v>15003833039.71</v>
+        <v>15003833039.71001</v>
       </c>
       <c r="L59">
-        <v>2272112381.11</v>
+        <v>2272112381.109997</v>
       </c>
       <c r="M59">
         <v>17275945420.82</v>
       </c>
       <c r="N59">
-        <v>143143035.1400001</v>
+        <v>143143035.14</v>
       </c>
       <c r="O59">
-        <v>2415255416.25</v>
+        <v>2415255416.249996</v>
       </c>
       <c r="P59">
         <v>2829</v>
@@ -3744,34 +3744,34 @@
         </is>
       </c>
       <c r="F60">
-        <v>939075427.8296474</v>
+        <v>941251866.9946001</v>
       </c>
       <c r="G60">
-        <v>469537713.7687657</v>
+        <v>470625933.3499999</v>
       </c>
       <c r="H60">
-        <v>337450901.8379071</v>
+        <v>338187115.4407599</v>
       </c>
       <c r="I60">
-        <v>132086812.2229745</v>
+        <v>132438818.20384</v>
       </c>
       <c r="J60">
-        <v>794217578.1444031</v>
+        <v>796094321.6402925</v>
       </c>
       <c r="K60">
-        <v>397108788.3439288</v>
+        <v>398047160.0890077</v>
       </c>
       <c r="L60">
-        <v>282445925.1619594</v>
+        <v>283065667.8403271</v>
       </c>
       <c r="M60">
-        <v>679554713.5058882</v>
+        <v>681112827.9293349</v>
       </c>
       <c r="N60">
-        <v>114662864.6385148</v>
+        <v>114981493.7109573</v>
       </c>
       <c r="O60">
-        <v>397108789.8004743</v>
+        <v>398047161.5512846</v>
       </c>
       <c r="P60">
         <v>211</v>
@@ -3802,34 +3802,34 @@
         </is>
       </c>
       <c r="F61">
-        <v>5980216952.88</v>
+        <v>5980216952.880003</v>
       </c>
       <c r="G61">
-        <v>5083184409.04</v>
+        <v>5083184409.040002</v>
       </c>
       <c r="H61">
-        <v>839915675.89</v>
+        <v>839915675.8899995</v>
       </c>
       <c r="I61">
         <v>57116867.95</v>
       </c>
       <c r="J61">
-        <v>4817562258.85</v>
+        <v>4817562258.849999</v>
       </c>
       <c r="K61">
         <v>4094927917.6</v>
       </c>
       <c r="L61">
-        <v>671239797.16</v>
+        <v>671239797.1600001</v>
       </c>
       <c r="M61">
-        <v>4766167714.76</v>
+        <v>4766167714.759998</v>
       </c>
       <c r="N61">
-        <v>51394544.09000002</v>
+        <v>51394544.08999997</v>
       </c>
       <c r="O61">
-        <v>722634341.25</v>
+        <v>722634341.2499999</v>
       </c>
       <c r="P61">
         <v>321</v>
@@ -3860,34 +3860,34 @@
         </is>
       </c>
       <c r="F62">
-        <v>491945047.9504474</v>
+        <v>494121487.1154001</v>
       </c>
       <c r="G62">
-        <v>245972523.9487657</v>
+        <v>247060743.53</v>
       </c>
       <c r="H62">
-        <v>176263633.6863872</v>
+        <v>176999847.28924</v>
       </c>
       <c r="I62">
-        <v>69708890.31529453</v>
+        <v>70060896.29615998</v>
       </c>
       <c r="J62">
-        <v>371538640.6338186</v>
+        <v>373415384.1297076</v>
       </c>
       <c r="K62">
-        <v>185769320.1559136</v>
+        <v>186707691.9009923</v>
       </c>
       <c r="L62">
-        <v>131733980.611305</v>
+        <v>132353723.2896728</v>
       </c>
       <c r="M62">
-        <v>317503300.7672186</v>
+        <v>319061415.1906652</v>
       </c>
       <c r="N62">
-        <v>54035339.86660005</v>
+        <v>54353968.93904259</v>
       </c>
       <c r="O62">
-        <v>185769320.477905</v>
+        <v>186707692.2287153</v>
       </c>
       <c r="P62">
         <v>67</v>
@@ -3918,31 +3918,31 @@
         </is>
       </c>
       <c r="F63">
-        <v>30211161728.1</v>
+        <v>30360981590.57999</v>
       </c>
       <c r="G63">
-        <v>28386596908.32</v>
+        <v>28491470812.05001</v>
       </c>
       <c r="H63">
-        <v>938876037.41</v>
+        <v>938876037.4100001</v>
       </c>
       <c r="I63">
-        <v>885688782.37</v>
+        <v>930634741.1199998</v>
       </c>
       <c r="J63">
         <v>8897231955.370001</v>
       </c>
       <c r="K63">
-        <v>7517624473.49</v>
+        <v>7517624473.490002</v>
       </c>
       <c r="L63">
         <v>634759371.2</v>
       </c>
       <c r="M63">
-        <v>8152383844.69</v>
+        <v>8152383844.690001</v>
       </c>
       <c r="N63">
-        <v>744848110.6799999</v>
+        <v>744848110.6800003</v>
       </c>
       <c r="O63">
         <v>1379607481.88</v>
@@ -3979,13 +3979,13 @@
         <v>3097979740.54</v>
       </c>
       <c r="G64">
-        <v>2633282778.8</v>
+        <v>2633282778.800001</v>
       </c>
       <c r="H64">
-        <v>426788520.97</v>
+        <v>426788520.9700001</v>
       </c>
       <c r="I64">
-        <v>37908440.77</v>
+        <v>37908440.77000002</v>
       </c>
       <c r="J64">
         <v>2212782732.45</v>
@@ -3997,13 +3997,13 @@
         <v>304530061.35</v>
       </c>
       <c r="M64">
-        <v>2185395382.46</v>
+        <v>2185395382.460001</v>
       </c>
       <c r="N64">
-        <v>27387349.99</v>
+        <v>27387349.99000002</v>
       </c>
       <c r="O64">
-        <v>331917411.34</v>
+        <v>331917411.3400002</v>
       </c>
       <c r="P64">
         <v>412</v>
@@ -4034,34 +4034,34 @@
         </is>
       </c>
       <c r="F65">
-        <v>6517325179.12</v>
+        <v>6534413335.119996</v>
       </c>
       <c r="G65">
-        <v>5539726401.33</v>
+        <v>5554251333.929999</v>
       </c>
       <c r="H65">
-        <v>851691165.75</v>
+        <v>854254389.1499997</v>
       </c>
       <c r="I65">
         <v>125907612.04</v>
       </c>
       <c r="J65">
-        <v>4445164433.54</v>
+        <v>4445164433.539999</v>
       </c>
       <c r="K65">
-        <v>3778389765.73</v>
+        <v>3778389765.730001</v>
       </c>
       <c r="L65">
-        <v>575713456.92</v>
+        <v>575713456.9200008</v>
       </c>
       <c r="M65">
-        <v>4354103222.65</v>
+        <v>4354103222.650002</v>
       </c>
       <c r="N65">
-        <v>91061210.89000005</v>
+        <v>91061210.89000009</v>
       </c>
       <c r="O65">
-        <v>666774667.8100001</v>
+        <v>666774667.8100004</v>
       </c>
       <c r="P65">
         <v>484</v>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="F66">
-        <v>588773830.09</v>
+        <v>588773830.0900002</v>
       </c>
       <c r="G66">
-        <v>294386914.99</v>
+        <v>294386914.9900001</v>
       </c>
       <c r="H66">
         <v>258137397.67</v>
@@ -4113,7 +4113,7 @@
         <v>167242004.99</v>
       </c>
       <c r="M66">
-        <v>365386023.39</v>
+        <v>365386023.3899999</v>
       </c>
       <c r="N66">
         <v>30902013.93999999</v>
@@ -4150,34 +4150,34 @@
         </is>
       </c>
       <c r="F67">
-        <v>11121589705.2725</v>
+        <v>15413754632.755</v>
       </c>
       <c r="G67">
-        <v>5099204215.065</v>
+        <v>6784699031.330006</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>6022385490.2075</v>
+        <v>8629055601.425007</v>
       </c>
       <c r="J67">
-        <v>7078231577.3375</v>
+        <v>9702734655.954998</v>
       </c>
       <c r="K67">
-        <v>3242163341.1375</v>
+        <v>4257462433.485004</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>3242163341.1375</v>
+        <v>4257462433.485004</v>
       </c>
       <c r="N67">
-        <v>3836068236.2</v>
+        <v>5445272222.470001</v>
       </c>
       <c r="O67">
-        <v>3836068236.2</v>
+        <v>5445272222.470001</v>
       </c>
       <c r="P67">
         <v>1168</v>
@@ -4208,34 +4208,34 @@
         </is>
       </c>
       <c r="F68">
-        <v>5611976088.3425</v>
+        <v>7912860677.575001</v>
       </c>
       <c r="G68">
-        <v>2221089396.835</v>
+        <v>2786633044.130001</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3390886691.5075</v>
+        <v>5126227633.445</v>
       </c>
       <c r="J68">
-        <v>4882471583.1075</v>
+        <v>6829678863.925001</v>
       </c>
       <c r="K68">
-        <v>1946443525.795</v>
+        <v>2425254900.669999</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1946443525.795</v>
+        <v>2425254900.669999</v>
       </c>
       <c r="N68">
-        <v>2936028057.3125</v>
+        <v>4404423963.255001</v>
       </c>
       <c r="O68">
-        <v>2936028057.3125</v>
+        <v>4404423963.255001</v>
       </c>
       <c r="P68">
         <v>240</v>
@@ -4324,34 +4324,34 @@
         </is>
       </c>
       <c r="F70">
-        <v>17550211204.44043</v>
+        <v>17807680620.24495</v>
       </c>
       <c r="G70">
-        <v>14008345775.27027</v>
+        <v>14225268485.037</v>
       </c>
       <c r="H70">
-        <v>2879472001.565373</v>
+        <v>2908920451.341411</v>
       </c>
       <c r="I70">
-        <v>662393427.6047807</v>
+        <v>673491683.8665295</v>
       </c>
       <c r="J70">
-        <v>12806667072.04544</v>
+        <v>13006810856.12478</v>
       </c>
       <c r="K70">
-        <v>10261485034.94626</v>
+        <v>10430484273.87281</v>
       </c>
       <c r="L70">
-        <v>2020521752.915944</v>
+        <v>2042758752.639779</v>
       </c>
       <c r="M70">
-        <v>12282006787.8622</v>
+        <v>12473243026.51258</v>
       </c>
       <c r="N70">
-        <v>524660284.1832352</v>
+        <v>533567829.6121961</v>
       </c>
       <c r="O70">
-        <v>2545182037.099179</v>
+        <v>2576326582.251975</v>
       </c>
       <c r="P70">
         <v>161</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>3193642070.62</v>
+        <v>3193642070.619999</v>
       </c>
       <c r="G71">
         <v>1613136175.3</v>
@@ -4397,13 +4397,13 @@
         <v>1438049993.48</v>
       </c>
       <c r="K71">
-        <v>719024996.63</v>
+        <v>719024996.6299999</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>719024996.63</v>
+        <v>719024996.6299999</v>
       </c>
       <c r="N71">
         <v>719024996.85</v>
@@ -4440,34 +4440,34 @@
         </is>
       </c>
       <c r="F72">
-        <v>916162758.7695251</v>
+        <v>2404820426.876726</v>
       </c>
       <c r="G72">
-        <v>596871085.8363317</v>
+        <v>1564252619.939956</v>
       </c>
       <c r="H72">
-        <v>202027.3684302134</v>
+        <v>731002.4331365647</v>
       </c>
       <c r="I72">
-        <v>319089645.5647631</v>
+        <v>839836804.5036372</v>
       </c>
       <c r="J72">
-        <v>250261089.0201875</v>
+        <v>670353515.5807372</v>
       </c>
       <c r="K72">
-        <v>158016196.8845496</v>
+        <v>427417332.6739725</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>158016196.8845496</v>
+        <v>427417332.6739725</v>
       </c>
       <c r="N72">
-        <v>92244892.13563786</v>
+        <v>242936182.9067648</v>
       </c>
       <c r="O72">
-        <v>92244892.13563786</v>
+        <v>242936182.9067648</v>
       </c>
       <c r="P72">
         <v>412</v>
@@ -4498,34 +4498,34 @@
         </is>
       </c>
       <c r="F73">
-        <v>6217192984.622617</v>
+        <v>6472470307.437983</v>
       </c>
       <c r="G73">
-        <v>4890358179.81863</v>
+        <v>5099281113.898001</v>
       </c>
       <c r="H73">
-        <v>1222773881.72767</v>
+        <v>1263265155.114298</v>
       </c>
       <c r="I73">
-        <v>104060923.0763159</v>
+        <v>109924038.4256858</v>
       </c>
       <c r="J73">
-        <v>4399161474.92344</v>
+        <v>4556022465.379855</v>
       </c>
       <c r="K73">
-        <v>3434218185.040252</v>
+        <v>3563442204.588598</v>
       </c>
       <c r="L73">
-        <v>888271338.0410825</v>
+        <v>911963500.297304</v>
       </c>
       <c r="M73">
-        <v>4322489523.081334</v>
+        <v>4475405704.885903</v>
       </c>
       <c r="N73">
-        <v>76671951.84210555</v>
+        <v>80616760.49395302</v>
       </c>
       <c r="O73">
-        <v>964943289.8831881</v>
+        <v>992580260.7912571</v>
       </c>
       <c r="P73">
         <v>64</v>
@@ -4556,34 +4556,34 @@
         </is>
       </c>
       <c r="F74">
-        <v>18441436028.21268</v>
+        <v>19694550033.14548</v>
       </c>
       <c r="G74">
-        <v>10697548388.2402</v>
+        <v>11531469209.39801</v>
       </c>
       <c r="H74">
-        <v>1385033.232157084</v>
+        <v>1914008.296863435</v>
       </c>
       <c r="I74">
-        <v>7742502606.740328</v>
+        <v>8161166815.450607</v>
       </c>
       <c r="J74">
-        <v>8251760733.938931</v>
+        <v>8650411572.327011</v>
       </c>
       <c r="K74">
-        <v>4800998246.526354</v>
+        <v>5061412954.322072</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>4800998246.526354</v>
+        <v>5061412954.322072</v>
       </c>
       <c r="N74">
-        <v>3450762487.412578</v>
+        <v>3588998618.004941</v>
       </c>
       <c r="O74">
-        <v>3450762487.412578</v>
+        <v>3588998618.004941</v>
       </c>
       <c r="P74">
         <v>1367</v>
@@ -4614,34 +4614,34 @@
         </is>
       </c>
       <c r="F75">
-        <v>12262044897.78623</v>
+        <v>12500784682.23707</v>
       </c>
       <c r="G75">
-        <v>9443244344.308359</v>
+        <v>9640036664.445</v>
       </c>
       <c r="H75">
-        <v>2686210003.239703</v>
+        <v>2721346014.594291</v>
       </c>
       <c r="I75">
-        <v>132590550.2381636</v>
+        <v>139402003.1977848</v>
       </c>
       <c r="J75">
-        <v>6934678314.544689</v>
+        <v>7106192684.835363</v>
       </c>
       <c r="K75">
-        <v>5335240497.634794</v>
+        <v>5478042867.568594</v>
       </c>
       <c r="L75">
-        <v>1506565095.310131</v>
+        <v>1529499974.232917</v>
       </c>
       <c r="M75">
-        <v>6841805592.944925</v>
+        <v>7007542841.801513</v>
       </c>
       <c r="N75">
-        <v>92872721.59976383</v>
+        <v>98649843.03385043</v>
       </c>
       <c r="O75">
-        <v>1599437816.909895</v>
+        <v>1628149817.266768</v>
       </c>
       <c r="P75">
         <v>45</v>
@@ -4675,7 +4675,7 @@
         <v>309957324.3</v>
       </c>
       <c r="G76">
-        <v>216970127</v>
+        <v>216970127.0000001</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4742,19 +4742,19 @@
         <v>149632196.96</v>
       </c>
       <c r="J77">
-        <v>831348680.6900001</v>
+        <v>831348680.6899998</v>
       </c>
       <c r="K77">
         <v>415674339.83</v>
       </c>
       <c r="L77">
-        <v>332539471.87</v>
+        <v>332539471.8700001</v>
       </c>
       <c r="M77">
         <v>748213811.7</v>
       </c>
       <c r="N77">
-        <v>83134868.99000001</v>
+        <v>83134868.99000002</v>
       </c>
       <c r="O77">
         <v>415674340.86</v>
@@ -4788,34 +4788,34 @@
         </is>
       </c>
       <c r="F78">
-        <v>3786094349.75</v>
+        <v>3799294349.75</v>
       </c>
       <c r="G78">
-        <v>2116225355.6</v>
+        <v>2124076715.599999</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1669868994.15</v>
+        <v>1675217634.150001</v>
       </c>
       <c r="J78">
-        <v>1684162751.6184</v>
+        <v>1690187366.483999</v>
       </c>
       <c r="K78">
-        <v>925913554.7988</v>
+        <v>929496995.7179995</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>925913554.7988</v>
+        <v>929496995.7179995</v>
       </c>
       <c r="N78">
-        <v>758249196.8196</v>
+        <v>760690370.7659999</v>
       </c>
       <c r="O78">
-        <v>758249196.8196</v>
+        <v>760690370.7659999</v>
       </c>
       <c r="P78">
         <v>262</v>
@@ -4846,34 +4846,34 @@
         </is>
       </c>
       <c r="F79">
-        <v>4718415317.4475</v>
+        <v>8989432639.804996</v>
       </c>
       <c r="G79">
-        <v>2008079648.94</v>
+        <v>3685460992.900001</v>
       </c>
       <c r="H79">
         <v>222500</v>
       </c>
       <c r="I79">
-        <v>2710113168.5075</v>
+        <v>5303749146.905005</v>
       </c>
       <c r="J79">
-        <v>3010683297.9</v>
+        <v>5630897892.95</v>
       </c>
       <c r="K79">
-        <v>1304104065.3425</v>
+        <v>2317473340.085</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1304104065.3425</v>
+        <v>2317473340.085</v>
       </c>
       <c r="N79">
-        <v>1706579232.5575</v>
+        <v>3313424552.864998</v>
       </c>
       <c r="O79">
-        <v>1706579232.5575</v>
+        <v>3313424552.864998</v>
       </c>
       <c r="P79">
         <v>2298</v>
@@ -4962,34 +4962,34 @@
         </is>
       </c>
       <c r="F81">
-        <v>9464527042.105272</v>
+        <v>9524489606.72308</v>
       </c>
       <c r="G81">
-        <v>3138651456.048711</v>
+        <v>3170023000.430001</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>6325875586.056562</v>
+        <v>6354466606.293078</v>
       </c>
       <c r="J81">
-        <v>1083463690.955324</v>
+        <v>1089907557.366609</v>
       </c>
       <c r="K81">
-        <v>437366617.6239589</v>
+        <v>440556229.5129184</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>437366617.6239589</v>
+        <v>440556229.5129184</v>
       </c>
       <c r="N81">
-        <v>646097073.3313656</v>
+        <v>649351327.8536907</v>
       </c>
       <c r="O81">
-        <v>646097073.3313656</v>
+        <v>649351327.8536907</v>
       </c>
       <c r="P81">
         <v>186</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>2383988528.01</v>
+        <v>2383988528.009999</v>
       </c>
       <c r="G82">
         <v>1370682272.56</v>
@@ -5029,10 +5029,10 @@
         <v>77661400.25</v>
       </c>
       <c r="I82">
-        <v>935644855.2</v>
+        <v>935644855.1999998</v>
       </c>
       <c r="J82">
-        <v>1409043851.13</v>
+        <v>1409043851.129999</v>
       </c>
       <c r="K82">
         <v>781074449.1900001</v>
@@ -5041,13 +5041,13 @@
         <v>32808225.83</v>
       </c>
       <c r="M82">
-        <v>813882675.02</v>
+        <v>813882675.0200003</v>
       </c>
       <c r="N82">
-        <v>595161176.11</v>
+        <v>595161176.1100005</v>
       </c>
       <c r="O82">
-        <v>627969401.9399999</v>
+        <v>627969401.9400005</v>
       </c>
       <c r="P82">
         <v>894</v>
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="F83">
-        <v>355012217.1</v>
+        <v>391497617.1</v>
       </c>
       <c r="G83">
-        <v>177506108.55</v>
+        <v>195748808.55</v>
       </c>
       <c r="H83">
         <v>137720089.19</v>
       </c>
       <c r="I83">
-        <v>39786019.36</v>
+        <v>58028719.36</v>
       </c>
       <c r="J83">
-        <v>242999709.3342</v>
+        <v>251241906.384</v>
       </c>
       <c r="K83">
-        <v>121499854.6221</v>
+        <v>125620953.147</v>
       </c>
       <c r="L83">
-        <v>97740360.37</v>
+        <v>97740360.36999997</v>
       </c>
       <c r="M83">
-        <v>219240214.9921</v>
+        <v>223361313.517</v>
       </c>
       <c r="N83">
-        <v>23759494.34210002</v>
+        <v>27880592.86700005</v>
       </c>
       <c r="O83">
-        <v>121499854.7121</v>
+        <v>125620953.237</v>
       </c>
       <c r="P83">
         <v>3</v>
@@ -5136,34 +5136,34 @@
         </is>
       </c>
       <c r="F84">
-        <v>20958740998.16</v>
+        <v>20958740998.16002</v>
       </c>
       <c r="G84">
-        <v>8692127961.65</v>
+        <v>8692127961.649992</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>12266613036.51</v>
+        <v>12266613036.51001</v>
       </c>
       <c r="J84">
-        <v>12092824374.32</v>
+        <v>12092824374.31999</v>
       </c>
       <c r="K84">
-        <v>5126291571</v>
+        <v>5126291570.999991</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>5126291571</v>
+        <v>5126291570.999991</v>
       </c>
       <c r="N84">
-        <v>6966532803.32</v>
+        <v>6966532803.319995</v>
       </c>
       <c r="O84">
-        <v>6966532803.32</v>
+        <v>6966532803.319995</v>
       </c>
       <c r="P84">
         <v>2052</v>
@@ -5194,34 +5194,34 @@
         </is>
       </c>
       <c r="F85">
-        <v>361871578.53</v>
+        <v>398356978.53</v>
       </c>
       <c r="G85">
-        <v>180935789.25</v>
+        <v>199178489.25</v>
       </c>
       <c r="H85">
         <v>86690597.73</v>
       </c>
       <c r="I85">
-        <v>94245191.55</v>
+        <v>112487891.55</v>
       </c>
       <c r="J85">
-        <v>225180481.9962</v>
+        <v>233422679.046</v>
       </c>
       <c r="K85">
-        <v>112575240.9181</v>
+        <v>116696339.443</v>
       </c>
       <c r="L85">
         <v>72104549.26000001</v>
       </c>
       <c r="M85">
-        <v>184679790.1781</v>
+        <v>188800888.703</v>
       </c>
       <c r="N85">
-        <v>40500691.81810001</v>
+        <v>44621790.34300001</v>
       </c>
       <c r="O85">
-        <v>112605241.0781</v>
+        <v>116726339.603</v>
       </c>
       <c r="P85">
         <v>12</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="F86">
-        <v>21873837790.63</v>
+        <v>21873837790.62997</v>
       </c>
       <c r="G86">
-        <v>10089615302.6</v>
+        <v>10089615302.59995</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>11784222488.03</v>
+        <v>11784222488.03006</v>
       </c>
       <c r="J86">
-        <v>12378012764.27</v>
+        <v>12378012764.27002</v>
       </c>
       <c r="K86">
-        <v>5731220687.34</v>
+        <v>5731220687.339988</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>5731220687.34</v>
+        <v>5731220687.339988</v>
       </c>
       <c r="N86">
-        <v>6646792076.93</v>
+        <v>6646792076.929999</v>
       </c>
       <c r="O86">
-        <v>6646792076.93</v>
+        <v>6646792076.929999</v>
       </c>
       <c r="P86">
         <v>2979</v>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>3728514788.89</v>
+        <v>3728514788.890001</v>
       </c>
       <c r="G87">
         <v>1739849983.29</v>
@@ -5319,25 +5319,25 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1988664805.6</v>
+        <v>1988664805.599999</v>
       </c>
       <c r="J87">
-        <v>1851459426.63</v>
+        <v>1851459426.630001</v>
       </c>
       <c r="K87">
-        <v>891807809.8200001</v>
+        <v>891807809.8199998</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>891807809.8200001</v>
+        <v>891807809.8199998</v>
       </c>
       <c r="N87">
-        <v>959651616.8099999</v>
+        <v>959651616.809999</v>
       </c>
       <c r="O87">
-        <v>959651616.8099999</v>
+        <v>959651616.809999</v>
       </c>
       <c r="P87">
         <v>985</v>
@@ -5371,31 +5371,31 @@
         <v>14026631576.82</v>
       </c>
       <c r="G88">
-        <v>4271497533.96</v>
+        <v>4271497533.959994</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>9755134042.860001</v>
+        <v>9755134042.859993</v>
       </c>
       <c r="J88">
-        <v>6096337527.24</v>
+        <v>6096337527.240003</v>
       </c>
       <c r="K88">
-        <v>1870008618.74</v>
+        <v>1870008618.739999</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1870008618.74</v>
+        <v>1870008618.739999</v>
       </c>
       <c r="N88">
-        <v>4226328908.5</v>
+        <v>4226328908.500001</v>
       </c>
       <c r="O88">
-        <v>4226328908.5</v>
+        <v>4226328908.500001</v>
       </c>
       <c r="P88">
         <v>776</v>
@@ -5450,10 +5450,10 @@
         <v>2957343190.26</v>
       </c>
       <c r="N89">
-        <v>4140375471.69</v>
+        <v>4140375471.690001</v>
       </c>
       <c r="O89">
-        <v>4140375471.69</v>
+        <v>4140375471.690001</v>
       </c>
       <c r="P89">
         <v>435</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="F90">
-        <v>651673248.92</v>
+        <v>651673248.9200002</v>
       </c>
       <c r="G90">
-        <v>553922261.42</v>
+        <v>553922261.4200001</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>97750987.5</v>
+        <v>97750987.49999997</v>
       </c>
       <c r="J90">
         <v>559653233.5599999</v>
@@ -5508,10 +5508,10 @@
         <v>475705248.03</v>
       </c>
       <c r="N90">
-        <v>83947985.53</v>
+        <v>83947985.53000002</v>
       </c>
       <c r="O90">
-        <v>83947985.53</v>
+        <v>83947985.53000002</v>
       </c>
       <c r="P90">
         <v>198</v>
@@ -5569,7 +5569,7 @@
         <v>-5.820766091346741e-11</v>
       </c>
       <c r="O91">
-        <v>21477223.62</v>
+        <v>21477223.61999999</v>
       </c>
       <c r="P91">
         <v>22</v>
@@ -5600,7 +5600,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>905286132.3</v>
+        <v>905286132.2999998</v>
       </c>
       <c r="G92">
         <v>388766228.9</v>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="F93">
-        <v>9831635171.1</v>
+        <v>9831635171.099997</v>
       </c>
       <c r="G93">
-        <v>8105729400.97</v>
+        <v>8105729400.970006</v>
       </c>
       <c r="H93">
         <v>1498038093.78</v>
@@ -5670,22 +5670,22 @@
         <v>227867676.35</v>
       </c>
       <c r="J93">
-        <v>3986257279.03</v>
+        <v>3986257279.029999</v>
       </c>
       <c r="K93">
-        <v>3327674460.01</v>
+        <v>3327674460.009997</v>
       </c>
       <c r="L93">
         <v>543810396.35</v>
       </c>
       <c r="M93">
-        <v>3871484856.36</v>
+        <v>3871484856.359998</v>
       </c>
       <c r="N93">
         <v>114772422.67</v>
       </c>
       <c r="O93">
-        <v>658582819.02</v>
+        <v>658582819.0199997</v>
       </c>
       <c r="P93">
         <v>359</v>
@@ -5719,7 +5719,7 @@
         <v>5326280092.85</v>
       </c>
       <c r="G94">
-        <v>2270613176.41</v>
+        <v>2270613176.409999</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5740,10 +5740,10 @@
         <v>1867426602.97</v>
       </c>
       <c r="N94">
-        <v>2525053335.17</v>
+        <v>2525053335.169999</v>
       </c>
       <c r="O94">
-        <v>2525053335.17</v>
+        <v>2525053335.169999</v>
       </c>
       <c r="P94">
         <v>519</v>
@@ -5777,13 +5777,13 @@
         <v>18349546854.65</v>
       </c>
       <c r="G95">
-        <v>15272946652.61</v>
+        <v>15272946652.61001</v>
       </c>
       <c r="H95">
         <v>157676635.57</v>
       </c>
       <c r="I95">
-        <v>2918923566.47</v>
+        <v>2918923566.469999</v>
       </c>
       <c r="J95">
         <v>14163267078.88</v>
@@ -5832,19 +5832,19 @@
         </is>
       </c>
       <c r="F96">
-        <v>8893799399.17</v>
+        <v>8893799399.169996</v>
       </c>
       <c r="G96">
-        <v>7959055034.89</v>
+        <v>7959055034.890014</v>
       </c>
       <c r="H96">
-        <v>694901644.59</v>
+        <v>694901644.5900003</v>
       </c>
       <c r="I96">
-        <v>239842719.69</v>
+        <v>239842719.6900001</v>
       </c>
       <c r="J96">
-        <v>4956227103.34</v>
+        <v>4956227103.339997</v>
       </c>
       <c r="K96">
         <v>4417917345.65</v>
@@ -5853,13 +5853,13 @@
         <v>418097698.11</v>
       </c>
       <c r="M96">
-        <v>4836015043.76</v>
+        <v>4836015043.759995</v>
       </c>
       <c r="N96">
         <v>120212059.58</v>
       </c>
       <c r="O96">
-        <v>538309757.6899999</v>
+        <v>538309757.6900004</v>
       </c>
       <c r="P96">
         <v>2170</v>
@@ -5893,7 +5893,7 @@
         <v>1408751778.51</v>
       </c>
       <c r="G97">
-        <v>1233418481.79</v>
+        <v>1233418481.789999</v>
       </c>
       <c r="H97">
         <v>148955531.53</v>
@@ -5902,10 +5902,10 @@
         <v>26377765.19</v>
       </c>
       <c r="J97">
-        <v>824017390.2</v>
+        <v>824017390.1999999</v>
       </c>
       <c r="K97">
-        <v>747857806.5</v>
+        <v>747857806.5000001</v>
       </c>
       <c r="L97">
         <v>69943217.55</v>
@@ -5948,34 +5948,34 @@
         </is>
       </c>
       <c r="F98">
-        <v>6646377378.155512</v>
+        <v>6811909332.823119</v>
       </c>
       <c r="G98">
-        <v>5690069217.4907</v>
+        <v>5830870989.732</v>
       </c>
       <c r="H98">
-        <v>956308160.6648117</v>
+        <v>981038343.091117</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>4448252962.684327</v>
+        <v>4461369020.399628</v>
       </c>
       <c r="K98">
-        <v>3816520597.389528</v>
+        <v>3827676174.716684</v>
       </c>
       <c r="L98">
-        <v>631732365.2947991</v>
+        <v>633692845.6829438</v>
       </c>
       <c r="M98">
-        <v>4448252962.684327</v>
+        <v>4461369020.399628</v>
       </c>
       <c r="N98">
-        <v>2.371962182223797e-08</v>
+        <v>2.511660568416119e-08</v>
       </c>
       <c r="O98">
-        <v>631732365.2947991</v>
+        <v>633692845.6829439</v>
       </c>
       <c r="P98">
         <v>547</v>
@@ -6012,7 +6012,7 @@
         <v>1389246042.95</v>
       </c>
       <c r="H99">
-        <v>262591784.2</v>
+        <v>262591784.2000001</v>
       </c>
       <c r="I99">
         <v>11400478.38</v>
@@ -6021,19 +6021,19 @@
         <v>1068126581.46</v>
       </c>
       <c r="K99">
-        <v>894579843.67</v>
+        <v>894579843.6700002</v>
       </c>
       <c r="L99">
-        <v>166479005.06</v>
+        <v>166479005.0599999</v>
       </c>
       <c r="M99">
         <v>1061058848.73</v>
       </c>
       <c r="N99">
-        <v>7067732.729999997</v>
+        <v>7067732.729999995</v>
       </c>
       <c r="O99">
-        <v>173546737.79</v>
+        <v>173546737.7899999</v>
       </c>
       <c r="P99">
         <v>213</v>
@@ -6064,37 +6064,37 @@
         </is>
       </c>
       <c r="F100">
-        <v>627910753.4092765</v>
+        <v>290719094.7418823</v>
       </c>
       <c r="G100">
-        <v>535449575.6867</v>
+        <v>248936276.6179999</v>
       </c>
       <c r="H100">
-        <v>92461177.72257647</v>
+        <v>41782818.12388237</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>465191724.6450748</v>
+        <v>21411081.13037389</v>
       </c>
       <c r="K100">
-        <v>396923465.6961635</v>
+        <v>19716847.0653178</v>
       </c>
       <c r="L100">
-        <v>68268258.94891122</v>
+        <v>1694234.065056084</v>
       </c>
       <c r="M100">
-        <v>465191724.6450748</v>
+        <v>21411081.13037389</v>
       </c>
       <c r="N100">
-        <v>-1.763692125678062e-08</v>
+        <v>5.238689482212067e-10</v>
       </c>
       <c r="O100">
-        <v>68268258.94891122</v>
+        <v>1694234.065056084</v>
       </c>
       <c r="P100">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -6109,65 +6109,65 @@
         </is>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F101">
-        <v>2969496067.78</v>
+        <v>502723613.335</v>
       </c>
       <c r="G101">
-        <v>2225341410.4</v>
+        <v>427315071.3099999</v>
       </c>
       <c r="H101">
-        <v>740507713.37</v>
+        <v>75408542.02499999</v>
       </c>
       <c r="I101">
-        <v>3646944.01</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>2430373169.75</v>
+        <v>456896701.23</v>
       </c>
       <c r="K101">
-        <v>1829131713.5</v>
+        <v>388362195.958</v>
       </c>
       <c r="L101">
-        <v>597598968.1900001</v>
+        <v>68534505.27200001</v>
       </c>
       <c r="M101">
-        <v>2426730681.69</v>
+        <v>456896701.23</v>
       </c>
       <c r="N101">
-        <v>3642488.06000001</v>
+        <v>-1.676380634307861e-08</v>
       </c>
       <c r="O101">
-        <v>601241456.25</v>
+        <v>68534505.272</v>
       </c>
       <c r="P101">
-        <v>778</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rehabilitation of industrial sites and contaminated land</t>
+          <t>Risk prevention and management of non-climate related natural risks (i.e. earthquakes) and risks linked to human activities (e.g. technological accidents), including awareness raising, civil protection and disaster management systems and infrastructures</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IV.4.089</t>
+          <t>IV.4.088</t>
         </is>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6180,48 +6180,48 @@
         </is>
       </c>
       <c r="F102">
-        <v>3588144817.36</v>
+        <v>2969496067.780002</v>
       </c>
       <c r="G102">
-        <v>3048773666.82</v>
+        <v>2225341410.400001</v>
       </c>
       <c r="H102">
-        <v>202098364.43</v>
+        <v>740507713.3700004</v>
       </c>
       <c r="I102">
-        <v>337272786.11</v>
+        <v>3646944.01</v>
       </c>
       <c r="J102">
-        <v>1878355234.79</v>
+        <v>2430373169.75</v>
       </c>
       <c r="K102">
-        <v>1595337356.3</v>
+        <v>1829131713.500001</v>
       </c>
       <c r="L102">
-        <v>153430940.88</v>
+        <v>597598968.1899998</v>
       </c>
       <c r="M102">
-        <v>1748768297.18</v>
+        <v>2426730681.690001</v>
       </c>
       <c r="N102">
-        <v>129586937.61</v>
+        <v>3642488.060000013</v>
       </c>
       <c r="O102">
-        <v>283017878.49</v>
+        <v>601241456.2499999</v>
       </c>
       <c r="P102">
-        <v>121</v>
+        <v>778</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public tourism assets</t>
+          <t>Rehabilitation of industrial sites and contaminated land</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IV.4.092</t>
+          <t>IV.4.089</t>
         </is>
       </c>
       <c r="C103">
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="F103">
-        <v>13716484.86</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>13716484.86</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6250,16 +6250,16 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>7936095.15</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>7936095.15</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>7936095.15</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6268,76 +6268,76 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public cultural and heritage assets</t>
+          <t>Rehabilitation of industrial sites and contaminated land</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IV.4.094</t>
+          <t>IV.4.089</t>
         </is>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F104">
-        <v>15173658684.73</v>
+        <v>3588144817.360001</v>
       </c>
       <c r="G104">
-        <v>12897609881.38</v>
+        <v>3048773666.82</v>
       </c>
       <c r="H104">
-        <v>1881837568.37</v>
+        <v>202098364.43</v>
       </c>
       <c r="I104">
-        <v>394211234.98</v>
+        <v>337272786.11</v>
       </c>
       <c r="J104">
-        <v>8287583119.21</v>
+        <v>1878355234.79</v>
       </c>
       <c r="K104">
-        <v>7044445647.16</v>
+        <v>1595337356.3</v>
       </c>
       <c r="L104">
-        <v>1033633036.03</v>
+        <v>153430940.8799999</v>
       </c>
       <c r="M104">
-        <v>8078078683.19</v>
+        <v>1748768297.18</v>
       </c>
       <c r="N104">
-        <v>209504436.02</v>
+        <v>129586937.61</v>
       </c>
       <c r="O104">
-        <v>1243137472.05</v>
+        <v>283017878.49</v>
       </c>
       <c r="P104">
-        <v>246</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public cultural and heritage assets</t>
+          <t>Protection, development and promotion of public tourism assets</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IV.4.094</t>
+          <t>IV.4.092</t>
         </is>
       </c>
       <c r="C105">
@@ -6354,34 +6354,34 @@
         </is>
       </c>
       <c r="F105">
-        <v>46016416.22</v>
+        <v>13716484.86</v>
       </c>
       <c r="G105">
-        <v>4601641.62</v>
+        <v>13716484.86</v>
       </c>
       <c r="H105">
-        <v>41414774.6</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>32594111.23</v>
+        <v>7936095.15</v>
       </c>
       <c r="K105">
-        <v>3259411.23</v>
+        <v>7936095.15</v>
       </c>
       <c r="L105">
-        <v>29334700</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>32594111.23</v>
+        <v>7936095.15</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>29334700</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -6390,12 +6390,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Institutional capacity of public administrations and public services related to implementation of the ERDF or actions supporting ESF institutional capacity initiatives</t>
+          <t>Protection, development and promotion of public cultural and heritage assets</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IV.5.096</t>
+          <t>IV.4.094</t>
         </is>
       </c>
       <c r="C106">
@@ -6412,48 +6412,48 @@
         </is>
       </c>
       <c r="F106">
-        <v>230538791.4</v>
+        <v>15173658684.73</v>
       </c>
       <c r="G106">
-        <v>195957972.67</v>
+        <v>12897609881.38</v>
       </c>
       <c r="H106">
-        <v>34580818.73</v>
+        <v>1881837568.37</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>394211234.9800002</v>
       </c>
       <c r="J106">
-        <v>219403581.96</v>
+        <v>8287583119.210001</v>
       </c>
       <c r="K106">
-        <v>186493044.53</v>
+        <v>7044445647.160006</v>
       </c>
       <c r="L106">
-        <v>32910537.43</v>
+        <v>1033633036.03</v>
       </c>
       <c r="M106">
-        <v>219403581.96</v>
+        <v>8078078683.190001</v>
       </c>
       <c r="N106">
-        <v>-9.895302355289459e-10</v>
+        <v>209504436.0200001</v>
       </c>
       <c r="O106">
-        <v>32910537.43</v>
+        <v>1243137472.050001</v>
       </c>
       <c r="P106">
-        <v>187</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Community-led local development initiatives in urban and rural areas</t>
+          <t>Protection, development and promotion of public cultural and heritage assets</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IV.5.097</t>
+          <t>IV.4.094</t>
         </is>
       </c>
       <c r="C107">
@@ -6461,57 +6461,57 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F107">
-        <v>6808963675.88</v>
+        <v>46016416.22</v>
       </c>
       <c r="G107">
-        <v>6468515487.37</v>
+        <v>4601641.62</v>
       </c>
       <c r="H107">
-        <v>189007502.14</v>
+        <v>41414774.6</v>
       </c>
       <c r="I107">
-        <v>151440686.37</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>4579057617.03</v>
+        <v>32594111.23</v>
       </c>
       <c r="K107">
-        <v>4350104727.4</v>
+        <v>3259411.23</v>
       </c>
       <c r="L107">
-        <v>136296862.04</v>
+        <v>29334700</v>
       </c>
       <c r="M107">
-        <v>4486401589.44</v>
+        <v>32594111.23</v>
       </c>
       <c r="N107">
-        <v>92656027.59</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>228952889.63</v>
+        <v>29334700</v>
       </c>
       <c r="P107">
-        <v>2286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Preparation, implementation, monitoring and inspection</t>
+          <t>Institutional capacity of public administrations and public services related to implementation of the ERDF or actions supporting ESF institutional capacity initiatives</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IX.0.121</t>
+          <t>IV.5.096</t>
         </is>
       </c>
       <c r="C108">
@@ -6528,48 +6528,48 @@
         </is>
       </c>
       <c r="F108">
-        <v>2680630366.32</v>
+        <v>230538791.4</v>
       </c>
       <c r="G108">
-        <v>2278535811.3</v>
+        <v>195957972.67</v>
       </c>
       <c r="H108">
-        <v>402094555.02</v>
+        <v>34580818.72999999</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>2177986953.56</v>
+        <v>219403581.96</v>
       </c>
       <c r="K108">
-        <v>1851288904.61</v>
+        <v>186493044.53</v>
       </c>
       <c r="L108">
-        <v>326698048.95</v>
+        <v>32910537.42999998</v>
       </c>
       <c r="M108">
-        <v>2177986953.56</v>
+        <v>219403581.96</v>
       </c>
       <c r="N108">
-        <v>1.282896846532822e-07</v>
+        <v>-9.313225746154785e-10</v>
       </c>
       <c r="O108">
-        <v>326698048.95</v>
+        <v>32910537.42999998</v>
       </c>
       <c r="P108">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Preparation, implementation, monitoring and inspection</t>
+          <t>Community-led local development initiatives in urban and rural areas</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IX.0.121</t>
+          <t>IV.5.097</t>
         </is>
       </c>
       <c r="C109">
@@ -6577,46 +6577,46 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F109">
-        <v>1386549434.198917</v>
+        <v>6810742517.820005</v>
       </c>
       <c r="G109">
-        <v>1178567019.06512</v>
+        <v>6470205387.210009</v>
       </c>
       <c r="H109">
-        <v>207982415.1337969</v>
+        <v>189096444.2400001</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>151440686.3699999</v>
       </c>
       <c r="J109">
-        <v>667043452.7020456</v>
+        <v>4579057617.029996</v>
       </c>
       <c r="K109">
-        <v>566986934.3596168</v>
+        <v>4350104727.399992</v>
       </c>
       <c r="L109">
-        <v>100056518.3424289</v>
+        <v>136296862.04</v>
       </c>
       <c r="M109">
-        <v>667043452.7020457</v>
+        <v>4486401589.439997</v>
       </c>
       <c r="N109">
-        <v>-5.960464477539062e-08</v>
+        <v>92656027.58999997</v>
       </c>
       <c r="O109">
-        <v>100056518.3424288</v>
+        <v>228952889.6300006</v>
       </c>
       <c r="P109">
-        <v>3</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="110">
@@ -6635,46 +6635,46 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F110">
-        <v>3450692080.84</v>
+        <v>2690312336.090001</v>
       </c>
       <c r="G110">
-        <v>2933088268.69</v>
+        <v>2286765485.6</v>
       </c>
       <c r="H110">
-        <v>517603812.15</v>
+        <v>403546850.49</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1804384043.97</v>
+        <v>2177986953.559999</v>
       </c>
       <c r="K110">
-        <v>1533726436.44</v>
+        <v>1851288904.61</v>
       </c>
       <c r="L110">
-        <v>270657607.53</v>
+        <v>326698048.95</v>
       </c>
       <c r="M110">
-        <v>1804384043.97</v>
+        <v>2177986953.559999</v>
       </c>
       <c r="N110">
-        <v>7.470953278243542e-08</v>
+        <v>2.465676516294479e-07</v>
       </c>
       <c r="O110">
-        <v>270657607.53</v>
+        <v>326698048.9500002</v>
       </c>
       <c r="P110">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
@@ -6693,46 +6693,46 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F111">
-        <v>101238534.65</v>
+        <v>1433741977.476442</v>
       </c>
       <c r="G111">
-        <v>50619267.325</v>
+        <v>1218680680.850996</v>
       </c>
       <c r="H111">
-        <v>50619267.325</v>
+        <v>215061296.6254459</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>60990270.40975587</v>
+        <v>676695220.5491511</v>
       </c>
       <c r="K111">
-        <v>30495135.19737794</v>
+        <v>575190936.9125552</v>
       </c>
       <c r="L111">
-        <v>30495135.21237794</v>
+        <v>101504283.6365959</v>
       </c>
       <c r="M111">
-        <v>60990270.40975587</v>
+        <v>676695220.5491511</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="O111">
-        <v>30495135.21237794</v>
+        <v>101504283.6365959</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -6751,46 +6751,46 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F112">
-        <v>6711814951.635523</v>
+        <v>3450692080.84</v>
       </c>
       <c r="G112">
-        <v>5705042708.398486</v>
+        <v>2933088268.69</v>
       </c>
       <c r="H112">
-        <v>1006772243.237037</v>
+        <v>517603812.15</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>4972045251.981658</v>
+        <v>1804384043.97</v>
       </c>
       <c r="K112">
-        <v>4226238459.135158</v>
+        <v>1533726436.44</v>
       </c>
       <c r="L112">
-        <v>745806792.8464999</v>
+        <v>270657607.53</v>
       </c>
       <c r="M112">
-        <v>4972045251.981658</v>
+        <v>1804384043.97</v>
       </c>
       <c r="N112">
-        <v>1.897569745735501e-08</v>
+        <v>8.961069397628307e-08</v>
       </c>
       <c r="O112">
-        <v>745806792.8465</v>
+        <v>270657607.53</v>
       </c>
       <c r="P112">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -6809,46 +6809,46 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F113">
-        <v>2768928301.550467</v>
+        <v>202477069.4</v>
       </c>
       <c r="G113">
-        <v>2246985316.585381</v>
+        <v>101238534.7</v>
       </c>
       <c r="H113">
-        <v>521942984.9650859</v>
+        <v>101238534.7</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>2292029028.970318</v>
+        <v>121980540.8797559</v>
       </c>
       <c r="K113">
-        <v>1859981555.954268</v>
+        <v>60990270.42487793</v>
       </c>
       <c r="L113">
-        <v>432047473.0160509</v>
+        <v>60990270.45487794</v>
       </c>
       <c r="M113">
-        <v>2292029028.970318</v>
+        <v>121980540.8797559</v>
       </c>
       <c r="N113">
-        <v>-1.074907334997331e-08</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>432047473.0160509</v>
+        <v>60990270.45487794</v>
       </c>
       <c r="P113">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -6867,46 +6867,46 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F114">
-        <v>2493912236.804373</v>
+        <v>6745660045.340001</v>
       </c>
       <c r="G114">
-        <v>2053050901.1368</v>
+        <v>5733811038.043729</v>
       </c>
       <c r="H114">
-        <v>440861335.667573</v>
+        <v>1011849007.296275</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1814052445.104013</v>
+        <v>4980172949.864326</v>
       </c>
       <c r="K114">
-        <v>1493373323.92544</v>
+        <v>4233147002.274005</v>
       </c>
       <c r="L114">
-        <v>320679121.1785731</v>
+        <v>747025947.5903245</v>
       </c>
       <c r="M114">
-        <v>1814052445.104013</v>
+        <v>4980172949.864326</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>2.6007182895847e-08</v>
       </c>
       <c r="O114">
-        <v>320679121.1785731</v>
+        <v>747025947.5903245</v>
       </c>
       <c r="P114">
-        <v>3</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115">
@@ -6925,57 +6925,57 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F115">
-        <v>2843692131.13</v>
+        <v>2784941225.807066</v>
       </c>
       <c r="G115">
-        <v>2417138311.45</v>
+        <v>2259979804.597754</v>
       </c>
       <c r="H115">
-        <v>426553819.68</v>
+        <v>524961421.2093127</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1936934838.5</v>
+        <v>2298738360.858805</v>
       </c>
       <c r="K115">
-        <v>1646394611.94</v>
+        <v>1865426178.555698</v>
       </c>
       <c r="L115">
-        <v>290540226.56</v>
+        <v>433312182.3031067</v>
       </c>
       <c r="M115">
-        <v>1936934838.5</v>
+        <v>2298738360.858805</v>
       </c>
       <c r="N115">
-        <v>5.238689482212067e-10</v>
+        <v>3.95259121400542e-09</v>
       </c>
       <c r="O115">
-        <v>290540226.56</v>
+        <v>433312182.3031068</v>
       </c>
       <c r="P115">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Evaluation and studies</t>
+          <t>Preparation, implementation, monitoring and inspection</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>IX.0.122</t>
+          <t>IX.0.121</t>
         </is>
       </c>
       <c r="C116">
@@ -6983,57 +6983,57 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F116">
-        <v>30250000</v>
+        <v>2503186510.002429</v>
       </c>
       <c r="G116">
-        <v>25712500</v>
+        <v>2060685714.69</v>
       </c>
       <c r="H116">
-        <v>4537500</v>
+        <v>442500795.3124294</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>6651007</v>
+        <v>1814929043.71423</v>
       </c>
       <c r="K116">
-        <v>5653355.95</v>
+        <v>1494094961.809189</v>
       </c>
       <c r="L116">
-        <v>997651.05</v>
+        <v>320834081.9050406</v>
       </c>
       <c r="M116">
-        <v>6651007</v>
+        <v>1814929043.71423</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116">
-        <v>997651.0499999998</v>
+        <v>320834081.9050406</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Evaluation and studies</t>
+          <t>Preparation, implementation, monitoring and inspection</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>IX.0.122</t>
+          <t>IX.0.121</t>
         </is>
       </c>
       <c r="C117">
@@ -7041,46 +7041,46 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F117">
-        <v>1145990.441005943</v>
+        <v>2843692131.13</v>
       </c>
       <c r="G117">
-        <v>974091.8748550513</v>
+        <v>2417138311.45</v>
       </c>
       <c r="H117">
-        <v>171898.5661508914</v>
+        <v>426553819.6799999</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>222618.3633435677</v>
+        <v>1936934838.5</v>
       </c>
       <c r="K117">
-        <v>189225.605824132</v>
+        <v>1646394611.94</v>
       </c>
       <c r="L117">
-        <v>33392.75751943575</v>
+        <v>290540226.56</v>
       </c>
       <c r="M117">
-        <v>222618.3633435677</v>
+        <v>1936934838.5</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>5.238689482212067e-10</v>
       </c>
       <c r="O117">
-        <v>33392.75751943573</v>
+        <v>290540226.5600001</v>
       </c>
       <c r="P117">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118">
@@ -7099,46 +7099,46 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F118">
-        <v>46000000</v>
+        <v>30250000</v>
       </c>
       <c r="G118">
-        <v>39100000</v>
+        <v>25712500</v>
       </c>
       <c r="H118">
-        <v>6900000</v>
+        <v>4537500</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20818909.3</v>
+        <v>6651007</v>
       </c>
       <c r="K118">
-        <v>17696072.89</v>
+        <v>5653355.95</v>
       </c>
       <c r="L118">
-        <v>3122836.41</v>
+        <v>997651.05</v>
       </c>
       <c r="M118">
-        <v>20818909.3</v>
+        <v>6651007</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118">
-        <v>3122836.410000001</v>
+        <v>997651.0499999998</v>
       </c>
       <c r="P118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7157,43 +7157,43 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F119">
-        <v>101238534.85</v>
+        <v>15763279.79132719</v>
       </c>
       <c r="G119">
-        <v>50619267.42500001</v>
+        <v>13398787.82262811</v>
       </c>
       <c r="H119">
-        <v>50619267.42500001</v>
+        <v>2364491.968699078</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>60990270.53024413</v>
+        <v>3062150.802053501</v>
       </c>
       <c r="K119">
-        <v>30495135.25762206</v>
+        <v>2602828.140233776</v>
       </c>
       <c r="L119">
-        <v>30495135.27262206</v>
+        <v>459322.6618197252</v>
       </c>
       <c r="M119">
-        <v>60990270.53024413</v>
+        <v>3062150.802053501</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>30495135.27262206</v>
+        <v>459322.661819725</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -7215,46 +7215,46 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F120">
-        <v>148390674.7655257</v>
+        <v>46000000</v>
       </c>
       <c r="G120">
-        <v>126132073.5110381</v>
+        <v>39100000</v>
       </c>
       <c r="H120">
-        <v>22258601.2544876</v>
+        <v>6900000</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>106489357.2430015</v>
+        <v>20818909.3</v>
       </c>
       <c r="K120">
-        <v>90515953.01715001</v>
+        <v>17696072.89</v>
       </c>
       <c r="L120">
-        <v>15973404.22585147</v>
+        <v>3122836.41</v>
       </c>
       <c r="M120">
-        <v>106489357.2430015</v>
+        <v>20818909.3</v>
       </c>
       <c r="N120">
-        <v>-2.095475791433605e-10</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>15973404.22585147</v>
+        <v>3122836.410000001</v>
       </c>
       <c r="P120">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -7273,46 +7273,46 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F121">
-        <v>206625916.0047249</v>
+        <v>202477069.6</v>
       </c>
       <c r="G121">
-        <v>167676930.8301142</v>
+        <v>101238534.8</v>
       </c>
       <c r="H121">
-        <v>38948985.17461069</v>
+        <v>101238534.8</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>120810788.8982811</v>
+        <v>121980541.0002441</v>
       </c>
       <c r="K121">
-        <v>98037954.98348035</v>
+        <v>60990270.48512206</v>
       </c>
       <c r="L121">
-        <v>22772833.91480074</v>
+        <v>60990270.51512206</v>
       </c>
       <c r="M121">
-        <v>120810788.8982811</v>
+        <v>121980541.0002441</v>
       </c>
       <c r="N121">
-        <v>-6.378628407979705e-12</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>22772833.91480074</v>
+        <v>60990270.51512206</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -7331,46 +7331,46 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F122">
-        <v>159300000</v>
+        <v>159124338.4700013</v>
       </c>
       <c r="G122">
-        <v>131139742.5</v>
+        <v>135255687.6562761</v>
       </c>
       <c r="H122">
-        <v>28160257.5</v>
+        <v>23868650.8137252</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>91560448.93000001</v>
+        <v>114617055.1256717</v>
       </c>
       <c r="K122">
-        <v>75374850.44</v>
+        <v>97424496.15599594</v>
       </c>
       <c r="L122">
-        <v>16185598.49</v>
+        <v>17192558.96967575</v>
       </c>
       <c r="M122">
-        <v>91560448.93000001</v>
+        <v>114617055.1256717</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>4.027970135502189e-09</v>
       </c>
       <c r="O122">
-        <v>16185598.49</v>
+        <v>17192558.96967576</v>
       </c>
       <c r="P122">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
@@ -7389,57 +7389,57 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F123">
-        <v>25694229</v>
+        <v>215331487.4006038</v>
       </c>
       <c r="G123">
-        <v>21840094.65</v>
+        <v>174741502.0129705</v>
       </c>
       <c r="H123">
-        <v>3854134.35</v>
+        <v>40589985.38763332</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>9520879</v>
+        <v>125076667.7678016</v>
       </c>
       <c r="K123">
-        <v>8092747.15</v>
+        <v>101499715.6290777</v>
       </c>
       <c r="L123">
-        <v>1428131.85</v>
+        <v>23576952.13872395</v>
       </c>
       <c r="M123">
-        <v>9520879</v>
+        <v>125076667.7678016</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>-9.778887100461772e-11</v>
       </c>
       <c r="O123">
-        <v>1428131.85</v>
+        <v>23576952.13872395</v>
       </c>
       <c r="P123">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Information and communication</t>
+          <t>Evaluation and studies</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>IX.0.123</t>
+          <t>IX.0.122</t>
         </is>
       </c>
       <c r="C124">
@@ -7447,57 +7447,57 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F124">
-        <v>130722363.51</v>
+        <v>159300000</v>
       </c>
       <c r="G124">
-        <v>111114008.94</v>
+        <v>131139742.5</v>
       </c>
       <c r="H124">
-        <v>19608354.57</v>
+        <v>28160257.5</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>84894102.2</v>
+        <v>91560448.93000001</v>
       </c>
       <c r="K124">
-        <v>72159986.73999999</v>
+        <v>75374850.44</v>
       </c>
       <c r="L124">
-        <v>12734115.46</v>
+        <v>16185598.49</v>
       </c>
       <c r="M124">
-        <v>84894102.2</v>
+        <v>91560448.93000001</v>
       </c>
       <c r="N124">
-        <v>-1.688022166490555e-09</v>
+        <v>0</v>
       </c>
       <c r="O124">
-        <v>12734115.46</v>
+        <v>16185598.49</v>
       </c>
       <c r="P124">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Information and communication</t>
+          <t>Evaluation and studies</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>IX.0.123</t>
+          <t>IX.0.122</t>
         </is>
       </c>
       <c r="C125">
@@ -7505,46 +7505,46 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F125">
-        <v>9870673.542033385</v>
+        <v>25694229</v>
       </c>
       <c r="G125">
-        <v>8390072.510728274</v>
+        <v>21840094.65</v>
       </c>
       <c r="H125">
-        <v>1480601.031305112</v>
+        <v>3854134.35</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1919944.218409765</v>
+        <v>9520879</v>
       </c>
       <c r="K125">
-        <v>1631952.559691238</v>
+        <v>8092747.15</v>
       </c>
       <c r="L125">
-        <v>287991.6587185279</v>
+        <v>1428131.85</v>
       </c>
       <c r="M125">
-        <v>1919944.218409765</v>
+        <v>9520879</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
-        <v>287991.6587185278</v>
+        <v>1428131.85</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -7563,46 +7563,46 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F126">
-        <v>153452655</v>
+        <v>130722363.51</v>
       </c>
       <c r="G126">
-        <v>130434756.75</v>
+        <v>111114008.94</v>
       </c>
       <c r="H126">
-        <v>23017898.25</v>
+        <v>19608354.57</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>13865484.01</v>
+        <v>84894102.2</v>
       </c>
       <c r="K126">
-        <v>11785661.23</v>
+        <v>72159986.73999999</v>
       </c>
       <c r="L126">
-        <v>2079822.78</v>
+        <v>12734115.46</v>
       </c>
       <c r="M126">
-        <v>13865484.01</v>
+        <v>84894102.2</v>
       </c>
       <c r="N126">
-        <v>-4.656612873077393e-10</v>
+        <v>-1.688022166490555e-09</v>
       </c>
       <c r="O126">
-        <v>2079822.78</v>
+        <v>12734115.46</v>
       </c>
       <c r="P126">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
@@ -7621,46 +7621,46 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F127">
-        <v>63990000</v>
+        <v>49167389.97223071</v>
       </c>
       <c r="G127">
-        <v>31995000</v>
+        <v>41792281.47637571</v>
       </c>
       <c r="H127">
-        <v>31995000</v>
+        <v>7375108.495855007</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>22004553.98</v>
+        <v>10037880.72879545</v>
       </c>
       <c r="K127">
-        <v>11002276.98</v>
+        <v>8532198.497211084</v>
       </c>
       <c r="L127">
-        <v>11002277</v>
+        <v>1505682.231584368</v>
       </c>
       <c r="M127">
-        <v>22004553.98</v>
+        <v>10037880.72879545</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127">
-        <v>11002277</v>
+        <v>1505682.231584367</v>
       </c>
       <c r="P127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -7679,46 +7679,46 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F128">
-        <v>324923585.51</v>
+        <v>153452655</v>
       </c>
       <c r="G128">
-        <v>276185047.68</v>
+        <v>130434756.75</v>
       </c>
       <c r="H128">
-        <v>48738537.83</v>
+        <v>23017898.25</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>166302357.69</v>
+        <v>13865484.01</v>
       </c>
       <c r="K128">
-        <v>141357005.16</v>
+        <v>11785661.23</v>
       </c>
       <c r="L128">
-        <v>24945352.53</v>
+        <v>2079822.78</v>
       </c>
       <c r="M128">
-        <v>166302357.69</v>
+        <v>13865484.01</v>
       </c>
       <c r="N128">
-        <v>7.450580596923828e-09</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="O128">
-        <v>24945352.53</v>
+        <v>2079822.78</v>
       </c>
       <c r="P128">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -7737,46 +7737,46 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F129">
-        <v>75048473.01014222</v>
+        <v>63990000</v>
       </c>
       <c r="G129">
-        <v>60901835.81635918</v>
+        <v>31995000</v>
       </c>
       <c r="H129">
-        <v>14146637.19378304</v>
+        <v>31995000</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>56848104.69275411</v>
+        <v>22004553.98</v>
       </c>
       <c r="K129">
-        <v>46132236.79397041</v>
+        <v>11002276.98</v>
       </c>
       <c r="L129">
-        <v>10715867.8987837</v>
+        <v>11002277</v>
       </c>
       <c r="M129">
-        <v>56848104.69275411</v>
+        <v>22004553.98</v>
       </c>
       <c r="N129">
-        <v>-2.616230625334949e-10</v>
+        <v>0</v>
       </c>
       <c r="O129">
-        <v>10715867.8987837</v>
+        <v>11002277</v>
       </c>
       <c r="P129">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -7795,46 +7795,46 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F130">
-        <v>107631474.7995141</v>
+        <v>384039385.51</v>
       </c>
       <c r="G130">
-        <v>88604920.83679999</v>
+        <v>326433477.68</v>
       </c>
       <c r="H130">
-        <v>19026553.96271411</v>
+        <v>57605907.83</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>20598011.11555407</v>
+        <v>166302357.69</v>
       </c>
       <c r="K130">
-        <v>16956797.55706219</v>
+        <v>141357005.16</v>
       </c>
       <c r="L130">
-        <v>3641213.558491881</v>
+        <v>24945352.53</v>
       </c>
       <c r="M130">
-        <v>20598011.11555407</v>
+        <v>166302357.69</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>7.450580596923828e-09</v>
       </c>
       <c r="O130">
-        <v>3641213.558491881</v>
+        <v>24945352.53</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -7853,57 +7853,57 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F131">
-        <v>84552929</v>
+        <v>85195015.9823292</v>
       </c>
       <c r="G131">
-        <v>71869989.65000001</v>
+        <v>69135755.41927513</v>
       </c>
       <c r="H131">
-        <v>12682939.35</v>
+        <v>16059260.56305405</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>42497832.17</v>
+        <v>60118677.14339307</v>
       </c>
       <c r="K131">
-        <v>36123157.27</v>
+        <v>48786306.16522377</v>
       </c>
       <c r="L131">
-        <v>6374674.9</v>
+        <v>11332370.9781693</v>
       </c>
       <c r="M131">
-        <v>42497832.17</v>
+        <v>60118677.14339307</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>-6.097252470749983e-10</v>
       </c>
       <c r="O131">
-        <v>6374674.9</v>
+        <v>11332370.97816929</v>
       </c>
       <c r="P131">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
+          <t>Information and communication</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>V.0.102</t>
+          <t>IX.0.123</t>
         </is>
       </c>
       <c r="C132">
@@ -7920,48 +7920,48 @@
         </is>
       </c>
       <c r="F132">
-        <v>22099717337.89532</v>
+        <v>116905747.9975705</v>
       </c>
       <c r="G132">
-        <v>18396268713.16977</v>
+        <v>96239734.39</v>
       </c>
       <c r="H132">
-        <v>3663186899.53496</v>
+        <v>20666013.60757053</v>
       </c>
       <c r="I132">
-        <v>40261725.19058929</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>16585915853.61491</v>
+        <v>21474609.72577037</v>
       </c>
       <c r="K132">
-        <v>13801577950.35632</v>
+        <v>17678435.44081096</v>
       </c>
       <c r="L132">
-        <v>2752695874.309149</v>
+        <v>3796174.284959407</v>
       </c>
       <c r="M132">
-        <v>16554273824.66547</v>
+        <v>21474609.72577037</v>
       </c>
       <c r="N132">
-        <v>31642028.94943859</v>
+        <v>0</v>
       </c>
       <c r="O132">
-        <v>2784337903.258588</v>
+        <v>3796174.284959406</v>
       </c>
       <c r="P132">
-        <v>632</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
+          <t>Information and communication</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>V.0.103</t>
+          <t>IX.0.123</t>
         </is>
       </c>
       <c r="C133">
@@ -7969,57 +7969,57 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F133">
-        <v>872385691.8</v>
+        <v>84552929</v>
       </c>
       <c r="G133">
-        <v>801640767.72</v>
+        <v>71869989.65000001</v>
       </c>
       <c r="H133">
-        <v>70744924.08</v>
+        <v>12682939.35</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>743602746.49</v>
+        <v>42497832.17000001</v>
       </c>
       <c r="K133">
-        <v>683300846.3199999</v>
+        <v>36123157.27</v>
       </c>
       <c r="L133">
-        <v>60301900.17</v>
+        <v>6374674.899999999</v>
       </c>
       <c r="M133">
-        <v>743602746.49</v>
+        <v>42497832.17000001</v>
       </c>
       <c r="N133">
-        <v>-9.313225746154785e-10</v>
+        <v>0</v>
       </c>
       <c r="O133">
-        <v>60301900.17000002</v>
+        <v>6374674.9</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.102</t>
         </is>
       </c>
       <c r="C134">
@@ -8027,57 +8027,57 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F134">
-        <v>221087092.5</v>
+        <v>22477571272.52306</v>
       </c>
       <c r="G134">
-        <v>110543546.25</v>
+        <v>18739119837.96369</v>
       </c>
       <c r="H134">
-        <v>96841132.64</v>
+        <v>3694314304.545007</v>
       </c>
       <c r="I134">
-        <v>13702413.61</v>
+        <v>44137130.01436427</v>
       </c>
       <c r="J134">
-        <v>133283853.82</v>
+        <v>16833808272.94842</v>
       </c>
       <c r="K134">
-        <v>66641926.82</v>
+        <v>14026376534.9596</v>
       </c>
       <c r="L134">
-        <v>58950270.41</v>
+        <v>2772510828.137122</v>
       </c>
       <c r="M134">
-        <v>125592197.23</v>
+        <v>16798887363.09672</v>
       </c>
       <c r="N134">
-        <v>7691656.59</v>
+        <v>34920909.85169758</v>
       </c>
       <c r="O134">
-        <v>66641927</v>
+        <v>2807431737.988822</v>
       </c>
       <c r="P134">
-        <v>54</v>
+        <v>632</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.103</t>
         </is>
       </c>
       <c r="C135">
@@ -8094,48 +8094,48 @@
         </is>
       </c>
       <c r="F135">
-        <v>8721546489.58</v>
+        <v>872385691.8</v>
       </c>
       <c r="G135">
-        <v>7036685505.66</v>
+        <v>801640767.7200001</v>
       </c>
       <c r="H135">
-        <v>1525697571.93</v>
+        <v>70744924.08</v>
       </c>
       <c r="I135">
-        <v>159163411.99</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>6481491235.44</v>
+        <v>743602746.4900001</v>
       </c>
       <c r="K135">
-        <v>5238806555.4</v>
+        <v>683300846.3200001</v>
       </c>
       <c r="L135">
-        <v>1120660681.92</v>
+        <v>60301900.17</v>
       </c>
       <c r="M135">
-        <v>6359467237.32</v>
+        <v>743602746.4900001</v>
       </c>
       <c r="N135">
-        <v>122023998.12</v>
+        <v>3.073364496231079e-08</v>
       </c>
       <c r="O135">
-        <v>1242684680.04</v>
+        <v>60301900.17000005</v>
       </c>
       <c r="P135">
-        <v>2953</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>V.0.106</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C136">
@@ -8143,57 +8143,57 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F136">
-        <v>12123125596.0798</v>
+        <v>221087092.5</v>
       </c>
       <c r="G136">
-        <v>9995679372.829149</v>
+        <v>110543546.25</v>
       </c>
       <c r="H136">
-        <v>1588349261.6875</v>
+        <v>96841132.64</v>
       </c>
       <c r="I136">
-        <v>539096961.5631499</v>
+        <v>13702413.61</v>
       </c>
       <c r="J136">
-        <v>7783385394.431849</v>
+        <v>133283853.82</v>
       </c>
       <c r="K136">
-        <v>6412525760.26545</v>
+        <v>66641926.82</v>
       </c>
       <c r="L136">
-        <v>1064575582.536</v>
+        <v>58950270.41000001</v>
       </c>
       <c r="M136">
-        <v>7477101342.80145</v>
+        <v>125592197.23</v>
       </c>
       <c r="N136">
-        <v>306284051.6304</v>
+        <v>7691656.589999999</v>
       </c>
       <c r="O136">
-        <v>1370859634.1664</v>
+        <v>66641927</v>
       </c>
       <c r="P136">
-        <v>2886</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>V.0.108</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C137">
@@ -8210,48 +8210,48 @@
         </is>
       </c>
       <c r="F137">
-        <v>2805288533.54</v>
+        <v>8721546489.579994</v>
       </c>
       <c r="G137">
-        <v>2311249169.78</v>
+        <v>7036685505.660007</v>
       </c>
       <c r="H137">
-        <v>494039363.76</v>
+        <v>1525697571.930004</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>159163411.9899999</v>
       </c>
       <c r="J137">
-        <v>1776560093.2</v>
+        <v>6481491235.439994</v>
       </c>
       <c r="K137">
-        <v>1463690094.36</v>
+        <v>5238806555.400002</v>
       </c>
       <c r="L137">
-        <v>312869998.84</v>
+        <v>1120660681.920002</v>
       </c>
       <c r="M137">
-        <v>1776560093.2</v>
+        <v>6359467237.319998</v>
       </c>
       <c r="N137">
-        <v>-1.117587089538574e-08</v>
+        <v>122023998.1200001</v>
       </c>
       <c r="O137">
-        <v>312869998.84</v>
+        <v>1242684680.040004</v>
       </c>
       <c r="P137">
-        <v>14</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
+          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>VI.0.109</t>
+          <t>V.0.106</t>
         </is>
       </c>
       <c r="C138">
@@ -8268,48 +8268,48 @@
         </is>
       </c>
       <c r="F138">
-        <v>12849833972.96255</v>
+        <v>17003300281.43</v>
       </c>
       <c r="G138">
-        <v>10602088642.86489</v>
+        <v>14022271963.98499</v>
       </c>
       <c r="H138">
-        <v>2180233606.236572</v>
+        <v>2254579906.545001</v>
       </c>
       <c r="I138">
-        <v>67511723.86108568</v>
+        <v>726448410.8999983</v>
       </c>
       <c r="J138">
-        <v>9749530872.263128</v>
+        <v>10132600998.14999</v>
       </c>
       <c r="K138">
-        <v>8080598515.168733</v>
+        <v>8363360051.120006</v>
       </c>
       <c r="L138">
-        <v>1613412723.210778</v>
+        <v>1356143307.540001</v>
       </c>
       <c r="M138">
-        <v>9694011238.379511</v>
+        <v>9719503358.65999</v>
       </c>
       <c r="N138">
-        <v>55519633.88361719</v>
+        <v>413097639.4899995</v>
       </c>
       <c r="O138">
-        <v>1668932357.094395</v>
+        <v>1769240947.03</v>
       </c>
       <c r="P138">
-        <v>1012</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Socio-economic integration of marginalised communities such as the Roma</t>
+          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>VI.0.110</t>
+          <t>V.0.108</t>
         </is>
       </c>
       <c r="C139">
@@ -8317,57 +8317,57 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F139">
-        <v>4707084158.517385</v>
+        <v>2805288533.54</v>
       </c>
       <c r="G139">
-        <v>3915087278.748426</v>
+        <v>2311249169.78</v>
       </c>
       <c r="H139">
-        <v>746623135.9989583</v>
+        <v>494039363.76</v>
       </c>
       <c r="I139">
-        <v>45373743.77</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>2699349027.157565</v>
+        <v>1776560093.2</v>
       </c>
       <c r="K139">
-        <v>2254951023.017003</v>
+        <v>1463690094.36</v>
       </c>
       <c r="L139">
-        <v>401975053.7105613</v>
+        <v>312869998.84</v>
       </c>
       <c r="M139">
-        <v>2656926076.727564</v>
+        <v>1776560093.2</v>
       </c>
       <c r="N139">
-        <v>42422950.43</v>
+        <v>-1.117587089538574e-08</v>
       </c>
       <c r="O139">
-        <v>444398004.1405613</v>
+        <v>312869998.84</v>
       </c>
       <c r="P139">
-        <v>7991</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Combating all forms of discrimination and promoting equal opportunities</t>
+          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>VI.0.111</t>
+          <t>VI.0.109</t>
         </is>
       </c>
       <c r="C140">
@@ -8375,57 +8375,57 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F140">
-        <v>637185805.3251368</v>
+        <v>13538889628.79733</v>
       </c>
       <c r="G140">
-        <v>523989412.4110745</v>
+        <v>11157918473.07183</v>
       </c>
       <c r="H140">
-        <v>113196392.9140622</v>
+        <v>2310746690.143994</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>70224465.58152623</v>
       </c>
       <c r="J140">
-        <v>491334711.9533302</v>
+        <v>10152569909.68719</v>
       </c>
       <c r="K140">
-        <v>403563989.4057163</v>
+        <v>8416352740.745252</v>
       </c>
       <c r="L140">
-        <v>87770722.5476139</v>
+        <v>1678611729.361475</v>
       </c>
       <c r="M140">
-        <v>491334711.9533302</v>
+        <v>10094964470.10674</v>
       </c>
       <c r="N140">
-        <v>9.313225746154785e-10</v>
+        <v>57605439.58045465</v>
       </c>
       <c r="O140">
-        <v>87770722.5476139</v>
+        <v>1736217168.941931</v>
       </c>
       <c r="P140">
-        <v>2335</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Socio-economic integration of marginalised communities such as the Roma</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VI.0.110</t>
         </is>
       </c>
       <c r="C141">
@@ -8433,57 +8433,57 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F141">
-        <v>776961377.01</v>
+        <v>5186739611.913966</v>
       </c>
       <c r="G141">
-        <v>388480688.26</v>
+        <v>4312232676.28957</v>
       </c>
       <c r="H141">
-        <v>385577617.25</v>
+        <v>829133191.8544273</v>
       </c>
       <c r="I141">
-        <v>2903071.5</v>
+        <v>45373743.77</v>
       </c>
       <c r="J141">
-        <v>615636094.58</v>
+        <v>2819576600.37217</v>
       </c>
       <c r="K141">
-        <v>307818045.82</v>
+        <v>2354137447.085599</v>
       </c>
       <c r="L141">
-        <v>305803900.45</v>
+        <v>423016202.8565878</v>
       </c>
       <c r="M141">
-        <v>613621946.27</v>
+        <v>2777153649.942166</v>
       </c>
       <c r="N141">
-        <v>2014148.30999999</v>
+        <v>42422950.43000001</v>
       </c>
       <c r="O141">
-        <v>307818048.76</v>
+        <v>465439153.2865879</v>
       </c>
       <c r="P141">
-        <v>177</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Combating all forms of discrimination and promoting equal opportunities</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VI.0.111</t>
         </is>
       </c>
       <c r="C142">
@@ -8491,57 +8491,57 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F142">
-        <v>6473667752.614453</v>
+        <v>739297076.5448161</v>
       </c>
       <c r="G142">
-        <v>5063503517.300186</v>
+        <v>608897779.0369576</v>
       </c>
       <c r="H142">
-        <v>1406900769.144268</v>
+        <v>130399297.5078579</v>
       </c>
       <c r="I142">
-        <v>3263466.17</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>3940664323.656659</v>
+        <v>501217846.3246758</v>
       </c>
       <c r="K142">
-        <v>3142193965.792468</v>
+        <v>411726170.5197417</v>
       </c>
       <c r="L142">
-        <v>796363790.2041913</v>
+        <v>89491675.8049345</v>
       </c>
       <c r="M142">
-        <v>3938557755.996659</v>
+        <v>501217846.3246758</v>
       </c>
       <c r="N142">
-        <v>2106567.660000065</v>
+        <v>2.818493521985649e-09</v>
       </c>
       <c r="O142">
-        <v>798470357.8641914</v>
+        <v>89491675.8049345</v>
       </c>
       <c r="P142">
-        <v>749</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Community-led local development strategies</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>VI.0.114</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C143">
@@ -8549,57 +8549,57 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F143">
-        <v>1991915741.78</v>
+        <v>776961377.01</v>
       </c>
       <c r="G143">
-        <v>1693089963.46</v>
+        <v>388480688.2600002</v>
       </c>
       <c r="H143">
-        <v>262256616.26</v>
+        <v>385577617.2499999</v>
       </c>
       <c r="I143">
-        <v>36569162.06</v>
+        <v>2903071.5</v>
       </c>
       <c r="J143">
-        <v>1185066337.37</v>
+        <v>615636094.5800004</v>
       </c>
       <c r="K143">
-        <v>1007306372.3</v>
+        <v>307818045.8200002</v>
       </c>
       <c r="L143">
-        <v>155370143.45</v>
+        <v>305803900.4500001</v>
       </c>
       <c r="M143">
-        <v>1162676515.75</v>
+        <v>613621946.2700005</v>
       </c>
       <c r="N143">
-        <v>22389821.62</v>
+        <v>2014148.309999988</v>
       </c>
       <c r="O143">
-        <v>177759965.07</v>
+        <v>307818048.76</v>
       </c>
       <c r="P143">
-        <v>1293</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C144">
@@ -8607,57 +8607,57 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F144">
-        <v>1306387489.02</v>
+        <v>6683980149.771646</v>
       </c>
       <c r="G144">
-        <v>653193744.25</v>
+        <v>5206582511.160997</v>
       </c>
       <c r="H144">
-        <v>647724407.24</v>
+        <v>1474134172.440651</v>
       </c>
       <c r="I144">
-        <v>5469337.53</v>
+        <v>3263466.169999999</v>
       </c>
       <c r="J144">
-        <v>609563874.75</v>
+        <v>4037300820.573566</v>
       </c>
       <c r="K144">
-        <v>304781936.39</v>
+        <v>3212579684.209291</v>
       </c>
       <c r="L144">
-        <v>301929974.23</v>
+        <v>822614568.7042749</v>
       </c>
       <c r="M144">
-        <v>606711910.62</v>
+        <v>4035194252.913564</v>
       </c>
       <c r="N144">
-        <v>2851964.129999999</v>
+        <v>2106567.660000066</v>
       </c>
       <c r="O144">
-        <v>304781938.36</v>
+        <v>824721136.3642751</v>
       </c>
       <c r="P144">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Community-led local development strategies</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VI.0.114</t>
         </is>
       </c>
       <c r="C145">
@@ -8665,57 +8665,57 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F145">
-        <v>19193745561.24998</v>
+        <v>1991915741.780001</v>
       </c>
       <c r="G145">
-        <v>15633873951.35065</v>
+        <v>1693089963.45999</v>
       </c>
       <c r="H145">
-        <v>3477323188.729506</v>
+        <v>262256616.259999</v>
       </c>
       <c r="I145">
-        <v>82548421.169828</v>
+        <v>36569162.05999999</v>
       </c>
       <c r="J145">
-        <v>13394496584.7022</v>
+        <v>1185066337.369999</v>
       </c>
       <c r="K145">
-        <v>10960277417.48509</v>
+        <v>1007306372.299999</v>
       </c>
       <c r="L145">
-        <v>2358311871.161198</v>
+        <v>155370143.4499999</v>
       </c>
       <c r="M145">
-        <v>13318589288.64629</v>
+        <v>1162676515.749998</v>
       </c>
       <c r="N145">
-        <v>75907296.05590594</v>
+        <v>22389821.62000001</v>
       </c>
       <c r="O145">
-        <v>2434219167.217104</v>
+        <v>177759965.0699996</v>
       </c>
       <c r="P145">
-        <v>18359</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VII.0.116</t>
+          <t>VII.0.115</t>
         </is>
       </c>
       <c r="C146">
@@ -8723,187 +8723,225 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F146">
-        <v>9001717784.62738</v>
+        <v>1306387489.02</v>
       </c>
       <c r="G146">
-        <v>7326670088.117594</v>
+        <v>653193744.2500002</v>
       </c>
       <c r="H146">
-        <v>1458864118.364807</v>
+        <v>647724407.2399999</v>
       </c>
       <c r="I146">
-        <v>216183578.1449798</v>
+        <v>5469337.53</v>
       </c>
       <c r="J146">
-        <v>5519892891.752238</v>
+        <v>609563874.7500002</v>
       </c>
       <c r="K146">
-        <v>4507277632.275552</v>
+        <v>304781936.39</v>
       </c>
       <c r="L146">
-        <v>833936230.1679794</v>
+        <v>301929974.23</v>
       </c>
       <c r="M146">
-        <v>5341213862.443531</v>
+        <v>606711910.6200002</v>
       </c>
       <c r="N146">
-        <v>178679029.3087069</v>
+        <v>2851964.129999999</v>
       </c>
       <c r="O146">
-        <v>1012615259.476686</v>
+        <v>304781938.3599999</v>
       </c>
       <c r="P146">
-        <v>420</v>
+        <v>801</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>VII.0.115</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>OP VVV</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>25151597515.01461</v>
+      </c>
+      <c r="G147">
+        <v>20569396314.84184</v>
+      </c>
+      <c r="H147">
+        <v>4481972115.632733</v>
+      </c>
+      <c r="I147">
+        <v>100229084.5399999</v>
+      </c>
+      <c r="J147">
+        <v>17107147871.31969</v>
+      </c>
+      <c r="K147">
+        <v>14042436329.773</v>
+      </c>
+      <c r="L147">
+        <v>2973461216.326825</v>
+      </c>
+      <c r="M147">
+        <v>17015897546.09971</v>
+      </c>
+      <c r="N147">
+        <v>91250325.21999995</v>
+      </c>
+      <c r="O147">
+        <v>3064711541.546818</v>
+      </c>
+      <c r="P147">
+        <v>18359</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>VII.0.116</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>OP VVV</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>10660018280.06001</v>
+      </c>
+      <c r="G148">
+        <v>8682357765.749996</v>
+      </c>
+      <c r="H148">
+        <v>1690419719.250003</v>
+      </c>
+      <c r="I148">
+        <v>287240795.0599999</v>
+      </c>
+      <c r="J148">
+        <v>6831245610.260001</v>
+      </c>
+      <c r="K148">
+        <v>5579567257.439996</v>
+      </c>
+      <c r="L148">
+        <v>1013946703.56</v>
+      </c>
+      <c r="M148">
+        <v>6593513960.999995</v>
+      </c>
+      <c r="N148">
+        <v>237731649.26</v>
+      </c>
+      <c r="O148">
+        <v>1251678352.820002</v>
+      </c>
+      <c r="P148">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>VIII.0.119</t>
         </is>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147" t="inlineStr">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>OP Z</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="F147">
-        <v>2750871595.828052</v>
-      </c>
-      <c r="G147">
-        <v>2250966559.667801</v>
-      </c>
-      <c r="H147">
-        <v>485572951.8010781</v>
-      </c>
-      <c r="I147">
-        <v>14332084.3591723</v>
-      </c>
-      <c r="J147">
-        <v>1624988638.532786</v>
-      </c>
-      <c r="K147">
-        <v>1328978964.483634</v>
-      </c>
-      <c r="L147">
-        <v>283988565.4413081</v>
-      </c>
-      <c r="M147">
-        <v>1612967529.924943</v>
-      </c>
-      <c r="N147">
-        <v>12021108.60784308</v>
-      </c>
-      <c r="O147">
-        <v>296009674.0491512</v>
-      </c>
-      <c r="P147">
+      <c r="F149">
+        <v>5167622425.977981</v>
+      </c>
+      <c r="G149">
+        <v>4246166080.883501</v>
+      </c>
+      <c r="H149">
+        <v>891356306.150373</v>
+      </c>
+      <c r="I149">
+        <v>30100038.94410949</v>
+      </c>
+      <c r="J149">
+        <v>3011244768.920824</v>
+      </c>
+      <c r="K149">
+        <v>2472626822.00584</v>
+      </c>
+      <c r="L149">
+        <v>513524168.5171339</v>
+      </c>
+      <c r="M149">
+        <v>2986150990.522976</v>
+      </c>
+      <c r="N149">
+        <v>25093778.39784793</v>
+      </c>
+      <c r="O149">
+        <v>538617946.914982</v>
+      </c>
+      <c r="P149">
         <v>621</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>PRV</t>
-        </is>
-      </c>
-      <c r="J148">
-        <v>10552666</v>
-      </c>
-      <c r="K148">
-        <v>5223552</v>
-      </c>
-      <c r="O148">
-        <v>5329114</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>1.1.1-Vzdělávací akce</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>PRV</t>
-        </is>
-      </c>
-      <c r="J149">
-        <v>17736550</v>
-      </c>
-      <c r="K149">
-        <v>8779573</v>
-      </c>
-      <c r="O149">
-        <v>8956977</v>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>1.2.1-Informační akce</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
       </c>
     </row>
     <row r="150">
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -8911,28 +8949,38 @@
         </is>
       </c>
       <c r="J150">
-        <v>5064036</v>
+        <v>10552666</v>
       </c>
       <c r="K150">
-        <v>2506691</v>
+        <v>5223552</v>
       </c>
       <c r="O150">
-        <v>2557345</v>
+        <v>5329114</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>16.1.1-PE 16.1.1</t>
+          <t>1.1.1-Vzdělávací akce</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -8940,22 +8988,32 @@
         </is>
       </c>
       <c r="J151">
-        <v>119800433</v>
+        <v>17736550</v>
       </c>
       <c r="K151">
-        <v>59301207</v>
+        <v>8779573</v>
       </c>
       <c r="O151">
-        <v>60499226</v>
+        <v>8956977</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
+          <t>1.2.1-Informační akce</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8969,17 +9027,17 @@
         </is>
       </c>
       <c r="J152">
-        <v>1425520552</v>
+        <v>5064036</v>
       </c>
       <c r="K152">
-        <v>705632661</v>
+        <v>2506691</v>
       </c>
       <c r="O152">
-        <v>719887891</v>
+        <v>2557345</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
+          <t>16.1.1-PE 16.1.1</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -8998,17 +9056,17 @@
         </is>
       </c>
       <c r="J153">
-        <v>23444689</v>
+        <v>119800433</v>
       </c>
       <c r="K153">
-        <v>11605116</v>
+        <v>59301207</v>
       </c>
       <c r="O153">
-        <v>11839573</v>
+        <v>60499226</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>16.3.1-PE 16.3.1</t>
+          <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -9027,17 +9085,17 @@
         </is>
       </c>
       <c r="J154">
-        <v>1560265225</v>
+        <v>1425520552</v>
       </c>
       <c r="K154">
-        <v>998606513.6</v>
+        <v>705632661</v>
       </c>
       <c r="O154">
-        <v>561658711.4</v>
+        <v>719887891</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
+          <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9056,17 +9114,17 @@
         </is>
       </c>
       <c r="J155">
-        <v>3417031</v>
+        <v>23444689</v>
       </c>
       <c r="K155">
-        <v>2186896</v>
+        <v>11605116</v>
       </c>
       <c r="O155">
-        <v>1230135</v>
+        <v>11839573</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>19.3.1-PE 19.3.1</t>
+          <t>16.3.1-PE 16.3.1</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -9085,17 +9143,17 @@
         </is>
       </c>
       <c r="J156">
-        <v>207511920</v>
+        <v>1560265225</v>
       </c>
       <c r="K156">
-        <v>102718316</v>
+        <v>998606513.6</v>
       </c>
       <c r="O156">
-        <v>104793604</v>
+        <v>561658711.4</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>20.1-Podpora technické pomoci (mimo CSV)</t>
+          <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -9114,17 +9172,17 @@
         </is>
       </c>
       <c r="J157">
-        <v>33083552</v>
+        <v>3417031</v>
       </c>
       <c r="K157">
-        <v>16376326</v>
+        <v>2186896</v>
       </c>
       <c r="O157">
-        <v>16707226</v>
+        <v>1230135</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>20.2-Podpora pro zřízení a činnost CSV</t>
+          <t>19.3.1-PE 19.3.1</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -9143,17 +9201,17 @@
         </is>
       </c>
       <c r="J158">
-        <v>8151341343</v>
+        <v>207511920</v>
       </c>
       <c r="K158">
-        <v>4034912512.72</v>
+        <v>102718316</v>
       </c>
       <c r="O158">
-        <v>4116428830.28</v>
+        <v>104793604</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>4.1.1-Investice do zemědělských podniků</t>
+          <t>20.1-Podpora technické pomoci (mimo CSV)</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -9172,17 +9230,17 @@
         </is>
       </c>
       <c r="J159">
-        <v>1870907660</v>
+        <v>33083552</v>
       </c>
       <c r="K159">
-        <v>926098960</v>
+        <v>16376326</v>
       </c>
       <c r="O159">
-        <v>944808700</v>
+        <v>16707226</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
+          <t>20.2-Podpora pro zřízení a činnost CSV</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -9201,17 +9259,17 @@
         </is>
       </c>
       <c r="J160">
-        <v>2756088829</v>
+        <v>8151341343</v>
       </c>
       <c r="K160">
-        <v>1364263827</v>
+        <v>4034912512.72</v>
       </c>
       <c r="O160">
-        <v>1391825002</v>
+        <v>4116428830.28</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>4.3.1-Pozemkové úpravy</t>
+          <t>4.1.1-Investice do zemědělských podniků</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -9230,17 +9288,17 @@
         </is>
       </c>
       <c r="J161">
-        <v>671466497</v>
+        <v>1870907660</v>
       </c>
       <c r="K161">
-        <v>332375802</v>
+        <v>926098960</v>
       </c>
       <c r="O161">
-        <v>339090695</v>
+        <v>944808700</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>4.3.2-Lesnická infrastruktura</t>
+          <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -9251,7 +9309,7 @@
     </row>
     <row r="162">
       <c r="C162">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9259,38 +9317,28 @@
         </is>
       </c>
       <c r="J162">
-        <v>925694805.03</v>
+        <v>2756088829</v>
       </c>
       <c r="K162">
-        <v>458218221.52</v>
+        <v>1364263827</v>
       </c>
       <c r="O162">
-        <v>467476583.51</v>
+        <v>1391825002</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>4.3.1-Pozemkové úpravy</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="C163">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9298,32 +9346,22 @@
         </is>
       </c>
       <c r="J163">
-        <v>471381398</v>
+        <v>671466497</v>
       </c>
       <c r="K163">
-        <v>233333660</v>
+        <v>332375802</v>
       </c>
       <c r="O163">
-        <v>238047738</v>
+        <v>339090695</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>6.4.1-Investice do nezemědělských činností</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>4.3.2-Lesnická infrastruktura</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -9337,17 +9375,17 @@
         </is>
       </c>
       <c r="J164">
-        <v>185921951</v>
+        <v>925694805.03</v>
       </c>
       <c r="K164">
-        <v>92031330</v>
+        <v>458218221.52</v>
       </c>
       <c r="O164">
-        <v>93890621</v>
+        <v>467476583.51</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>6.4.2-Podpora agroturistiky</t>
+          <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -9376,17 +9414,17 @@
         </is>
       </c>
       <c r="J165">
-        <v>21946709</v>
+        <v>471381398</v>
       </c>
       <c r="K165">
-        <v>10863614</v>
+        <v>233333660</v>
       </c>
       <c r="O165">
-        <v>11083095</v>
+        <v>238047738</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
+          <t>6.4.1-Investice do nezemědělských činností</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -9415,22 +9453,22 @@
         </is>
       </c>
       <c r="J166">
-        <v>52156617</v>
+        <v>185921951</v>
       </c>
       <c r="K166">
-        <v>25817516</v>
+        <v>92031330</v>
       </c>
       <c r="O166">
-        <v>26339101</v>
+        <v>93890621</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>8.3.1-Zavádění preventivních opatření v lesích</t>
+          <t>6.4.2-Podpora agroturistiky</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -9440,7 +9478,7 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9454,22 +9492,22 @@
         </is>
       </c>
       <c r="J167">
-        <v>128356732</v>
+        <v>21946709</v>
       </c>
       <c r="K167">
-        <v>63536537</v>
+        <v>10863614</v>
       </c>
       <c r="O167">
-        <v>64820195</v>
+        <v>11083095</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>8.4.1-Obnova lesních porostů po kalamitách</t>
+          <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -9479,7 +9517,7 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9493,17 +9531,17 @@
         </is>
       </c>
       <c r="J168">
-        <v>28497569</v>
+        <v>52156617</v>
       </c>
       <c r="K168">
-        <v>14106292</v>
+        <v>25817516</v>
       </c>
       <c r="O168">
-        <v>14391277</v>
+        <v>26339101</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
+          <t>8.3.1-Zavádění preventivních opatření v lesích</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -9532,17 +9570,17 @@
         </is>
       </c>
       <c r="J169">
-        <v>32007332</v>
+        <v>128356732</v>
       </c>
       <c r="K169">
-        <v>15843561</v>
+        <v>63536537</v>
       </c>
       <c r="O169">
-        <v>16163771</v>
+        <v>64820195</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
+          <t>8.4.1-Obnova lesních porostů po kalamitách</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -9571,17 +9609,17 @@
         </is>
       </c>
       <c r="J170">
-        <v>116673057</v>
+        <v>28497569</v>
       </c>
       <c r="K170">
-        <v>57753103</v>
+        <v>14106292</v>
       </c>
       <c r="O170">
-        <v>58919954</v>
+        <v>14391277</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>8.5.2-Neproduktivní investice v lesích</t>
+          <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -9610,17 +9648,17 @@
         </is>
       </c>
       <c r="J171">
-        <v>109453796</v>
+        <v>32007332</v>
       </c>
       <c r="K171">
-        <v>54179621</v>
+        <v>15843561</v>
       </c>
       <c r="O171">
-        <v>55274175</v>
+        <v>16163771</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>8.5.3-Přeměna porostů náhradních dřevin</t>
+          <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -9649,17 +9687,17 @@
         </is>
       </c>
       <c r="J172">
-        <v>477232720</v>
+        <v>116673057</v>
       </c>
       <c r="K172">
-        <v>236229945</v>
+        <v>57753103</v>
       </c>
       <c r="O172">
-        <v>241002775</v>
+        <v>58919954</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
+          <t>8.5.2-Neproduktivní investice v lesích</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -9688,17 +9726,17 @@
         </is>
       </c>
       <c r="J173">
-        <v>111471771</v>
+        <v>109453796</v>
       </c>
       <c r="K173">
-        <v>55178496</v>
+        <v>54179621</v>
       </c>
       <c r="O173">
-        <v>56293275</v>
+        <v>55274175</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
+          <t>8.5.3-Přeměna porostů náhradních dřevin</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -9719,7 +9757,7 @@
     </row>
     <row r="174">
       <c r="C174">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -9727,38 +9765,38 @@
         </is>
       </c>
       <c r="J174">
-        <v>12896222457.44</v>
+        <v>477232720</v>
       </c>
       <c r="K174">
-        <v>9672808263.870001</v>
+        <v>236229945</v>
       </c>
       <c r="O174">
-        <v>3223414193.57</v>
+        <v>241002775</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
+          <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>AEKO</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>Plošná opatření</t>
+          <t>Projektová opatření</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -9766,28 +9804,38 @@
         </is>
       </c>
       <c r="J175">
-        <v>143396206.46</v>
+        <v>111471771</v>
       </c>
       <c r="K175">
-        <v>107555281.89</v>
+        <v>55178496</v>
       </c>
       <c r="O175">
-        <v>35840924.57</v>
+        <v>56293275</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
+          <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>Plošná opatření</t>
+          <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -9795,28 +9843,38 @@
         </is>
       </c>
       <c r="J176">
-        <v>8680053794.65</v>
+        <v>12896222457.44</v>
       </c>
       <c r="K176">
-        <v>6510540691.67</v>
+        <v>9672808263.870001</v>
       </c>
       <c r="O176">
-        <v>2169513102.98</v>
+        <v>3223414193.57</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>ANC-ANC</t>
+          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>AEKO</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -9824,38 +9882,28 @@
         </is>
       </c>
       <c r="J177">
-        <v>5466893578.45</v>
+        <v>143396206.46</v>
       </c>
       <c r="K177">
-        <v>4100404216.54</v>
+        <v>107555281.89</v>
       </c>
       <c r="O177">
-        <v>1366489361.91</v>
+        <v>35840924.57</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>EKOZ-Ekologické zemědělství (EZ)</t>
-        </is>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>EKOZ</t>
+          <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="C178">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -9863,38 +9911,28 @@
         </is>
       </c>
       <c r="J178">
-        <v>107650775.54</v>
+        <v>8680053794.65</v>
       </c>
       <c r="K178">
-        <v>80738535.95999999</v>
+        <v>6510540691.67</v>
       </c>
       <c r="O178">
-        <v>26912239.58</v>
+        <v>2169513102.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>ELESP-Péče a náhrada</t>
-        </is>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>ELESP</t>
+          <t>ANC-ANC</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -9902,28 +9940,38 @@
         </is>
       </c>
       <c r="J179">
-        <v>13561320.19</v>
+        <v>5466893578.45</v>
       </c>
       <c r="K179">
-        <v>10170985.28</v>
+        <v>4100404216.54</v>
       </c>
       <c r="O179">
-        <v>3390334.91</v>
+        <v>1366489361.91</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>GEN-GEN</t>
+          <t>EKOZ-Ekologické zemědělství (EZ)</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>EKOZ</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -9931,22 +9979,32 @@
         </is>
       </c>
       <c r="J180">
-        <v>-34875</v>
+        <v>107650775.54</v>
       </c>
       <c r="K180">
-        <v>-26156.25</v>
+        <v>80738535.95999999</v>
       </c>
       <c r="O180">
-        <v>-8718.75</v>
+        <v>26912239.58</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>I.1.1.1-Modernizace zemědělských podniků</t>
+          <t>ELESP-Péče a náhrada</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>ELESP</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
     </row>
@@ -9960,17 +10018,17 @@
         </is>
       </c>
       <c r="J181">
-        <v>-175944.13</v>
+        <v>13561320.19</v>
       </c>
       <c r="K181">
-        <v>-131958.1</v>
+        <v>10170985.28</v>
       </c>
       <c r="O181">
-        <v>-43986.03</v>
+        <v>3390334.91</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
+          <t>GEN-GEN</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -9989,17 +10047,17 @@
         </is>
       </c>
       <c r="J182">
-        <v>130502</v>
+        <v>-34875</v>
       </c>
       <c r="K182">
-        <v>64598</v>
+        <v>-26156.25</v>
       </c>
       <c r="O182">
-        <v>65904</v>
+        <v>-8718.75</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
+          <t>I.1.1.1-Modernizace zemědělských podniků</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -10018,17 +10076,17 @@
         </is>
       </c>
       <c r="J183">
-        <v>6364572</v>
+        <v>-175944.13</v>
       </c>
       <c r="K183">
-        <v>3150463</v>
+        <v>-131958.1</v>
       </c>
       <c r="O183">
-        <v>3214109</v>
+        <v>-43986.03</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>III.1.3.b-Ubytování, sport</t>
+          <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -10039,7 +10097,7 @@
     </row>
     <row r="184">
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -10047,38 +10105,28 @@
         </is>
       </c>
       <c r="J184">
-        <v>33974260.9</v>
+        <v>130502</v>
       </c>
       <c r="K184">
-        <v>25480620.42</v>
+        <v>64598</v>
       </c>
       <c r="O184">
-        <v>8493640.48</v>
+        <v>65904</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
-        </is>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>LEOD</t>
+          <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>LEOD</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -10086,32 +10134,22 @@
         </is>
       </c>
       <c r="J185">
-        <v>18111505.42</v>
+        <v>6364572</v>
       </c>
       <c r="K185">
-        <v>13583613.92</v>
+        <v>3150463</v>
       </c>
       <c r="O185">
-        <v>4527891.5</v>
+        <v>3214109</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>LESND-Natura 2000 v lesích</t>
-        </is>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>Natura</t>
+          <t>III.1.3.b-Ubytování, sport</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>Natura</t>
         </is>
       </c>
     </row>
@@ -10125,22 +10163,22 @@
         </is>
       </c>
       <c r="J186">
-        <v>4751134404.82</v>
+        <v>33974260.9</v>
       </c>
       <c r="K186">
-        <v>3563563261.26</v>
+        <v>25480620.42</v>
       </c>
       <c r="O186">
-        <v>1187571143.56</v>
+        <v>8493640.48</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>LFA-Méně příznivé oblasti (LFA)</t>
+          <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>LFA</t>
+          <t>LEOD</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
@@ -10150,7 +10188,7 @@
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>LFA-Méně příznivé oblasti (LFA)</t>
+          <t>LEOD</t>
         </is>
       </c>
     </row>
@@ -10164,17 +10202,17 @@
         </is>
       </c>
       <c r="J187">
-        <v>50316366.39</v>
+        <v>18111505.42</v>
       </c>
       <c r="K187">
-        <v>37738356.82</v>
+        <v>13583613.92</v>
       </c>
       <c r="O187">
-        <v>12578009.57</v>
+        <v>4527891.5</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>NAT-Natura 2000 na zemědělské půdě</t>
+          <t>LESND-Natura 2000 v lesích</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -10195,7 +10233,7 @@
     </row>
     <row r="188">
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -10203,28 +10241,38 @@
         </is>
       </c>
       <c r="J188">
-        <v>130612367.79</v>
+        <v>4751134404.82</v>
       </c>
       <c r="K188">
-        <v>97959317.86</v>
+        <v>3563563261.26</v>
       </c>
       <c r="O188">
-        <v>32653049.93</v>
+        <v>1187571143.56</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>POR-Zachování porostního typu</t>
+          <t>LFA-Méně příznivé oblasti (LFA)</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>LFA</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -10232,22 +10280,32 @@
         </is>
       </c>
       <c r="J189">
-        <v>14197879.57</v>
+        <v>50316366.39</v>
       </c>
       <c r="K189">
-        <v>10648941.65</v>
+        <v>37738356.82</v>
       </c>
       <c r="O189">
-        <v>3548937.92</v>
+        <v>12578009.57</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>PPO-PPO</t>
+          <t>NAT-Natura 2000 na zemědělské půdě</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Natura</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Natura</t>
         </is>
       </c>
     </row>
@@ -10261,17 +10319,17 @@
         </is>
       </c>
       <c r="J190">
-        <v>360348391.45</v>
+        <v>130612367.79</v>
       </c>
       <c r="K190">
-        <v>178367237.6</v>
+        <v>97959317.86</v>
       </c>
       <c r="O190">
-        <v>181981153.85</v>
+        <v>32653049.93</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
+          <t>POR-Zachování porostního typu</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -10290,17 +10348,17 @@
         </is>
       </c>
       <c r="J191">
-        <v>3151410605.91</v>
+        <v>14197879.57</v>
       </c>
       <c r="K191">
-        <v>1560227897.37</v>
+        <v>10648941.65</v>
       </c>
       <c r="O191">
-        <v>1591182708.54</v>
+        <v>3548937.92</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
+          <t>PPO-PPO</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -10311,7 +10369,7 @@
     </row>
     <row r="192">
       <c r="C192">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -10319,69 +10377,127 @@
         </is>
       </c>
       <c r="J192">
-        <v>11785416.06</v>
+        <v>360348391.45</v>
       </c>
       <c r="K192">
-        <v>8839234.58</v>
+        <v>178367237.6</v>
       </c>
       <c r="O192">
-        <v>2946181.48</v>
+        <v>181981153.85</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
-        </is>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>ZZPLP</t>
+          <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PRV</t>
+        </is>
+      </c>
+      <c r="J193">
+        <v>3151410605.91</v>
+      </c>
+      <c r="K193">
+        <v>1560227897.37</v>
+      </c>
+      <c r="O193">
+        <v>1591182708.54</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Plošná opatření</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194">
         <v>0.4</v>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>PRV</t>
         </is>
       </c>
-      <c r="J193">
+      <c r="J194">
+        <v>11785416.06</v>
+      </c>
+      <c r="K194">
+        <v>8839234.58</v>
+      </c>
+      <c r="O194">
+        <v>2946181.48</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>ZZPLP</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195">
+        <v>0.4</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>PRV</t>
+        </is>
+      </c>
+      <c r="J195">
         <v>6447153.27</v>
       </c>
-      <c r="K193">
+      <c r="K195">
         <v>4835383.36</v>
       </c>
-      <c r="O193">
+      <c r="O195">
         <v>1611769.91</v>
       </c>
-      <c r="Q193" t="inlineStr">
+      <c r="Q195" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr">
+      <c r="R195" t="inlineStr">
         <is>
           <t>ZZPPN</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="S195" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
         </is>
       </c>
-      <c r="T193" t="inlineStr">
+      <c r="T195" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>

--- a/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_all_ops_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,34 +476,34 @@
         </is>
       </c>
       <c r="F2">
-        <v>7677453.895</v>
+        <v>2895764.4475</v>
       </c>
       <c r="G2">
-        <v>6525835.81</v>
+        <v>2461399.78</v>
       </c>
       <c r="H2">
-        <v>1057321.835</v>
+        <v>434364.6675</v>
       </c>
       <c r="I2">
-        <v>94296.25</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="K2">
-        <v>4915321.495</v>
+        <v>2457660.7475</v>
       </c>
       <c r="L2">
-        <v>867409.6800000001</v>
+        <v>433704.84</v>
       </c>
       <c r="M2">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>867409.6799999997</v>
+        <v>433704.8399999999</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="F8">
-        <v>6172500</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5246625</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>925875</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="F11">
-        <v>1249999660</v>
+        <v>312499915</v>
       </c>
       <c r="G11">
-        <v>1007243476.025</v>
+        <v>251810869.00625</v>
       </c>
       <c r="H11">
-        <v>242756183.975</v>
+        <v>60689045.99375</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -976,34 +976,34 @@
         </is>
       </c>
       <c r="F12">
-        <v>4871590.333333335</v>
+        <v>200894</v>
       </c>
       <c r="G12">
-        <v>4140851.64</v>
+        <v>170759.8951851852</v>
       </c>
       <c r="H12">
-        <v>730738.6933333334</v>
+        <v>30134.10481481481</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>70311.66666666667</v>
+        <v>7812.407407407407</v>
       </c>
       <c r="K12">
-        <v>59764.90333333334</v>
+        <v>6640.544814814815</v>
       </c>
       <c r="L12">
-        <v>10546.76333333333</v>
+        <v>1171.862592592593</v>
       </c>
       <c r="M12">
-        <v>70311.66666666667</v>
+        <v>7812.407407407407</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10546.76333333333</v>
+        <v>1171.862592592592</v>
       </c>
       <c r="P12">
         <v>981</v>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="F13">
-        <v>2357497.5</v>
+        <v>589374.375</v>
       </c>
       <c r="G13">
-        <v>1178748.75</v>
+        <v>294687.1875</v>
       </c>
       <c r="H13">
-        <v>1178748.75</v>
+        <v>294687.1875</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1076,34 +1076,34 @@
         </is>
       </c>
       <c r="F14">
-        <v>255281937.7733333</v>
+        <v>27799723.61833333</v>
       </c>
       <c r="G14">
-        <v>170193469.5616667</v>
+        <v>18451768.12342593</v>
       </c>
       <c r="H14">
-        <v>85088468.21166669</v>
+        <v>9347955.494907405</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>96105.66666666667</v>
+        <v>14260.90740740741</v>
       </c>
       <c r="K14">
-        <v>77175.84833333333</v>
+        <v>10993.28106481482</v>
       </c>
       <c r="L14">
-        <v>18929.81833333333</v>
+        <v>3267.626342592593</v>
       </c>
       <c r="M14">
-        <v>96105.66666666667</v>
+        <v>14260.90740740741</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18929.81833333333</v>
+        <v>3267.626342592592</v>
       </c>
       <c r="P14">
         <v>1614</v>
@@ -1134,34 +1134,34 @@
         </is>
       </c>
       <c r="F15">
-        <v>9898073404.749714</v>
+        <v>7221406179.998684</v>
       </c>
       <c r="G15">
-        <v>3431398494.482035</v>
+        <v>2649065978.997841</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6466674910.267679</v>
+        <v>4572340201.000843</v>
       </c>
       <c r="J15">
-        <v>6892222550.941645</v>
+        <v>4806222595.293526</v>
       </c>
       <c r="K15">
-        <v>2243529144.123043</v>
+        <v>1686387980.460241</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2243529144.123043</v>
+        <v>1686387980.460241</v>
       </c>
       <c r="N15">
-        <v>4648693406.818603</v>
+        <v>3119834614.833285</v>
       </c>
       <c r="O15">
-        <v>4648693406.818603</v>
+        <v>3119834614.833285</v>
       </c>
       <c r="P15">
         <v>355</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>702258284.2199999</v>
+        <v>702258284.22</v>
       </c>
       <c r="G16">
         <v>265784879.04</v>
@@ -1216,10 +1216,10 @@
         <v>165806905.15</v>
       </c>
       <c r="N16">
-        <v>339529434.0799999</v>
+        <v>339529434.08</v>
       </c>
       <c r="O16">
-        <v>339529434.0799999</v>
+        <v>339529434.08</v>
       </c>
       <c r="P16">
         <v>74</v>
@@ -1253,7 +1253,7 @@
         <v>2644194805.25</v>
       </c>
       <c r="G17">
-        <v>667367822.8900001</v>
+        <v>667367822.89</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40346393.70999999</v>
+        <v>40346393.71</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>1854111525.559999</v>
+        <v>1854111525.56</v>
       </c>
       <c r="G20">
         <v>1341746167.94</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>512365357.6200003</v>
+        <v>512365357.62</v>
       </c>
       <c r="J20">
         <v>35292490.04</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>844582997.1800001</v>
+        <v>844582997.1799999</v>
       </c>
       <c r="G21">
         <v>575492616.62</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>269090380.5600001</v>
+        <v>269090380.56</v>
       </c>
       <c r="J21">
-        <v>615912166.5599999</v>
+        <v>615912166.5600001</v>
       </c>
       <c r="K21">
         <v>409532011.53</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>59211146.46999999</v>
+        <v>59211146.47</v>
       </c>
       <c r="G22">
         <v>44792200.12</v>
@@ -1564,10 +1564,10 @@
         <v>13072125.01</v>
       </c>
       <c r="N22">
-        <v>3268031.259999999</v>
+        <v>3268031.26</v>
       </c>
       <c r="O22">
-        <v>3268031.259999999</v>
+        <v>3268031.26</v>
       </c>
       <c r="P22">
         <v>19</v>
@@ -1598,34 +1598,34 @@
         </is>
       </c>
       <c r="F23">
-        <v>80277453.895</v>
+        <v>65541764.4475</v>
       </c>
       <c r="G23">
-        <v>68235835.81</v>
+        <v>55710499.78</v>
       </c>
       <c r="H23">
-        <v>11947321.835</v>
+        <v>9831264.6675</v>
       </c>
       <c r="I23">
-        <v>94296.25</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="K23">
-        <v>4915321.495</v>
+        <v>2457660.7475</v>
       </c>
       <c r="L23">
-        <v>867409.6800000001</v>
+        <v>433704.84</v>
       </c>
       <c r="M23">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>867409.6799999997</v>
+        <v>433704.8399999999</v>
       </c>
       <c r="P23">
         <v>13</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>712003308.2500001</v>
+        <v>712003308.25</v>
       </c>
       <c r="J24">
         <v>59460417.6</v>
@@ -1717,7 +1717,7 @@
         <v>1793407125.88</v>
       </c>
       <c r="G25">
-        <v>896703562.8999999</v>
+        <v>896703562.9</v>
       </c>
       <c r="H25">
         <v>660463502.37</v>
@@ -1735,10 +1735,10 @@
         <v>366695683.76</v>
       </c>
       <c r="M25">
-        <v>873986284.6800001</v>
+        <v>873986284.6799999</v>
       </c>
       <c r="N25">
-        <v>140594917.4299999</v>
+        <v>140594917.43</v>
       </c>
       <c r="O25">
         <v>507290601.19</v>
@@ -1772,34 +1772,34 @@
         </is>
       </c>
       <c r="F26">
-        <v>21111621018.75003</v>
+        <v>21111621018.75</v>
       </c>
       <c r="G26">
-        <v>8663084885.120005</v>
+        <v>8663084885.120001</v>
       </c>
       <c r="H26">
-        <v>12287089226.28001</v>
+        <v>12287089226.28</v>
       </c>
       <c r="I26">
         <v>161446907.35</v>
       </c>
       <c r="J26">
-        <v>13209999502.19997</v>
+        <v>13209999502.2</v>
       </c>
       <c r="K26">
         <v>5470260589.86</v>
       </c>
       <c r="L26">
-        <v>7689759531.88999</v>
+        <v>7689759531.89</v>
       </c>
       <c r="M26">
-        <v>13160020121.74998</v>
+        <v>13160020121.75</v>
       </c>
       <c r="N26">
-        <v>49979380.44999998</v>
+        <v>49979380.44999995</v>
       </c>
       <c r="O26">
-        <v>7739738912.339989</v>
+        <v>7739738912.34</v>
       </c>
       <c r="P26">
         <v>2650</v>
@@ -1830,34 +1830,34 @@
         </is>
       </c>
       <c r="F27">
-        <v>23077293691.21995</v>
+        <v>23077293691.22</v>
       </c>
       <c r="G27">
-        <v>7645305950.279994</v>
+        <v>7645305950.28</v>
       </c>
       <c r="H27">
-        <v>3084783334.679999</v>
+        <v>3084783334.68</v>
       </c>
       <c r="I27">
-        <v>12347204406.25999</v>
+        <v>12347204406.26</v>
       </c>
       <c r="J27">
-        <v>14458872615.98998</v>
+        <v>14458872615.99</v>
       </c>
       <c r="K27">
-        <v>4767760136.579988</v>
+        <v>4767760136.58</v>
       </c>
       <c r="L27">
         <v>1744630658.42</v>
       </c>
       <c r="M27">
-        <v>6512390794.999992</v>
+        <v>6512390795</v>
       </c>
       <c r="N27">
-        <v>7946481820.989984</v>
+        <v>7946481820.99</v>
       </c>
       <c r="O27">
-        <v>9691112479.409998</v>
+        <v>9691112479.41</v>
       </c>
       <c r="P27">
         <v>3187</v>
@@ -1912,10 +1912,10 @@
         <v>19370074.94</v>
       </c>
       <c r="N28">
-        <v>29055112.44000001</v>
+        <v>29055112.44</v>
       </c>
       <c r="O28">
-        <v>29055112.44000001</v>
+        <v>29055112.44</v>
       </c>
       <c r="P28">
         <v>19</v>
@@ -1946,19 +1946,19 @@
         </is>
       </c>
       <c r="F29">
-        <v>7388997027.580003</v>
+        <v>7388997027.58</v>
       </c>
       <c r="G29">
-        <v>2830256231.659999</v>
+        <v>2830256231.66</v>
       </c>
       <c r="H29">
         <v>29969062.5</v>
       </c>
       <c r="I29">
-        <v>4528771733.420002</v>
+        <v>4528771733.42</v>
       </c>
       <c r="J29">
-        <v>4356156520.870001</v>
+        <v>4356156520.87</v>
       </c>
       <c r="K29">
         <v>1631975721.17</v>
@@ -1970,10 +1970,10 @@
         <v>1631975721.17</v>
       </c>
       <c r="N29">
-        <v>2724180799.700001</v>
+        <v>2724180799.7</v>
       </c>
       <c r="O29">
-        <v>2724180799.700001</v>
+        <v>2724180799.7</v>
       </c>
       <c r="P29">
         <v>169</v>
@@ -2004,34 +2004,34 @@
         </is>
       </c>
       <c r="F30">
-        <v>8128454869.548186</v>
+        <v>8090986816.465674</v>
       </c>
       <c r="G30">
-        <v>6292694748.140993</v>
+        <v>6272521542.022122</v>
       </c>
       <c r="H30">
-        <v>872155896.3971772</v>
+        <v>871900380.0697457</v>
       </c>
       <c r="I30">
-        <v>963604225.0100002</v>
+        <v>946564894.373806</v>
       </c>
       <c r="J30">
-        <v>5749954306.839893</v>
+        <v>5740946183.745883</v>
       </c>
       <c r="K30">
-        <v>4653192006.552219</v>
+        <v>4646599047.422471</v>
       </c>
       <c r="L30">
-        <v>626680860.307675</v>
+        <v>626425798.8546059</v>
       </c>
       <c r="M30">
-        <v>5279872866.859892</v>
+        <v>5273024846.277077</v>
       </c>
       <c r="N30">
-        <v>470081439.9800002</v>
+        <v>467921337.468806</v>
       </c>
       <c r="O30">
-        <v>1096762300.287676</v>
+        <v>1094347136.323412</v>
       </c>
       <c r="P30">
         <v>2637</v>
@@ -2062,34 +2062,34 @@
         </is>
       </c>
       <c r="F31">
-        <v>2950755188.04</v>
+        <v>2947355969.55</v>
       </c>
       <c r="G31">
-        <v>1996572476.05</v>
+        <v>1993827014.758</v>
       </c>
       <c r="H31">
-        <v>333862907.7299999</v>
+        <v>333862907.73</v>
       </c>
       <c r="I31">
-        <v>620319804.2599998</v>
+        <v>619666047.062</v>
       </c>
       <c r="J31">
-        <v>1404464809.8</v>
+        <v>1401354630.15384</v>
       </c>
       <c r="K31">
-        <v>979655216.73</v>
+        <v>977198794.28184</v>
       </c>
       <c r="L31">
         <v>212228517.19</v>
       </c>
       <c r="M31">
-        <v>1191883733.92</v>
+        <v>1189427311.47184</v>
       </c>
       <c r="N31">
-        <v>212581075.8800001</v>
+        <v>211927318.682</v>
       </c>
       <c r="O31">
-        <v>424809593.0700002</v>
+        <v>424155835.872</v>
       </c>
       <c r="P31">
         <v>187</v>
@@ -2120,34 +2120,34 @@
         </is>
       </c>
       <c r="F32">
-        <v>1041272226.811823</v>
+        <v>1000404955.239321</v>
       </c>
       <c r="G32">
-        <v>607828616.359</v>
+        <v>584909948.9481225</v>
       </c>
       <c r="H32">
-        <v>164900532.5528235</v>
+        <v>164645016.2253927</v>
       </c>
       <c r="I32">
-        <v>268543077.9</v>
+        <v>250849990.065806</v>
       </c>
       <c r="J32">
-        <v>470646228.1201018</v>
+        <v>458527925.3799263</v>
       </c>
       <c r="K32">
-        <v>316610667.8277762</v>
+        <v>307561286.249863</v>
       </c>
       <c r="L32">
-        <v>5045298.192325661</v>
+        <v>4790236.739257235</v>
       </c>
       <c r="M32">
-        <v>321655966.0201018</v>
+        <v>312351522.9891202</v>
       </c>
       <c r="N32">
-        <v>148990262.1</v>
+        <v>146176402.390806</v>
       </c>
       <c r="O32">
-        <v>154035560.2923258</v>
+        <v>150966639.1300632</v>
       </c>
       <c r="P32">
         <v>124</v>
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="F33">
-        <v>4172522259.450001</v>
+        <v>4172522259.45</v>
       </c>
       <c r="G33">
-        <v>3546643919.929999</v>
+        <v>3546643919.93</v>
       </c>
       <c r="H33">
-        <v>624487089.9200001</v>
+        <v>624487089.92</v>
       </c>
       <c r="I33">
         <v>1391249.6</v>
       </c>
       <c r="J33">
-        <v>4016436469.100001</v>
+        <v>4016436469.1</v>
       </c>
       <c r="K33">
-        <v>3413543017.299999</v>
+        <v>3413543017.3</v>
       </c>
       <c r="L33">
         <v>601503889.6900001</v>
@@ -2202,10 +2202,10 @@
         <v>4015046906.99</v>
       </c>
       <c r="N33">
-        <v>1389562.110000083</v>
+        <v>1389562.109999932</v>
       </c>
       <c r="O33">
-        <v>602893451.8000002</v>
+        <v>602893451.8</v>
       </c>
       <c r="P33">
         <v>144</v>
@@ -2297,7 +2297,7 @@
         <v>13529825321.61</v>
       </c>
       <c r="G35">
-        <v>11500351521.60002</v>
+        <v>11500351521.6</v>
       </c>
       <c r="H35">
         <v>2013046852.6</v>
@@ -2312,16 +2312,16 @@
         <v>10874692739.66</v>
       </c>
       <c r="L35">
-        <v>1907348318.160002</v>
+        <v>1907348318.16</v>
       </c>
       <c r="M35">
         <v>12782041057.82</v>
       </c>
       <c r="N35">
-        <v>14014433.4</v>
+        <v>14014433.40000002</v>
       </c>
       <c r="O35">
-        <v>1921362751.560001</v>
+        <v>1921362751.56</v>
       </c>
       <c r="P35">
         <v>417</v>
@@ -2352,34 +2352,34 @@
         </is>
       </c>
       <c r="F36">
-        <v>13770263788.16</v>
+        <v>13643290572.47</v>
       </c>
       <c r="G36">
-        <v>11704724219.895</v>
+        <v>11596796986.5585</v>
       </c>
       <c r="H36">
-        <v>2065539568.265</v>
+        <v>2046493585.9115</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>10496935770.273</v>
+        <v>10399934359.8249</v>
       </c>
       <c r="K36">
-        <v>8922395404.112999</v>
+        <v>8839944205.235901</v>
       </c>
       <c r="L36">
-        <v>1574540366.16</v>
+        <v>1559990154.589</v>
       </c>
       <c r="M36">
-        <v>10496935770.273</v>
+        <v>10399934359.8249</v>
       </c>
       <c r="N36">
-        <v>-3.725290298461914e-08</v>
+        <v>-5.21540641784668e-08</v>
       </c>
       <c r="O36">
-        <v>1574540366.16</v>
+        <v>1559990154.589</v>
       </c>
       <c r="P36">
         <v>27</v>
@@ -2410,34 +2410,34 @@
         </is>
       </c>
       <c r="F37">
-        <v>25205552941.11368</v>
+        <v>24735412788.65858</v>
       </c>
       <c r="G37">
-        <v>21424719999.885</v>
+        <v>21025100870.29845</v>
       </c>
       <c r="H37">
-        <v>3780832941.228676</v>
+        <v>3710311918.360131</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18413182638.23256</v>
+        <v>18119420871.74126</v>
       </c>
       <c r="K37">
-        <v>15651205241.50212</v>
+        <v>15401507740.00233</v>
       </c>
       <c r="L37">
-        <v>2761977396.730438</v>
+        <v>2717913131.738934</v>
       </c>
       <c r="M37">
-        <v>18413182638.23256</v>
+        <v>18119420871.74126</v>
       </c>
       <c r="N37">
-        <v>4.470348358154297e-08</v>
+        <v>1.490116119384766e-07</v>
       </c>
       <c r="O37">
-        <v>2761977396.730439</v>
+        <v>2717913131.738934</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -2468,34 +2468,34 @@
         </is>
       </c>
       <c r="F38">
-        <v>22681041950.98632</v>
+        <v>22337875014.22123</v>
       </c>
       <c r="G38">
-        <v>19278885658.25</v>
+        <v>18987193761.99995</v>
       </c>
       <c r="H38">
-        <v>3402156292.736324</v>
+        <v>3350681252.221278</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>19094178463.23444</v>
+        <v>18897418107.19125</v>
       </c>
       <c r="K38">
-        <v>16230051692.63488</v>
+        <v>16062805390.01219</v>
       </c>
       <c r="L38">
-        <v>2864126770.599561</v>
+        <v>2834612717.179057</v>
       </c>
       <c r="M38">
-        <v>19094178463.23444</v>
+        <v>18897418107.19125</v>
       </c>
       <c r="N38">
-        <v>3.427267074584961e-07</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="O38">
-        <v>2864126770.599561</v>
+        <v>2834612717.179057</v>
       </c>
       <c r="P38">
         <v>39</v>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>4629087971.960001</v>
+        <v>4629087971.96</v>
       </c>
       <c r="G39">
         <v>3588631275.25</v>
@@ -2541,7 +2541,7 @@
         <v>1008227018.13</v>
       </c>
       <c r="K39">
-        <v>807600487.3000001</v>
+        <v>807600487.3</v>
       </c>
       <c r="L39">
         <v>5234657.4</v>
@@ -2608,10 +2608,10 @@
         <v>2808811525.5</v>
       </c>
       <c r="N40">
-        <v>2.384185791015625e-07</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="O40">
-        <v>421321728.9400002</v>
+        <v>421321728.9400001</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -2703,7 +2703,7 @@
         <v>3081739457.47</v>
       </c>
       <c r="G42">
-        <v>2566039640.069999</v>
+        <v>2566039640.07</v>
       </c>
       <c r="H42">
         <v>515699817.4</v>
@@ -2724,7 +2724,7 @@
         <v>1431580285.13</v>
       </c>
       <c r="N42">
-        <v>-5.587935447692871e-09</v>
+        <v>-4.656612873077393e-09</v>
       </c>
       <c r="O42">
         <v>257178603.76</v>
@@ -2758,34 +2758,34 @@
         </is>
       </c>
       <c r="F43">
-        <v>4976858420.910001</v>
+        <v>4927192793.8</v>
       </c>
       <c r="G43">
-        <v>4179890785.385</v>
+        <v>4137675002.3425</v>
       </c>
       <c r="H43">
-        <v>796967635.525</v>
+        <v>789517791.4575</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2931456692.355</v>
+        <v>2895725109.9775</v>
       </c>
       <c r="K43">
-        <v>2491738188.395</v>
+        <v>2461366343.3775</v>
       </c>
       <c r="L43">
-        <v>439718503.96</v>
+        <v>434358766.6</v>
       </c>
       <c r="M43">
-        <v>2931456692.355</v>
+        <v>2895725109.9775</v>
       </c>
       <c r="N43">
         <v>-1.490116119384766e-08</v>
       </c>
       <c r="O43">
-        <v>439718503.96</v>
+        <v>434358766.6</v>
       </c>
       <c r="P43">
         <v>17</v>
@@ -2819,10 +2819,10 @@
         <v>28764473338.5</v>
       </c>
       <c r="G44">
-        <v>24449802337.72001</v>
+        <v>24449802337.72</v>
       </c>
       <c r="H44">
-        <v>4314671000.780001</v>
+        <v>4314671000.78</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>14781307448.16</v>
       </c>
       <c r="N44">
-        <v>-8.381903171539307e-08</v>
+        <v>3.539025783538818e-08</v>
       </c>
       <c r="O44">
         <v>2217196118.58</v>
@@ -2898,7 +2898,7 @@
         <v>13213845405</v>
       </c>
       <c r="N45">
-        <v>1.788139343261719e-07</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="O45">
         <v>1982076811.26</v>
@@ -2932,34 +2932,34 @@
         </is>
       </c>
       <c r="F46">
-        <v>30028676345.45</v>
+        <v>29979010718.34</v>
       </c>
       <c r="G46">
-        <v>24756924390.04499</v>
+        <v>24714708607.0025</v>
       </c>
       <c r="H46">
-        <v>5271751955.404995</v>
+        <v>5264302111.3375</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>18044393131.305</v>
+        <v>18008661548.9275</v>
       </c>
       <c r="K46">
-        <v>15116292941.01501</v>
+        <v>15085921095.9975</v>
       </c>
       <c r="L46">
-        <v>2928100190.290001</v>
+        <v>2922740452.93</v>
       </c>
       <c r="M46">
-        <v>18044393131.305</v>
+        <v>18008661548.9275</v>
       </c>
       <c r="N46">
-        <v>1.387670636177063e-07</v>
+        <v>9.778887033462524e-08</v>
       </c>
       <c r="O46">
-        <v>2928100190.290001</v>
+        <v>2922740452.93</v>
       </c>
       <c r="P46">
         <v>440</v>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>88972852.48</v>
+        <v>88972852.47999999</v>
       </c>
       <c r="G48">
         <v>58193113.54</v>
@@ -3109,7 +3109,7 @@
         <v>1452708980.57</v>
       </c>
       <c r="G49">
-        <v>693032583.6299999</v>
+        <v>693032583.63</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3164,34 +3164,34 @@
         </is>
       </c>
       <c r="F50">
-        <v>7513637913.510005</v>
+        <v>7513637913.51</v>
       </c>
       <c r="G50">
-        <v>6386592225.940001</v>
+        <v>6386592225.94</v>
       </c>
       <c r="H50">
-        <v>341169748.9699998</v>
+        <v>341169748.97</v>
       </c>
       <c r="I50">
-        <v>785875938.5999999</v>
+        <v>785875938.6</v>
       </c>
       <c r="J50">
-        <v>5647291407.059999</v>
+        <v>5647291407.06</v>
       </c>
       <c r="K50">
-        <v>4800197695.049999</v>
+        <v>4800197695.05</v>
       </c>
       <c r="L50">
-        <v>193412324.6299998</v>
+        <v>193412324.63</v>
       </c>
       <c r="M50">
-        <v>4993610019.679998</v>
+        <v>4993610019.68</v>
       </c>
       <c r="N50">
         <v>653681387.38</v>
       </c>
       <c r="O50">
-        <v>847093712.0100001</v>
+        <v>847093712.01</v>
       </c>
       <c r="P50">
         <v>209</v>
@@ -3231,19 +3231,19 @@
         <v>1494380282.15</v>
       </c>
       <c r="I51">
-        <v>685168845.6599998</v>
+        <v>685168845.66</v>
       </c>
       <c r="J51">
         <v>5695332743.46</v>
       </c>
       <c r="K51">
-        <v>4841032831.570003</v>
+        <v>4841032831.57</v>
       </c>
       <c r="L51">
-        <v>587661919.6299999</v>
+        <v>587661919.63</v>
       </c>
       <c r="M51">
-        <v>5428694751.200001</v>
+        <v>5428694751.2</v>
       </c>
       <c r="N51">
         <v>266637992.2600001</v>
@@ -3338,22 +3338,22 @@
         </is>
       </c>
       <c r="F53">
-        <v>10124654527.33</v>
+        <v>10121076790.43</v>
       </c>
       <c r="G53">
-        <v>8605956347.349998</v>
+        <v>8602915270.99</v>
       </c>
       <c r="H53">
-        <v>798412275.3299992</v>
+        <v>797875614.79</v>
       </c>
       <c r="I53">
         <v>720285904.65</v>
       </c>
       <c r="J53">
-        <v>8322678360.090001</v>
+        <v>8322678360.09</v>
       </c>
       <c r="K53">
-        <v>7074276604.539992</v>
+        <v>7074276604.54</v>
       </c>
       <c r="L53">
         <v>595113841.21</v>
@@ -3365,7 +3365,7 @@
         <v>653287914.34</v>
       </c>
       <c r="O53">
-        <v>1248401755.550001</v>
+        <v>1248401755.55</v>
       </c>
       <c r="P53">
         <v>361</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>2067061476.819999</v>
+        <v>2067061476.82</v>
       </c>
       <c r="G54">
         <v>1757002255.21</v>
@@ -3408,7 +3408,7 @@
         <v>11998817.99</v>
       </c>
       <c r="J54">
-        <v>837717973.83</v>
+        <v>837717973.8299999</v>
       </c>
       <c r="K54">
         <v>712060277.62</v>
@@ -3420,7 +3420,7 @@
         <v>837717973.83</v>
       </c>
       <c r="N54">
-        <v>-2.235174179077148e-08</v>
+        <v>-1.862645149230957e-08</v>
       </c>
       <c r="O54">
         <v>125657696.21</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="F55">
-        <v>4775525060.690001</v>
+        <v>4775525060.69</v>
       </c>
       <c r="G55">
-        <v>3929685212.659999</v>
+        <v>3929685212.66</v>
       </c>
       <c r="H55">
         <v>522062125.96</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>5173391629.199999</v>
+        <v>5173391629.2</v>
       </c>
       <c r="G56">
         <v>2224062866.59</v>
@@ -3527,13 +3527,13 @@
         <v>1821922227.44</v>
       </c>
       <c r="K56">
-        <v>731919171.8300002</v>
+        <v>731919171.83</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>731919171.8300002</v>
+        <v>731919171.83</v>
       </c>
       <c r="N56">
         <v>1090003055.61</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>15444472949.32999</v>
+        <v>15444472949.33</v>
       </c>
       <c r="G57">
         <v>12580015883.14</v>
@@ -3579,25 +3579,25 @@
         <v>2404518598.83</v>
       </c>
       <c r="I57">
-        <v>459938467.3599999</v>
+        <v>459938467.36</v>
       </c>
       <c r="J57">
         <v>11791292433.7</v>
       </c>
       <c r="K57">
-        <v>9621904529.789995</v>
+        <v>9621904529.790001</v>
       </c>
       <c r="L57">
-        <v>1800016805.520001</v>
+        <v>1800016805.52</v>
       </c>
       <c r="M57">
-        <v>11421921335.31001</v>
+        <v>11421921335.31</v>
       </c>
       <c r="N57">
         <v>369371098.39</v>
       </c>
       <c r="O57">
-        <v>2169387903.909998</v>
+        <v>2169387903.91</v>
       </c>
       <c r="P57">
         <v>148</v>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>456501729.9300001</v>
+        <v>456501729.93</v>
       </c>
       <c r="G58">
         <v>228230529.7</v>
@@ -3640,7 +3640,7 @@
         <v>228271200.23</v>
       </c>
       <c r="J58">
-        <v>366574433.7900001</v>
+        <v>366574433.79</v>
       </c>
       <c r="K58">
         <v>183268434.74</v>
@@ -3686,34 +3686,34 @@
         </is>
       </c>
       <c r="F59">
-        <v>21819701900.31999</v>
+        <v>21817439466.52</v>
       </c>
       <c r="G59">
-        <v>18808773871.19</v>
+        <v>18806624559.08</v>
       </c>
       <c r="H59">
-        <v>2838960219.009995</v>
+        <v>2838847097.32</v>
       </c>
       <c r="I59">
-        <v>171967810.1200002</v>
+        <v>171967810.12</v>
       </c>
       <c r="J59">
-        <v>17419088455.96001</v>
+        <v>17419088455.96</v>
       </c>
       <c r="K59">
-        <v>15003833039.71001</v>
+        <v>15003833039.71</v>
       </c>
       <c r="L59">
-        <v>2272112381.109997</v>
+        <v>2272112381.11</v>
       </c>
       <c r="M59">
         <v>17275945420.82</v>
       </c>
       <c r="N59">
-        <v>143143035.14</v>
+        <v>143143035.1400001</v>
       </c>
       <c r="O59">
-        <v>2415255416.249996</v>
+        <v>2415255416.25</v>
       </c>
       <c r="P59">
         <v>2829</v>
@@ -3744,34 +3744,34 @@
         </is>
       </c>
       <c r="F60">
-        <v>941251866.9946001</v>
+        <v>939075427.8296474</v>
       </c>
       <c r="G60">
-        <v>470625933.3499999</v>
+        <v>469537713.7687657</v>
       </c>
       <c r="H60">
-        <v>338187115.4407599</v>
+        <v>337450901.8379071</v>
       </c>
       <c r="I60">
-        <v>132438818.20384</v>
+        <v>132086812.2229745</v>
       </c>
       <c r="J60">
-        <v>796094321.6402925</v>
+        <v>794217578.1444031</v>
       </c>
       <c r="K60">
-        <v>398047160.0890077</v>
+        <v>397108788.3439288</v>
       </c>
       <c r="L60">
-        <v>283065667.8403271</v>
+        <v>282445925.1619594</v>
       </c>
       <c r="M60">
-        <v>681112827.9293349</v>
+        <v>679554713.5058882</v>
       </c>
       <c r="N60">
-        <v>114981493.7109573</v>
+        <v>114662864.6385148</v>
       </c>
       <c r="O60">
-        <v>398047161.5512846</v>
+        <v>397108789.8004743</v>
       </c>
       <c r="P60">
         <v>211</v>
@@ -3802,34 +3802,34 @@
         </is>
       </c>
       <c r="F61">
-        <v>5980216952.880003</v>
+        <v>5980216952.88</v>
       </c>
       <c r="G61">
-        <v>5083184409.040002</v>
+        <v>5083184409.04</v>
       </c>
       <c r="H61">
-        <v>839915675.8899995</v>
+        <v>839915675.89</v>
       </c>
       <c r="I61">
         <v>57116867.95</v>
       </c>
       <c r="J61">
-        <v>4817562258.849999</v>
+        <v>4817562258.85</v>
       </c>
       <c r="K61">
         <v>4094927917.6</v>
       </c>
       <c r="L61">
-        <v>671239797.1600001</v>
+        <v>671239797.16</v>
       </c>
       <c r="M61">
-        <v>4766167714.759998</v>
+        <v>4766167714.76</v>
       </c>
       <c r="N61">
-        <v>51394544.08999997</v>
+        <v>51394544.09000002</v>
       </c>
       <c r="O61">
-        <v>722634341.2499999</v>
+        <v>722634341.25</v>
       </c>
       <c r="P61">
         <v>321</v>
@@ -3860,34 +3860,34 @@
         </is>
       </c>
       <c r="F62">
-        <v>494121487.1154001</v>
+        <v>491945047.9504474</v>
       </c>
       <c r="G62">
-        <v>247060743.53</v>
+        <v>245972523.9487657</v>
       </c>
       <c r="H62">
-        <v>176999847.28924</v>
+        <v>176263633.6863872</v>
       </c>
       <c r="I62">
-        <v>70060896.29615998</v>
+        <v>69708890.31529453</v>
       </c>
       <c r="J62">
-        <v>373415384.1297076</v>
+        <v>371538640.6338186</v>
       </c>
       <c r="K62">
-        <v>186707691.9009923</v>
+        <v>185769320.1559136</v>
       </c>
       <c r="L62">
-        <v>132353723.2896728</v>
+        <v>131733980.611305</v>
       </c>
       <c r="M62">
-        <v>319061415.1906652</v>
+        <v>317503300.7672186</v>
       </c>
       <c r="N62">
-        <v>54353968.93904259</v>
+        <v>54035339.86660005</v>
       </c>
       <c r="O62">
-        <v>186707692.2287153</v>
+        <v>185769320.477905</v>
       </c>
       <c r="P62">
         <v>67</v>
@@ -3918,31 +3918,31 @@
         </is>
       </c>
       <c r="F63">
-        <v>30360981590.57999</v>
+        <v>30211161728.1</v>
       </c>
       <c r="G63">
-        <v>28491470812.05001</v>
+        <v>28386596908.32</v>
       </c>
       <c r="H63">
-        <v>938876037.4100001</v>
+        <v>938876037.41</v>
       </c>
       <c r="I63">
-        <v>930634741.1199998</v>
+        <v>885688782.37</v>
       </c>
       <c r="J63">
         <v>8897231955.370001</v>
       </c>
       <c r="K63">
-        <v>7517624473.490002</v>
+        <v>7517624473.49</v>
       </c>
       <c r="L63">
         <v>634759371.2</v>
       </c>
       <c r="M63">
-        <v>8152383844.690001</v>
+        <v>8152383844.69</v>
       </c>
       <c r="N63">
-        <v>744848110.6800003</v>
+        <v>744848110.6799999</v>
       </c>
       <c r="O63">
         <v>1379607481.88</v>
@@ -3979,13 +3979,13 @@
         <v>3097979740.54</v>
       </c>
       <c r="G64">
-        <v>2633282778.800001</v>
+        <v>2633282778.8</v>
       </c>
       <c r="H64">
-        <v>426788520.9700001</v>
+        <v>426788520.97</v>
       </c>
       <c r="I64">
-        <v>37908440.77000002</v>
+        <v>37908440.77</v>
       </c>
       <c r="J64">
         <v>2212782732.45</v>
@@ -3997,13 +3997,13 @@
         <v>304530061.35</v>
       </c>
       <c r="M64">
-        <v>2185395382.460001</v>
+        <v>2185395382.46</v>
       </c>
       <c r="N64">
-        <v>27387349.99000002</v>
+        <v>27387349.99</v>
       </c>
       <c r="O64">
-        <v>331917411.3400002</v>
+        <v>331917411.34</v>
       </c>
       <c r="P64">
         <v>412</v>
@@ -4034,34 +4034,34 @@
         </is>
       </c>
       <c r="F65">
-        <v>6534413335.119996</v>
+        <v>6517325179.12</v>
       </c>
       <c r="G65">
-        <v>5554251333.929999</v>
+        <v>5539726401.33</v>
       </c>
       <c r="H65">
-        <v>854254389.1499997</v>
+        <v>851691165.75</v>
       </c>
       <c r="I65">
         <v>125907612.04</v>
       </c>
       <c r="J65">
-        <v>4445164433.539999</v>
+        <v>4445164433.54</v>
       </c>
       <c r="K65">
-        <v>3778389765.730001</v>
+        <v>3778389765.73</v>
       </c>
       <c r="L65">
-        <v>575713456.9200008</v>
+        <v>575713456.92</v>
       </c>
       <c r="M65">
-        <v>4354103222.650002</v>
+        <v>4354103222.65</v>
       </c>
       <c r="N65">
-        <v>91061210.89000009</v>
+        <v>91061210.89000005</v>
       </c>
       <c r="O65">
-        <v>666774667.8100004</v>
+        <v>666774667.8100001</v>
       </c>
       <c r="P65">
         <v>484</v>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="F66">
-        <v>588773830.0900002</v>
+        <v>588773830.09</v>
       </c>
       <c r="G66">
-        <v>294386914.9900001</v>
+        <v>294386914.99</v>
       </c>
       <c r="H66">
         <v>258137397.67</v>
@@ -4113,7 +4113,7 @@
         <v>167242004.99</v>
       </c>
       <c r="M66">
-        <v>365386023.3899999</v>
+        <v>365386023.39</v>
       </c>
       <c r="N66">
         <v>30902013.93999999</v>
@@ -4150,34 +4150,34 @@
         </is>
       </c>
       <c r="F67">
-        <v>15413754632.755</v>
+        <v>11121589705.2725</v>
       </c>
       <c r="G67">
-        <v>6784699031.330006</v>
+        <v>5099204215.065</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>8629055601.425007</v>
+        <v>6022385490.2075</v>
       </c>
       <c r="J67">
-        <v>9702734655.954998</v>
+        <v>7078231577.3375</v>
       </c>
       <c r="K67">
-        <v>4257462433.485004</v>
+        <v>3242163341.1375</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>4257462433.485004</v>
+        <v>3242163341.1375</v>
       </c>
       <c r="N67">
-        <v>5445272222.470001</v>
+        <v>3836068236.2</v>
       </c>
       <c r="O67">
-        <v>5445272222.470001</v>
+        <v>3836068236.2</v>
       </c>
       <c r="P67">
         <v>1168</v>
@@ -4208,34 +4208,34 @@
         </is>
       </c>
       <c r="F68">
-        <v>7912860677.575001</v>
+        <v>5611976088.3425</v>
       </c>
       <c r="G68">
-        <v>2786633044.130001</v>
+        <v>2221089396.835</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>5126227633.445</v>
+        <v>3390886691.5075</v>
       </c>
       <c r="J68">
-        <v>6829678863.925001</v>
+        <v>4882471583.1075</v>
       </c>
       <c r="K68">
-        <v>2425254900.669999</v>
+        <v>1946443525.795</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2425254900.669999</v>
+        <v>1946443525.795</v>
       </c>
       <c r="N68">
-        <v>4404423963.255001</v>
+        <v>2936028057.3125</v>
       </c>
       <c r="O68">
-        <v>4404423963.255001</v>
+        <v>2936028057.3125</v>
       </c>
       <c r="P68">
         <v>240</v>
@@ -4324,34 +4324,34 @@
         </is>
       </c>
       <c r="F70">
-        <v>17807680620.24495</v>
+        <v>17550211204.44043</v>
       </c>
       <c r="G70">
-        <v>14225268485.037</v>
+        <v>14008345775.27027</v>
       </c>
       <c r="H70">
-        <v>2908920451.341411</v>
+        <v>2879472001.565373</v>
       </c>
       <c r="I70">
-        <v>673491683.8665295</v>
+        <v>662393427.6047807</v>
       </c>
       <c r="J70">
-        <v>13006810856.12478</v>
+        <v>12806667072.04544</v>
       </c>
       <c r="K70">
-        <v>10430484273.87281</v>
+        <v>10261485034.94626</v>
       </c>
       <c r="L70">
-        <v>2042758752.639779</v>
+        <v>2020521752.915944</v>
       </c>
       <c r="M70">
-        <v>12473243026.51258</v>
+        <v>12282006787.8622</v>
       </c>
       <c r="N70">
-        <v>533567829.6121961</v>
+        <v>524660284.1832352</v>
       </c>
       <c r="O70">
-        <v>2576326582.251975</v>
+        <v>2545182037.099179</v>
       </c>
       <c r="P70">
         <v>161</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>3193642070.619999</v>
+        <v>3193642070.62</v>
       </c>
       <c r="G71">
         <v>1613136175.3</v>
@@ -4397,13 +4397,13 @@
         <v>1438049993.48</v>
       </c>
       <c r="K71">
-        <v>719024996.6299999</v>
+        <v>719024996.63</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>719024996.6299999</v>
+        <v>719024996.63</v>
       </c>
       <c r="N71">
         <v>719024996.85</v>
@@ -4440,34 +4440,34 @@
         </is>
       </c>
       <c r="F72">
-        <v>2404820426.876726</v>
+        <v>916162758.7695251</v>
       </c>
       <c r="G72">
-        <v>1564252619.939956</v>
+        <v>596871085.8363317</v>
       </c>
       <c r="H72">
-        <v>731002.4331365647</v>
+        <v>202027.3684302134</v>
       </c>
       <c r="I72">
-        <v>839836804.5036372</v>
+        <v>319089645.5647631</v>
       </c>
       <c r="J72">
-        <v>670353515.5807372</v>
+        <v>250261089.0201875</v>
       </c>
       <c r="K72">
-        <v>427417332.6739725</v>
+        <v>158016196.8845496</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>427417332.6739725</v>
+        <v>158016196.8845496</v>
       </c>
       <c r="N72">
-        <v>242936182.9067648</v>
+        <v>92244892.13563786</v>
       </c>
       <c r="O72">
-        <v>242936182.9067648</v>
+        <v>92244892.13563786</v>
       </c>
       <c r="P72">
         <v>412</v>
@@ -4498,34 +4498,34 @@
         </is>
       </c>
       <c r="F73">
-        <v>6472470307.437983</v>
+        <v>6217192984.622617</v>
       </c>
       <c r="G73">
-        <v>5099281113.898001</v>
+        <v>4890358179.81863</v>
       </c>
       <c r="H73">
-        <v>1263265155.114298</v>
+        <v>1222773881.72767</v>
       </c>
       <c r="I73">
-        <v>109924038.4256858</v>
+        <v>104060923.0763159</v>
       </c>
       <c r="J73">
-        <v>4556022465.379855</v>
+        <v>4399161474.92344</v>
       </c>
       <c r="K73">
-        <v>3563442204.588598</v>
+        <v>3434218185.040252</v>
       </c>
       <c r="L73">
-        <v>911963500.297304</v>
+        <v>888271338.0410825</v>
       </c>
       <c r="M73">
-        <v>4475405704.885903</v>
+        <v>4322489523.081334</v>
       </c>
       <c r="N73">
-        <v>80616760.49395302</v>
+        <v>76671951.84210555</v>
       </c>
       <c r="O73">
-        <v>992580260.7912571</v>
+        <v>964943289.8831881</v>
       </c>
       <c r="P73">
         <v>64</v>
@@ -4556,34 +4556,34 @@
         </is>
       </c>
       <c r="F74">
-        <v>19694550033.14548</v>
+        <v>18441436028.21268</v>
       </c>
       <c r="G74">
-        <v>11531469209.39801</v>
+        <v>10697548388.2402</v>
       </c>
       <c r="H74">
-        <v>1914008.296863435</v>
+        <v>1385033.232157084</v>
       </c>
       <c r="I74">
-        <v>8161166815.450607</v>
+        <v>7742502606.740328</v>
       </c>
       <c r="J74">
-        <v>8650411572.327011</v>
+        <v>8251760733.938931</v>
       </c>
       <c r="K74">
-        <v>5061412954.322072</v>
+        <v>4800998246.526354</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>5061412954.322072</v>
+        <v>4800998246.526354</v>
       </c>
       <c r="N74">
-        <v>3588998618.004941</v>
+        <v>3450762487.412578</v>
       </c>
       <c r="O74">
-        <v>3588998618.004941</v>
+        <v>3450762487.412578</v>
       </c>
       <c r="P74">
         <v>1367</v>
@@ -4614,34 +4614,34 @@
         </is>
       </c>
       <c r="F75">
-        <v>12500784682.23707</v>
+        <v>12262044897.78623</v>
       </c>
       <c r="G75">
-        <v>9640036664.445</v>
+        <v>9443244344.308359</v>
       </c>
       <c r="H75">
-        <v>2721346014.594291</v>
+        <v>2686210003.239703</v>
       </c>
       <c r="I75">
-        <v>139402003.1977848</v>
+        <v>132590550.2381636</v>
       </c>
       <c r="J75">
-        <v>7106192684.835363</v>
+        <v>6934678314.544689</v>
       </c>
       <c r="K75">
-        <v>5478042867.568594</v>
+        <v>5335240497.634794</v>
       </c>
       <c r="L75">
-        <v>1529499974.232917</v>
+        <v>1506565095.310131</v>
       </c>
       <c r="M75">
-        <v>7007542841.801513</v>
+        <v>6841805592.944925</v>
       </c>
       <c r="N75">
-        <v>98649843.03385043</v>
+        <v>92872721.59976383</v>
       </c>
       <c r="O75">
-        <v>1628149817.266768</v>
+        <v>1599437816.909895</v>
       </c>
       <c r="P75">
         <v>45</v>
@@ -4675,7 +4675,7 @@
         <v>309957324.3</v>
       </c>
       <c r="G76">
-        <v>216970127.0000001</v>
+        <v>216970127</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4742,19 +4742,19 @@
         <v>149632196.96</v>
       </c>
       <c r="J77">
-        <v>831348680.6899998</v>
+        <v>831348680.6900001</v>
       </c>
       <c r="K77">
         <v>415674339.83</v>
       </c>
       <c r="L77">
-        <v>332539471.8700001</v>
+        <v>332539471.87</v>
       </c>
       <c r="M77">
         <v>748213811.7</v>
       </c>
       <c r="N77">
-        <v>83134868.99000002</v>
+        <v>83134868.99000001</v>
       </c>
       <c r="O77">
         <v>415674340.86</v>
@@ -4788,34 +4788,34 @@
         </is>
       </c>
       <c r="F78">
-        <v>3799294349.75</v>
+        <v>3786094349.75</v>
       </c>
       <c r="G78">
-        <v>2124076715.599999</v>
+        <v>2116225355.6</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1675217634.150001</v>
+        <v>1669868994.15</v>
       </c>
       <c r="J78">
-        <v>1690187366.483999</v>
+        <v>1684162751.6184</v>
       </c>
       <c r="K78">
-        <v>929496995.7179995</v>
+        <v>925913554.7988</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>929496995.7179995</v>
+        <v>925913554.7988</v>
       </c>
       <c r="N78">
-        <v>760690370.7659999</v>
+        <v>758249196.8196</v>
       </c>
       <c r="O78">
-        <v>760690370.7659999</v>
+        <v>758249196.8196</v>
       </c>
       <c r="P78">
         <v>262</v>
@@ -4846,34 +4846,34 @@
         </is>
       </c>
       <c r="F79">
-        <v>8989432639.804996</v>
+        <v>4718415317.4475</v>
       </c>
       <c r="G79">
-        <v>3685460992.900001</v>
+        <v>2008079648.94</v>
       </c>
       <c r="H79">
         <v>222500</v>
       </c>
       <c r="I79">
-        <v>5303749146.905005</v>
+        <v>2710113168.5075</v>
       </c>
       <c r="J79">
-        <v>5630897892.95</v>
+        <v>3010683297.9</v>
       </c>
       <c r="K79">
-        <v>2317473340.085</v>
+        <v>1304104065.3425</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>2317473340.085</v>
+        <v>1304104065.3425</v>
       </c>
       <c r="N79">
-        <v>3313424552.864998</v>
+        <v>1706579232.5575</v>
       </c>
       <c r="O79">
-        <v>3313424552.864998</v>
+        <v>1706579232.5575</v>
       </c>
       <c r="P79">
         <v>2298</v>
@@ -4962,34 +4962,34 @@
         </is>
       </c>
       <c r="F81">
-        <v>9524489606.72308</v>
+        <v>9464527042.105272</v>
       </c>
       <c r="G81">
-        <v>3170023000.430001</v>
+        <v>3138651456.048711</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>6354466606.293078</v>
+        <v>6325875586.056562</v>
       </c>
       <c r="J81">
-        <v>1089907557.366609</v>
+        <v>1083463690.955324</v>
       </c>
       <c r="K81">
-        <v>440556229.5129184</v>
+        <v>437366617.6239589</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>440556229.5129184</v>
+        <v>437366617.6239589</v>
       </c>
       <c r="N81">
-        <v>649351327.8536907</v>
+        <v>646097073.3313656</v>
       </c>
       <c r="O81">
-        <v>649351327.8536907</v>
+        <v>646097073.3313656</v>
       </c>
       <c r="P81">
         <v>186</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>2383988528.009999</v>
+        <v>2383988528.01</v>
       </c>
       <c r="G82">
         <v>1370682272.56</v>
@@ -5029,10 +5029,10 @@
         <v>77661400.25</v>
       </c>
       <c r="I82">
-        <v>935644855.1999998</v>
+        <v>935644855.2</v>
       </c>
       <c r="J82">
-        <v>1409043851.129999</v>
+        <v>1409043851.13</v>
       </c>
       <c r="K82">
         <v>781074449.1900001</v>
@@ -5041,13 +5041,13 @@
         <v>32808225.83</v>
       </c>
       <c r="M82">
-        <v>813882675.0200003</v>
+        <v>813882675.02</v>
       </c>
       <c r="N82">
-        <v>595161176.1100005</v>
+        <v>595161176.11</v>
       </c>
       <c r="O82">
-        <v>627969401.9400005</v>
+        <v>627969401.9399999</v>
       </c>
       <c r="P82">
         <v>894</v>
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="F83">
-        <v>391497617.1</v>
+        <v>355012217.1</v>
       </c>
       <c r="G83">
-        <v>195748808.55</v>
+        <v>177506108.55</v>
       </c>
       <c r="H83">
         <v>137720089.19</v>
       </c>
       <c r="I83">
-        <v>58028719.36</v>
+        <v>39786019.36</v>
       </c>
       <c r="J83">
-        <v>251241906.384</v>
+        <v>242999709.3342</v>
       </c>
       <c r="K83">
-        <v>125620953.147</v>
+        <v>121499854.6221</v>
       </c>
       <c r="L83">
-        <v>97740360.36999997</v>
+        <v>97740360.37</v>
       </c>
       <c r="M83">
-        <v>223361313.517</v>
+        <v>219240214.9921</v>
       </c>
       <c r="N83">
-        <v>27880592.86700005</v>
+        <v>23759494.34210002</v>
       </c>
       <c r="O83">
-        <v>125620953.237</v>
+        <v>121499854.7121</v>
       </c>
       <c r="P83">
         <v>3</v>
@@ -5136,34 +5136,34 @@
         </is>
       </c>
       <c r="F84">
-        <v>20958740998.16002</v>
+        <v>20958740998.16</v>
       </c>
       <c r="G84">
-        <v>8692127961.649992</v>
+        <v>8692127961.65</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>12266613036.51001</v>
+        <v>12266613036.51</v>
       </c>
       <c r="J84">
-        <v>12092824374.31999</v>
+        <v>12092824374.32</v>
       </c>
       <c r="K84">
-        <v>5126291570.999991</v>
+        <v>5126291571</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>5126291570.999991</v>
+        <v>5126291571</v>
       </c>
       <c r="N84">
-        <v>6966532803.319995</v>
+        <v>6966532803.32</v>
       </c>
       <c r="O84">
-        <v>6966532803.319995</v>
+        <v>6966532803.32</v>
       </c>
       <c r="P84">
         <v>2052</v>
@@ -5194,34 +5194,34 @@
         </is>
       </c>
       <c r="F85">
-        <v>398356978.53</v>
+        <v>361871578.53</v>
       </c>
       <c r="G85">
-        <v>199178489.25</v>
+        <v>180935789.25</v>
       </c>
       <c r="H85">
         <v>86690597.73</v>
       </c>
       <c r="I85">
-        <v>112487891.55</v>
+        <v>94245191.55</v>
       </c>
       <c r="J85">
-        <v>233422679.046</v>
+        <v>225180481.9962</v>
       </c>
       <c r="K85">
-        <v>116696339.443</v>
+        <v>112575240.9181</v>
       </c>
       <c r="L85">
         <v>72104549.26000001</v>
       </c>
       <c r="M85">
-        <v>188800888.703</v>
+        <v>184679790.1781</v>
       </c>
       <c r="N85">
-        <v>44621790.34300001</v>
+        <v>40500691.81810001</v>
       </c>
       <c r="O85">
-        <v>116726339.603</v>
+        <v>112605241.0781</v>
       </c>
       <c r="P85">
         <v>12</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="F86">
-        <v>21873837790.62997</v>
+        <v>21873837790.63</v>
       </c>
       <c r="G86">
-        <v>10089615302.59995</v>
+        <v>10089615302.6</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>11784222488.03006</v>
+        <v>11784222488.03</v>
       </c>
       <c r="J86">
-        <v>12378012764.27002</v>
+        <v>12378012764.27</v>
       </c>
       <c r="K86">
-        <v>5731220687.339988</v>
+        <v>5731220687.34</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>5731220687.339988</v>
+        <v>5731220687.34</v>
       </c>
       <c r="N86">
-        <v>6646792076.929999</v>
+        <v>6646792076.93</v>
       </c>
       <c r="O86">
-        <v>6646792076.929999</v>
+        <v>6646792076.93</v>
       </c>
       <c r="P86">
         <v>2979</v>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>3728514788.890001</v>
+        <v>3728514788.89</v>
       </c>
       <c r="G87">
         <v>1739849983.29</v>
@@ -5319,25 +5319,25 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1988664805.599999</v>
+        <v>1988664805.6</v>
       </c>
       <c r="J87">
-        <v>1851459426.630001</v>
+        <v>1851459426.63</v>
       </c>
       <c r="K87">
-        <v>891807809.8199998</v>
+        <v>891807809.8200001</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>891807809.8199998</v>
+        <v>891807809.8200001</v>
       </c>
       <c r="N87">
-        <v>959651616.809999</v>
+        <v>959651616.8099999</v>
       </c>
       <c r="O87">
-        <v>959651616.809999</v>
+        <v>959651616.8099999</v>
       </c>
       <c r="P87">
         <v>985</v>
@@ -5371,31 +5371,31 @@
         <v>14026631576.82</v>
       </c>
       <c r="G88">
-        <v>4271497533.959994</v>
+        <v>4271497533.96</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>9755134042.859993</v>
+        <v>9755134042.860001</v>
       </c>
       <c r="J88">
-        <v>6096337527.240003</v>
+        <v>6096337527.24</v>
       </c>
       <c r="K88">
-        <v>1870008618.739999</v>
+        <v>1870008618.74</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1870008618.739999</v>
+        <v>1870008618.74</v>
       </c>
       <c r="N88">
-        <v>4226328908.500001</v>
+        <v>4226328908.5</v>
       </c>
       <c r="O88">
-        <v>4226328908.500001</v>
+        <v>4226328908.5</v>
       </c>
       <c r="P88">
         <v>776</v>
@@ -5450,10 +5450,10 @@
         <v>2957343190.26</v>
       </c>
       <c r="N89">
-        <v>4140375471.690001</v>
+        <v>4140375471.69</v>
       </c>
       <c r="O89">
-        <v>4140375471.690001</v>
+        <v>4140375471.69</v>
       </c>
       <c r="P89">
         <v>435</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="F90">
-        <v>651673248.9200002</v>
+        <v>651673248.92</v>
       </c>
       <c r="G90">
-        <v>553922261.4200001</v>
+        <v>553922261.42</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>97750987.49999997</v>
+        <v>97750987.5</v>
       </c>
       <c r="J90">
         <v>559653233.5599999</v>
@@ -5508,10 +5508,10 @@
         <v>475705248.03</v>
       </c>
       <c r="N90">
-        <v>83947985.53000002</v>
+        <v>83947985.53</v>
       </c>
       <c r="O90">
-        <v>83947985.53000002</v>
+        <v>83947985.53</v>
       </c>
       <c r="P90">
         <v>198</v>
@@ -5569,7 +5569,7 @@
         <v>-5.820766091346741e-11</v>
       </c>
       <c r="O91">
-        <v>21477223.61999999</v>
+        <v>21477223.62</v>
       </c>
       <c r="P91">
         <v>22</v>
@@ -5600,7 +5600,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>905286132.2999998</v>
+        <v>905286132.3</v>
       </c>
       <c r="G92">
         <v>388766228.9</v>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="F93">
-        <v>9831635171.099997</v>
+        <v>9831635171.1</v>
       </c>
       <c r="G93">
-        <v>8105729400.970006</v>
+        <v>8105729400.97</v>
       </c>
       <c r="H93">
         <v>1498038093.78</v>
@@ -5670,22 +5670,22 @@
         <v>227867676.35</v>
       </c>
       <c r="J93">
-        <v>3986257279.029999</v>
+        <v>3986257279.03</v>
       </c>
       <c r="K93">
-        <v>3327674460.009997</v>
+        <v>3327674460.01</v>
       </c>
       <c r="L93">
         <v>543810396.35</v>
       </c>
       <c r="M93">
-        <v>3871484856.359998</v>
+        <v>3871484856.36</v>
       </c>
       <c r="N93">
         <v>114772422.67</v>
       </c>
       <c r="O93">
-        <v>658582819.0199997</v>
+        <v>658582819.02</v>
       </c>
       <c r="P93">
         <v>359</v>
@@ -5719,7 +5719,7 @@
         <v>5326280092.85</v>
       </c>
       <c r="G94">
-        <v>2270613176.409999</v>
+        <v>2270613176.41</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5740,10 +5740,10 @@
         <v>1867426602.97</v>
       </c>
       <c r="N94">
-        <v>2525053335.169999</v>
+        <v>2525053335.17</v>
       </c>
       <c r="O94">
-        <v>2525053335.169999</v>
+        <v>2525053335.17</v>
       </c>
       <c r="P94">
         <v>519</v>
@@ -5777,13 +5777,13 @@
         <v>18349546854.65</v>
       </c>
       <c r="G95">
-        <v>15272946652.61001</v>
+        <v>15272946652.61</v>
       </c>
       <c r="H95">
         <v>157676635.57</v>
       </c>
       <c r="I95">
-        <v>2918923566.469999</v>
+        <v>2918923566.47</v>
       </c>
       <c r="J95">
         <v>14163267078.88</v>
@@ -5832,19 +5832,19 @@
         </is>
       </c>
       <c r="F96">
-        <v>8893799399.169996</v>
+        <v>8893799399.17</v>
       </c>
       <c r="G96">
-        <v>7959055034.890014</v>
+        <v>7959055034.89</v>
       </c>
       <c r="H96">
-        <v>694901644.5900003</v>
+        <v>694901644.59</v>
       </c>
       <c r="I96">
-        <v>239842719.6900001</v>
+        <v>239842719.69</v>
       </c>
       <c r="J96">
-        <v>4956227103.339997</v>
+        <v>4956227103.34</v>
       </c>
       <c r="K96">
         <v>4417917345.65</v>
@@ -5853,13 +5853,13 @@
         <v>418097698.11</v>
       </c>
       <c r="M96">
-        <v>4836015043.759995</v>
+        <v>4836015043.76</v>
       </c>
       <c r="N96">
         <v>120212059.58</v>
       </c>
       <c r="O96">
-        <v>538309757.6900004</v>
+        <v>538309757.6899999</v>
       </c>
       <c r="P96">
         <v>2170</v>
@@ -5893,7 +5893,7 @@
         <v>1408751778.51</v>
       </c>
       <c r="G97">
-        <v>1233418481.789999</v>
+        <v>1233418481.79</v>
       </c>
       <c r="H97">
         <v>148955531.53</v>
@@ -5902,10 +5902,10 @@
         <v>26377765.19</v>
       </c>
       <c r="J97">
-        <v>824017390.1999999</v>
+        <v>824017390.2</v>
       </c>
       <c r="K97">
-        <v>747857806.5000001</v>
+        <v>747857806.5</v>
       </c>
       <c r="L97">
         <v>69943217.55</v>
@@ -5948,34 +5948,34 @@
         </is>
       </c>
       <c r="F98">
-        <v>6811909332.823119</v>
+        <v>6646377378.155512</v>
       </c>
       <c r="G98">
-        <v>5830870989.732</v>
+        <v>5690069217.4907</v>
       </c>
       <c r="H98">
-        <v>981038343.091117</v>
+        <v>956308160.6648117</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>4461369020.399628</v>
+        <v>4448252962.684327</v>
       </c>
       <c r="K98">
-        <v>3827676174.716684</v>
+        <v>3816520597.389528</v>
       </c>
       <c r="L98">
-        <v>633692845.6829438</v>
+        <v>631732365.2947991</v>
       </c>
       <c r="M98">
-        <v>4461369020.399628</v>
+        <v>4448252962.684327</v>
       </c>
       <c r="N98">
-        <v>2.511660568416119e-08</v>
+        <v>2.371962182223797e-08</v>
       </c>
       <c r="O98">
-        <v>633692845.6829439</v>
+        <v>631732365.2947991</v>
       </c>
       <c r="P98">
         <v>547</v>
@@ -6012,7 +6012,7 @@
         <v>1389246042.95</v>
       </c>
       <c r="H99">
-        <v>262591784.2000001</v>
+        <v>262591784.2</v>
       </c>
       <c r="I99">
         <v>11400478.38</v>
@@ -6021,19 +6021,19 @@
         <v>1068126581.46</v>
       </c>
       <c r="K99">
-        <v>894579843.6700002</v>
+        <v>894579843.67</v>
       </c>
       <c r="L99">
-        <v>166479005.0599999</v>
+        <v>166479005.06</v>
       </c>
       <c r="M99">
         <v>1061058848.73</v>
       </c>
       <c r="N99">
-        <v>7067732.729999995</v>
+        <v>7067732.729999997</v>
       </c>
       <c r="O99">
-        <v>173546737.7899999</v>
+        <v>173546737.79</v>
       </c>
       <c r="P99">
         <v>213</v>
@@ -6064,37 +6064,37 @@
         </is>
       </c>
       <c r="F100">
-        <v>290719094.7418823</v>
+        <v>627910753.4092765</v>
       </c>
       <c r="G100">
-        <v>248936276.6179999</v>
+        <v>535449575.6867</v>
       </c>
       <c r="H100">
-        <v>41782818.12388237</v>
+        <v>92461177.72257647</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>21411081.13037389</v>
+        <v>465191724.6450748</v>
       </c>
       <c r="K100">
-        <v>19716847.0653178</v>
+        <v>396923465.6961635</v>
       </c>
       <c r="L100">
-        <v>1694234.065056084</v>
+        <v>68268258.94891122</v>
       </c>
       <c r="M100">
-        <v>21411081.13037389</v>
+        <v>465191724.6450748</v>
       </c>
       <c r="N100">
-        <v>5.238689482212067e-10</v>
+        <v>-1.763692125678062e-08</v>
       </c>
       <c r="O100">
-        <v>1694234.065056084</v>
+        <v>68268258.94891122</v>
       </c>
       <c r="P100">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
@@ -6109,65 +6109,65 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F101">
-        <v>502723613.335</v>
+        <v>2969496067.78</v>
       </c>
       <c r="G101">
-        <v>427315071.3099999</v>
+        <v>2225341410.4</v>
       </c>
       <c r="H101">
-        <v>75408542.02499999</v>
+        <v>740507713.37</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3646944.01</v>
       </c>
       <c r="J101">
-        <v>456896701.23</v>
+        <v>2430373169.75</v>
       </c>
       <c r="K101">
-        <v>388362195.958</v>
+        <v>1829131713.5</v>
       </c>
       <c r="L101">
-        <v>68534505.27200001</v>
+        <v>597598968.1900001</v>
       </c>
       <c r="M101">
-        <v>456896701.23</v>
+        <v>2426730681.69</v>
       </c>
       <c r="N101">
-        <v>-1.676380634307861e-08</v>
+        <v>3642488.06000001</v>
       </c>
       <c r="O101">
-        <v>68534505.272</v>
+        <v>601241456.25</v>
       </c>
       <c r="P101">
-        <v>20</v>
+        <v>778</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Risk prevention and management of non-climate related natural risks (i.e. earthquakes) and risks linked to human activities (e.g. technological accidents), including awareness raising, civil protection and disaster management systems and infrastructures</t>
+          <t>Rehabilitation of industrial sites and contaminated land</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IV.4.088</t>
+          <t>IV.4.089</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6180,48 +6180,48 @@
         </is>
       </c>
       <c r="F102">
-        <v>2969496067.780002</v>
+        <v>3588144817.36</v>
       </c>
       <c r="G102">
-        <v>2225341410.400001</v>
+        <v>3048773666.82</v>
       </c>
       <c r="H102">
-        <v>740507713.3700004</v>
+        <v>202098364.43</v>
       </c>
       <c r="I102">
-        <v>3646944.01</v>
+        <v>337272786.11</v>
       </c>
       <c r="J102">
-        <v>2430373169.75</v>
+        <v>1878355234.79</v>
       </c>
       <c r="K102">
-        <v>1829131713.500001</v>
+        <v>1595337356.3</v>
       </c>
       <c r="L102">
-        <v>597598968.1899998</v>
+        <v>153430940.88</v>
       </c>
       <c r="M102">
-        <v>2426730681.690001</v>
+        <v>1748768297.18</v>
       </c>
       <c r="N102">
-        <v>3642488.060000013</v>
+        <v>129586937.61</v>
       </c>
       <c r="O102">
-        <v>601241456.2499999</v>
+        <v>283017878.49</v>
       </c>
       <c r="P102">
-        <v>778</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rehabilitation of industrial sites and contaminated land</t>
+          <t>Protection, development and promotion of public tourism assets</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IV.4.089</t>
+          <t>IV.4.092</t>
         </is>
       </c>
       <c r="C103">
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>13716484.86</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>13716484.86</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6250,16 +6250,16 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>7936095.15</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>7936095.15</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>7936095.15</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6268,76 +6268,76 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rehabilitation of industrial sites and contaminated land</t>
+          <t>Protection, development and promotion of public cultural and heritage assets</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IV.4.089</t>
+          <t>IV.4.094</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F104">
-        <v>3588144817.360001</v>
+        <v>15173658684.73</v>
       </c>
       <c r="G104">
-        <v>3048773666.82</v>
+        <v>12897609881.38</v>
       </c>
       <c r="H104">
-        <v>202098364.43</v>
+        <v>1881837568.37</v>
       </c>
       <c r="I104">
-        <v>337272786.11</v>
+        <v>394211234.98</v>
       </c>
       <c r="J104">
-        <v>1878355234.79</v>
+        <v>8287583119.21</v>
       </c>
       <c r="K104">
-        <v>1595337356.3</v>
+        <v>7044445647.16</v>
       </c>
       <c r="L104">
-        <v>153430940.8799999</v>
+        <v>1033633036.03</v>
       </c>
       <c r="M104">
-        <v>1748768297.18</v>
+        <v>8078078683.19</v>
       </c>
       <c r="N104">
-        <v>129586937.61</v>
+        <v>209504436.02</v>
       </c>
       <c r="O104">
-        <v>283017878.49</v>
+        <v>1243137472.05</v>
       </c>
       <c r="P104">
-        <v>116</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public tourism assets</t>
+          <t>Protection, development and promotion of public cultural and heritage assets</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IV.4.092</t>
+          <t>IV.4.094</t>
         </is>
       </c>
       <c r="C105">
@@ -6354,34 +6354,34 @@
         </is>
       </c>
       <c r="F105">
-        <v>13716484.86</v>
+        <v>46016416.22</v>
       </c>
       <c r="G105">
-        <v>13716484.86</v>
+        <v>4601641.62</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>41414774.6</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>7936095.15</v>
+        <v>32594111.23</v>
       </c>
       <c r="K105">
-        <v>7936095.15</v>
+        <v>3259411.23</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>29334700</v>
       </c>
       <c r="M105">
-        <v>7936095.15</v>
+        <v>32594111.23</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>29334700</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -6390,12 +6390,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public cultural and heritage assets</t>
+          <t>Institutional capacity of public administrations and public services related to implementation of the ERDF or actions supporting ESF institutional capacity initiatives</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IV.4.094</t>
+          <t>IV.5.096</t>
         </is>
       </c>
       <c r="C106">
@@ -6412,48 +6412,48 @@
         </is>
       </c>
       <c r="F106">
-        <v>15173658684.73</v>
+        <v>230538791.4</v>
       </c>
       <c r="G106">
-        <v>12897609881.38</v>
+        <v>195957972.67</v>
       </c>
       <c r="H106">
-        <v>1881837568.37</v>
+        <v>34580818.73</v>
       </c>
       <c r="I106">
-        <v>394211234.9800002</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>8287583119.210001</v>
+        <v>219403581.96</v>
       </c>
       <c r="K106">
-        <v>7044445647.160006</v>
+        <v>186493044.53</v>
       </c>
       <c r="L106">
-        <v>1033633036.03</v>
+        <v>32910537.43</v>
       </c>
       <c r="M106">
-        <v>8078078683.190001</v>
+        <v>219403581.96</v>
       </c>
       <c r="N106">
-        <v>209504436.0200001</v>
+        <v>-9.895302355289459e-10</v>
       </c>
       <c r="O106">
-        <v>1243137472.050001</v>
+        <v>32910537.43</v>
       </c>
       <c r="P106">
-        <v>246</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Protection, development and promotion of public cultural and heritage assets</t>
+          <t>Community-led local development initiatives in urban and rural areas</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IV.4.094</t>
+          <t>IV.5.097</t>
         </is>
       </c>
       <c r="C107">
@@ -6461,57 +6461,57 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F107">
-        <v>46016416.22</v>
+        <v>6808963675.88</v>
       </c>
       <c r="G107">
-        <v>4601641.62</v>
+        <v>6468515487.37</v>
       </c>
       <c r="H107">
-        <v>41414774.6</v>
+        <v>189007502.14</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>151440686.37</v>
       </c>
       <c r="J107">
-        <v>32594111.23</v>
+        <v>4579057617.03</v>
       </c>
       <c r="K107">
-        <v>3259411.23</v>
+        <v>4350104727.4</v>
       </c>
       <c r="L107">
-        <v>29334700</v>
+        <v>136296862.04</v>
       </c>
       <c r="M107">
-        <v>32594111.23</v>
+        <v>4486401589.44</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>92656027.59</v>
       </c>
       <c r="O107">
-        <v>29334700</v>
+        <v>228952889.63</v>
       </c>
       <c r="P107">
-        <v>1</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Institutional capacity of public administrations and public services related to implementation of the ERDF or actions supporting ESF institutional capacity initiatives</t>
+          <t>Preparation, implementation, monitoring and inspection</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IV.5.096</t>
+          <t>IX.0.121</t>
         </is>
       </c>
       <c r="C108">
@@ -6528,48 +6528,48 @@
         </is>
       </c>
       <c r="F108">
-        <v>230538791.4</v>
+        <v>2680630366.32</v>
       </c>
       <c r="G108">
-        <v>195957972.67</v>
+        <v>2278535811.3</v>
       </c>
       <c r="H108">
-        <v>34580818.72999999</v>
+        <v>402094555.02</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>219403581.96</v>
+        <v>2177986953.56</v>
       </c>
       <c r="K108">
-        <v>186493044.53</v>
+        <v>1851288904.61</v>
       </c>
       <c r="L108">
-        <v>32910537.42999998</v>
+        <v>326698048.95</v>
       </c>
       <c r="M108">
-        <v>219403581.96</v>
+        <v>2177986953.56</v>
       </c>
       <c r="N108">
-        <v>-9.313225746154785e-10</v>
+        <v>1.282896846532822e-07</v>
       </c>
       <c r="O108">
-        <v>32910537.42999998</v>
+        <v>326698048.95</v>
       </c>
       <c r="P108">
-        <v>187</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Community-led local development initiatives in urban and rural areas</t>
+          <t>Preparation, implementation, monitoring and inspection</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IV.5.097</t>
+          <t>IX.0.121</t>
         </is>
       </c>
       <c r="C109">
@@ -6577,46 +6577,46 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F109">
-        <v>6810742517.820005</v>
+        <v>1386549434.198917</v>
       </c>
       <c r="G109">
-        <v>6470205387.210009</v>
+        <v>1178567019.06512</v>
       </c>
       <c r="H109">
-        <v>189096444.2400001</v>
+        <v>207982415.1337969</v>
       </c>
       <c r="I109">
-        <v>151440686.3699999</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>4579057617.029996</v>
+        <v>667043452.7020456</v>
       </c>
       <c r="K109">
-        <v>4350104727.399992</v>
+        <v>566986934.3596168</v>
       </c>
       <c r="L109">
-        <v>136296862.04</v>
+        <v>100056518.3424289</v>
       </c>
       <c r="M109">
-        <v>4486401589.439997</v>
+        <v>667043452.7020457</v>
       </c>
       <c r="N109">
-        <v>92656027.58999997</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="O109">
-        <v>228952889.6300006</v>
+        <v>100056518.3424288</v>
       </c>
       <c r="P109">
-        <v>2286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -6635,46 +6635,46 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F110">
-        <v>2690312336.090001</v>
+        <v>3450692080.84</v>
       </c>
       <c r="G110">
-        <v>2286765485.6</v>
+        <v>2933088268.69</v>
       </c>
       <c r="H110">
-        <v>403546850.49</v>
+        <v>517603812.15</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2177986953.559999</v>
+        <v>1804384043.97</v>
       </c>
       <c r="K110">
-        <v>1851288904.61</v>
+        <v>1533726436.44</v>
       </c>
       <c r="L110">
-        <v>326698048.95</v>
+        <v>270657607.53</v>
       </c>
       <c r="M110">
-        <v>2177986953.559999</v>
+        <v>1804384043.97</v>
       </c>
       <c r="N110">
-        <v>2.465676516294479e-07</v>
+        <v>7.470953278243542e-08</v>
       </c>
       <c r="O110">
-        <v>326698048.9500002</v>
+        <v>270657607.53</v>
       </c>
       <c r="P110">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
@@ -6693,46 +6693,46 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F111">
-        <v>1433741977.476442</v>
+        <v>101238534.65</v>
       </c>
       <c r="G111">
-        <v>1218680680.850996</v>
+        <v>50619267.325</v>
       </c>
       <c r="H111">
-        <v>215061296.6254459</v>
+        <v>50619267.325</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>676695220.5491511</v>
+        <v>60990270.40975587</v>
       </c>
       <c r="K111">
-        <v>575190936.9125552</v>
+        <v>30495135.19737794</v>
       </c>
       <c r="L111">
-        <v>101504283.6365959</v>
+        <v>30495135.21237794</v>
       </c>
       <c r="M111">
-        <v>676695220.5491511</v>
+        <v>60990270.40975587</v>
       </c>
       <c r="N111">
-        <v>-5.960464477539062e-08</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>101504283.6365959</v>
+        <v>30495135.21237794</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -6751,46 +6751,46 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F112">
-        <v>3450692080.84</v>
+        <v>6711814951.635523</v>
       </c>
       <c r="G112">
-        <v>2933088268.69</v>
+        <v>5705042708.398486</v>
       </c>
       <c r="H112">
-        <v>517603812.15</v>
+        <v>1006772243.237037</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1804384043.97</v>
+        <v>4972045251.981658</v>
       </c>
       <c r="K112">
-        <v>1533726436.44</v>
+        <v>4226238459.135158</v>
       </c>
       <c r="L112">
-        <v>270657607.53</v>
+        <v>745806792.8464999</v>
       </c>
       <c r="M112">
-        <v>1804384043.97</v>
+        <v>4972045251.981658</v>
       </c>
       <c r="N112">
-        <v>8.961069397628307e-08</v>
+        <v>1.897569745735501e-08</v>
       </c>
       <c r="O112">
-        <v>270657607.53</v>
+        <v>745806792.8465</v>
       </c>
       <c r="P112">
-        <v>40</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
@@ -6809,46 +6809,46 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F113">
-        <v>202477069.4</v>
+        <v>2768928301.550467</v>
       </c>
       <c r="G113">
-        <v>101238534.7</v>
+        <v>2246985316.585381</v>
       </c>
       <c r="H113">
-        <v>101238534.7</v>
+        <v>521942984.9650859</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>121980540.8797559</v>
+        <v>2292029028.970318</v>
       </c>
       <c r="K113">
-        <v>60990270.42487793</v>
+        <v>1859981555.954268</v>
       </c>
       <c r="L113">
-        <v>60990270.45487794</v>
+        <v>432047473.0160509</v>
       </c>
       <c r="M113">
-        <v>121980540.8797559</v>
+        <v>2292029028.970318</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>-1.074907334997331e-08</v>
       </c>
       <c r="O113">
-        <v>60990270.45487794</v>
+        <v>432047473.0160509</v>
       </c>
       <c r="P113">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -6867,46 +6867,46 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F114">
-        <v>6745660045.340001</v>
+        <v>2493912236.804373</v>
       </c>
       <c r="G114">
-        <v>5733811038.043729</v>
+        <v>2053050901.1368</v>
       </c>
       <c r="H114">
-        <v>1011849007.296275</v>
+        <v>440861335.667573</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>4980172949.864326</v>
+        <v>1814052445.104013</v>
       </c>
       <c r="K114">
-        <v>4233147002.274005</v>
+        <v>1493373323.92544</v>
       </c>
       <c r="L114">
-        <v>747025947.5903245</v>
+        <v>320679121.1785731</v>
       </c>
       <c r="M114">
-        <v>4980172949.864326</v>
+        <v>1814052445.104013</v>
       </c>
       <c r="N114">
-        <v>2.6007182895847e-08</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>747025947.5903245</v>
+        <v>320679121.1785731</v>
       </c>
       <c r="P114">
-        <v>220</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -6925,57 +6925,57 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F115">
-        <v>2784941225.807066</v>
+        <v>2843692131.13</v>
       </c>
       <c r="G115">
-        <v>2259979804.597754</v>
+        <v>2417138311.45</v>
       </c>
       <c r="H115">
-        <v>524961421.2093127</v>
+        <v>426553819.68</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>2298738360.858805</v>
+        <v>1936934838.5</v>
       </c>
       <c r="K115">
-        <v>1865426178.555698</v>
+        <v>1646394611.94</v>
       </c>
       <c r="L115">
-        <v>433312182.3031067</v>
+        <v>290540226.56</v>
       </c>
       <c r="M115">
-        <v>2298738360.858805</v>
+        <v>1936934838.5</v>
       </c>
       <c r="N115">
-        <v>3.95259121400542e-09</v>
+        <v>5.238689482212067e-10</v>
       </c>
       <c r="O115">
-        <v>433312182.3031068</v>
+        <v>290540226.56</v>
       </c>
       <c r="P115">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Preparation, implementation, monitoring and inspection</t>
+          <t>Evaluation and studies</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>IX.0.121</t>
+          <t>IX.0.122</t>
         </is>
       </c>
       <c r="C116">
@@ -6983,57 +6983,57 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F116">
-        <v>2503186510.002429</v>
+        <v>30250000</v>
       </c>
       <c r="G116">
-        <v>2060685714.69</v>
+        <v>25712500</v>
       </c>
       <c r="H116">
-        <v>442500795.3124294</v>
+        <v>4537500</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1814929043.71423</v>
+        <v>6651007</v>
       </c>
       <c r="K116">
-        <v>1494094961.809189</v>
+        <v>5653355.95</v>
       </c>
       <c r="L116">
-        <v>320834081.9050406</v>
+        <v>997651.05</v>
       </c>
       <c r="M116">
-        <v>1814929043.71423</v>
+        <v>6651007</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116">
-        <v>320834081.9050406</v>
+        <v>997651.0499999998</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Preparation, implementation, monitoring and inspection</t>
+          <t>Evaluation and studies</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>IX.0.121</t>
+          <t>IX.0.122</t>
         </is>
       </c>
       <c r="C117">
@@ -7041,46 +7041,46 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F117">
-        <v>2843692131.13</v>
+        <v>1145990.441005943</v>
       </c>
       <c r="G117">
-        <v>2417138311.45</v>
+        <v>974091.8748550513</v>
       </c>
       <c r="H117">
-        <v>426553819.6799999</v>
+        <v>171898.5661508914</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1936934838.5</v>
+        <v>222618.3633435677</v>
       </c>
       <c r="K117">
-        <v>1646394611.94</v>
+        <v>189225.605824132</v>
       </c>
       <c r="L117">
-        <v>290540226.56</v>
+        <v>33392.75751943575</v>
       </c>
       <c r="M117">
-        <v>1936934838.5</v>
+        <v>222618.3633435677</v>
       </c>
       <c r="N117">
-        <v>5.238689482212067e-10</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>290540226.5600001</v>
+        <v>33392.75751943573</v>
       </c>
       <c r="P117">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -7099,46 +7099,46 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F118">
-        <v>30250000</v>
+        <v>46000000</v>
       </c>
       <c r="G118">
-        <v>25712500</v>
+        <v>39100000</v>
       </c>
       <c r="H118">
-        <v>4537500</v>
+        <v>6900000</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>6651007</v>
+        <v>20818909.3</v>
       </c>
       <c r="K118">
-        <v>5653355.95</v>
+        <v>17696072.89</v>
       </c>
       <c r="L118">
-        <v>997651.05</v>
+        <v>3122836.41</v>
       </c>
       <c r="M118">
-        <v>6651007</v>
+        <v>20818909.3</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118">
-        <v>997651.0499999998</v>
+        <v>3122836.410000001</v>
       </c>
       <c r="P118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -7157,43 +7157,43 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F119">
-        <v>15763279.79132719</v>
+        <v>101238534.85</v>
       </c>
       <c r="G119">
-        <v>13398787.82262811</v>
+        <v>50619267.42500001</v>
       </c>
       <c r="H119">
-        <v>2364491.968699078</v>
+        <v>50619267.42500001</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>3062150.802053501</v>
+        <v>60990270.53024413</v>
       </c>
       <c r="K119">
-        <v>2602828.140233776</v>
+        <v>30495135.25762206</v>
       </c>
       <c r="L119">
-        <v>459322.6618197252</v>
+        <v>30495135.27262206</v>
       </c>
       <c r="M119">
-        <v>3062150.802053501</v>
+        <v>60990270.53024413</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>459322.661819725</v>
+        <v>30495135.27262206</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -7215,46 +7215,46 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F120">
-        <v>46000000</v>
+        <v>148390674.7655257</v>
       </c>
       <c r="G120">
-        <v>39100000</v>
+        <v>126132073.5110381</v>
       </c>
       <c r="H120">
-        <v>6900000</v>
+        <v>22258601.2544876</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>20818909.3</v>
+        <v>106489357.2430015</v>
       </c>
       <c r="K120">
-        <v>17696072.89</v>
+        <v>90515953.01715001</v>
       </c>
       <c r="L120">
-        <v>3122836.41</v>
+        <v>15973404.22585147</v>
       </c>
       <c r="M120">
-        <v>20818909.3</v>
+        <v>106489357.2430015</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>-2.095475791433605e-10</v>
       </c>
       <c r="O120">
-        <v>3122836.410000001</v>
+        <v>15973404.22585147</v>
       </c>
       <c r="P120">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
@@ -7273,46 +7273,46 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F121">
-        <v>202477069.6</v>
+        <v>206625916.0047249</v>
       </c>
       <c r="G121">
-        <v>101238534.8</v>
+        <v>167676930.8301142</v>
       </c>
       <c r="H121">
-        <v>101238534.8</v>
+        <v>38948985.17461069</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>121980541.0002441</v>
+        <v>120810788.8982811</v>
       </c>
       <c r="K121">
-        <v>60990270.48512206</v>
+        <v>98037954.98348035</v>
       </c>
       <c r="L121">
-        <v>60990270.51512206</v>
+        <v>22772833.91480074</v>
       </c>
       <c r="M121">
-        <v>121980541.0002441</v>
+        <v>120810788.8982811</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>-6.378628407979705e-12</v>
       </c>
       <c r="O121">
-        <v>60990270.51512206</v>
+        <v>22772833.91480074</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -7331,46 +7331,46 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F122">
-        <v>159124338.4700013</v>
+        <v>159300000</v>
       </c>
       <c r="G122">
-        <v>135255687.6562761</v>
+        <v>131139742.5</v>
       </c>
       <c r="H122">
-        <v>23868650.8137252</v>
+        <v>28160257.5</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>114617055.1256717</v>
+        <v>91560448.93000001</v>
       </c>
       <c r="K122">
-        <v>97424496.15599594</v>
+        <v>75374850.44</v>
       </c>
       <c r="L122">
-        <v>17192558.96967575</v>
+        <v>16185598.49</v>
       </c>
       <c r="M122">
-        <v>114617055.1256717</v>
+        <v>91560448.93000001</v>
       </c>
       <c r="N122">
-        <v>4.027970135502189e-09</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>17192558.96967576</v>
+        <v>16185598.49</v>
       </c>
       <c r="P122">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -7389,57 +7389,57 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F123">
-        <v>215331487.4006038</v>
+        <v>25694229</v>
       </c>
       <c r="G123">
-        <v>174741502.0129705</v>
+        <v>21840094.65</v>
       </c>
       <c r="H123">
-        <v>40589985.38763332</v>
+        <v>3854134.35</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>125076667.7678016</v>
+        <v>9520879</v>
       </c>
       <c r="K123">
-        <v>101499715.6290777</v>
+        <v>8092747.15</v>
       </c>
       <c r="L123">
-        <v>23576952.13872395</v>
+        <v>1428131.85</v>
       </c>
       <c r="M123">
-        <v>125076667.7678016</v>
+        <v>9520879</v>
       </c>
       <c r="N123">
-        <v>-9.778887100461772e-11</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>23576952.13872395</v>
+        <v>1428131.85</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Evaluation and studies</t>
+          <t>Information and communication</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>IX.0.122</t>
+          <t>IX.0.123</t>
         </is>
       </c>
       <c r="C124">
@@ -7447,57 +7447,57 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F124">
-        <v>159300000</v>
+        <v>130722363.51</v>
       </c>
       <c r="G124">
-        <v>131139742.5</v>
+        <v>111114008.94</v>
       </c>
       <c r="H124">
-        <v>28160257.5</v>
+        <v>19608354.57</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>91560448.93000001</v>
+        <v>84894102.2</v>
       </c>
       <c r="K124">
-        <v>75374850.44</v>
+        <v>72159986.73999999</v>
       </c>
       <c r="L124">
-        <v>16185598.49</v>
+        <v>12734115.46</v>
       </c>
       <c r="M124">
-        <v>91560448.93000001</v>
+        <v>84894102.2</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>-1.688022166490555e-09</v>
       </c>
       <c r="O124">
-        <v>16185598.49</v>
+        <v>12734115.46</v>
       </c>
       <c r="P124">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Evaluation and studies</t>
+          <t>Information and communication</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>IX.0.122</t>
+          <t>IX.0.123</t>
         </is>
       </c>
       <c r="C125">
@@ -7505,46 +7505,46 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F125">
-        <v>25694229</v>
+        <v>9870673.542033385</v>
       </c>
       <c r="G125">
-        <v>21840094.65</v>
+        <v>8390072.510728274</v>
       </c>
       <c r="H125">
-        <v>3854134.35</v>
+        <v>1480601.031305112</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>9520879</v>
+        <v>1919944.218409765</v>
       </c>
       <c r="K125">
-        <v>8092747.15</v>
+        <v>1631952.559691238</v>
       </c>
       <c r="L125">
-        <v>1428131.85</v>
+        <v>287991.6587185279</v>
       </c>
       <c r="M125">
-        <v>9520879</v>
+        <v>1919944.218409765</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
-        <v>1428131.85</v>
+        <v>287991.6587185278</v>
       </c>
       <c r="P125">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -7563,46 +7563,46 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F126">
-        <v>130722363.51</v>
+        <v>153452655</v>
       </c>
       <c r="G126">
-        <v>111114008.94</v>
+        <v>130434756.75</v>
       </c>
       <c r="H126">
-        <v>19608354.57</v>
+        <v>23017898.25</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>84894102.2</v>
+        <v>13865484.01</v>
       </c>
       <c r="K126">
-        <v>72159986.73999999</v>
+        <v>11785661.23</v>
       </c>
       <c r="L126">
-        <v>12734115.46</v>
+        <v>2079822.78</v>
       </c>
       <c r="M126">
-        <v>84894102.2</v>
+        <v>13865484.01</v>
       </c>
       <c r="N126">
-        <v>-1.688022166490555e-09</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="O126">
-        <v>12734115.46</v>
+        <v>2079822.78</v>
       </c>
       <c r="P126">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -7621,46 +7621,46 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F127">
-        <v>49167389.97223071</v>
+        <v>63990000</v>
       </c>
       <c r="G127">
-        <v>41792281.47637571</v>
+        <v>31995000</v>
       </c>
       <c r="H127">
-        <v>7375108.495855007</v>
+        <v>31995000</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>10037880.72879545</v>
+        <v>22004553.98</v>
       </c>
       <c r="K127">
-        <v>8532198.497211084</v>
+        <v>11002276.98</v>
       </c>
       <c r="L127">
-        <v>1505682.231584368</v>
+        <v>11002277</v>
       </c>
       <c r="M127">
-        <v>10037880.72879545</v>
+        <v>22004553.98</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127">
-        <v>1505682.231584367</v>
+        <v>11002277</v>
       </c>
       <c r="P127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -7679,46 +7679,46 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F128">
-        <v>153452655</v>
+        <v>324923585.51</v>
       </c>
       <c r="G128">
-        <v>130434756.75</v>
+        <v>276185047.68</v>
       </c>
       <c r="H128">
-        <v>23017898.25</v>
+        <v>48738537.83</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>13865484.01</v>
+        <v>166302357.69</v>
       </c>
       <c r="K128">
-        <v>11785661.23</v>
+        <v>141357005.16</v>
       </c>
       <c r="L128">
-        <v>2079822.78</v>
+        <v>24945352.53</v>
       </c>
       <c r="M128">
-        <v>13865484.01</v>
+        <v>166302357.69</v>
       </c>
       <c r="N128">
-        <v>-4.656612873077393e-10</v>
+        <v>7.450580596923828e-09</v>
       </c>
       <c r="O128">
-        <v>2079822.78</v>
+        <v>24945352.53</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -7737,46 +7737,46 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F129">
-        <v>63990000</v>
+        <v>75048473.01014222</v>
       </c>
       <c r="G129">
-        <v>31995000</v>
+        <v>60901835.81635918</v>
       </c>
       <c r="H129">
-        <v>31995000</v>
+        <v>14146637.19378304</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>22004553.98</v>
+        <v>56848104.69275411</v>
       </c>
       <c r="K129">
-        <v>11002276.98</v>
+        <v>46132236.79397041</v>
       </c>
       <c r="L129">
-        <v>11002277</v>
+        <v>10715867.8987837</v>
       </c>
       <c r="M129">
-        <v>22004553.98</v>
+        <v>56848104.69275411</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>-2.616230625334949e-10</v>
       </c>
       <c r="O129">
-        <v>11002277</v>
+        <v>10715867.8987837</v>
       </c>
       <c r="P129">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -7795,46 +7795,46 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F130">
-        <v>384039385.51</v>
+        <v>107631474.7995141</v>
       </c>
       <c r="G130">
-        <v>326433477.68</v>
+        <v>88604920.83679999</v>
       </c>
       <c r="H130">
-        <v>57605907.83</v>
+        <v>19026553.96271411</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>166302357.69</v>
+        <v>20598011.11555407</v>
       </c>
       <c r="K130">
-        <v>141357005.16</v>
+        <v>16956797.55706219</v>
       </c>
       <c r="L130">
-        <v>24945352.53</v>
+        <v>3641213.558491881</v>
       </c>
       <c r="M130">
-        <v>166302357.69</v>
+        <v>20598011.11555407</v>
       </c>
       <c r="N130">
-        <v>7.450580596923828e-09</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>24945352.53</v>
+        <v>3641213.558491881</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -7853,57 +7853,57 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F131">
-        <v>85195015.9823292</v>
+        <v>84552929</v>
       </c>
       <c r="G131">
-        <v>69135755.41927513</v>
+        <v>71869989.65000001</v>
       </c>
       <c r="H131">
-        <v>16059260.56305405</v>
+        <v>12682939.35</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>60118677.14339307</v>
+        <v>42497832.17</v>
       </c>
       <c r="K131">
-        <v>48786306.16522377</v>
+        <v>36123157.27</v>
       </c>
       <c r="L131">
-        <v>11332370.9781693</v>
+        <v>6374674.9</v>
       </c>
       <c r="M131">
-        <v>60118677.14339307</v>
+        <v>42497832.17</v>
       </c>
       <c r="N131">
-        <v>-6.097252470749983e-10</v>
+        <v>0</v>
       </c>
       <c r="O131">
-        <v>11332370.97816929</v>
+        <v>6374674.9</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Information and communication</t>
+          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>IX.0.123</t>
+          <t>V.0.102</t>
         </is>
       </c>
       <c r="C132">
@@ -7920,48 +7920,48 @@
         </is>
       </c>
       <c r="F132">
-        <v>116905747.9975705</v>
+        <v>22099717337.89532</v>
       </c>
       <c r="G132">
-        <v>96239734.39</v>
+        <v>18396268713.16977</v>
       </c>
       <c r="H132">
-        <v>20666013.60757053</v>
+        <v>3663186899.53496</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>40261725.19058929</v>
       </c>
       <c r="J132">
-        <v>21474609.72577037</v>
+        <v>16585915853.61491</v>
       </c>
       <c r="K132">
-        <v>17678435.44081096</v>
+        <v>13801577950.35632</v>
       </c>
       <c r="L132">
-        <v>3796174.284959407</v>
+        <v>2752695874.309149</v>
       </c>
       <c r="M132">
-        <v>21474609.72577037</v>
+        <v>16554273824.66547</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>31642028.94943859</v>
       </c>
       <c r="O132">
-        <v>3796174.284959406</v>
+        <v>2784337903.258588</v>
       </c>
       <c r="P132">
-        <v>2</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Information and communication</t>
+          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>IX.0.123</t>
+          <t>V.0.103</t>
         </is>
       </c>
       <c r="C133">
@@ -7969,57 +7969,57 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F133">
-        <v>84552929</v>
+        <v>872385691.8</v>
       </c>
       <c r="G133">
-        <v>71869989.65000001</v>
+        <v>801640767.72</v>
       </c>
       <c r="H133">
-        <v>12682939.35</v>
+        <v>70744924.08</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>42497832.17000001</v>
+        <v>743602746.49</v>
       </c>
       <c r="K133">
-        <v>36123157.27</v>
+        <v>683300846.3199999</v>
       </c>
       <c r="L133">
-        <v>6374674.899999999</v>
+        <v>60301900.17</v>
       </c>
       <c r="M133">
-        <v>42497832.17000001</v>
+        <v>743602746.49</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>-9.313225746154785e-10</v>
       </c>
       <c r="O133">
-        <v>6374674.9</v>
+        <v>60301900.17000002</v>
       </c>
       <c r="P133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>V.0.102</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C134">
@@ -8027,57 +8027,57 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F134">
-        <v>22477571272.52306</v>
+        <v>221087092.5</v>
       </c>
       <c r="G134">
-        <v>18739119837.96369</v>
+        <v>110543546.25</v>
       </c>
       <c r="H134">
-        <v>3694314304.545007</v>
+        <v>96841132.64</v>
       </c>
       <c r="I134">
-        <v>44137130.01436427</v>
+        <v>13702413.61</v>
       </c>
       <c r="J134">
-        <v>16833808272.94842</v>
+        <v>133283853.82</v>
       </c>
       <c r="K134">
-        <v>14026376534.9596</v>
+        <v>66641926.82</v>
       </c>
       <c r="L134">
-        <v>2772510828.137122</v>
+        <v>58950270.41</v>
       </c>
       <c r="M134">
-        <v>16798887363.09672</v>
+        <v>125592197.23</v>
       </c>
       <c r="N134">
-        <v>34920909.85169758</v>
+        <v>7691656.59</v>
       </c>
       <c r="O134">
-        <v>2807431737.988822</v>
+        <v>66641927</v>
       </c>
       <c r="P134">
-        <v>632</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>V.0.103</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C135">
@@ -8094,48 +8094,48 @@
         </is>
       </c>
       <c r="F135">
-        <v>872385691.8</v>
+        <v>8721546489.58</v>
       </c>
       <c r="G135">
-        <v>801640767.7200001</v>
+        <v>7036685505.66</v>
       </c>
       <c r="H135">
-        <v>70744924.08</v>
+        <v>1525697571.93</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>159163411.99</v>
       </c>
       <c r="J135">
-        <v>743602746.4900001</v>
+        <v>6481491235.44</v>
       </c>
       <c r="K135">
-        <v>683300846.3200001</v>
+        <v>5238806555.4</v>
       </c>
       <c r="L135">
-        <v>60301900.17</v>
+        <v>1120660681.92</v>
       </c>
       <c r="M135">
-        <v>743602746.4900001</v>
+        <v>6359467237.32</v>
       </c>
       <c r="N135">
-        <v>3.073364496231079e-08</v>
+        <v>122023998.12</v>
       </c>
       <c r="O135">
-        <v>60301900.17000005</v>
+        <v>1242684680.04</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.106</t>
         </is>
       </c>
       <c r="C136">
@@ -8143,57 +8143,57 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F136">
-        <v>221087092.5</v>
+        <v>12123125596.0798</v>
       </c>
       <c r="G136">
-        <v>110543546.25</v>
+        <v>9995679372.829149</v>
       </c>
       <c r="H136">
-        <v>96841132.64</v>
+        <v>1588349261.6875</v>
       </c>
       <c r="I136">
-        <v>13702413.61</v>
+        <v>539096961.5631499</v>
       </c>
       <c r="J136">
-        <v>133283853.82</v>
+        <v>7783385394.431849</v>
       </c>
       <c r="K136">
-        <v>66641926.82</v>
+        <v>6412525760.26545</v>
       </c>
       <c r="L136">
-        <v>58950270.41000001</v>
+        <v>1064575582.536</v>
       </c>
       <c r="M136">
-        <v>125592197.23</v>
+        <v>7477101342.80145</v>
       </c>
       <c r="N136">
-        <v>7691656.589999999</v>
+        <v>306284051.6304</v>
       </c>
       <c r="O136">
-        <v>66641927</v>
+        <v>1370859634.1664</v>
       </c>
       <c r="P136">
-        <v>54</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.108</t>
         </is>
       </c>
       <c r="C137">
@@ -8210,48 +8210,48 @@
         </is>
       </c>
       <c r="F137">
-        <v>8721546489.579994</v>
+        <v>2805288533.54</v>
       </c>
       <c r="G137">
-        <v>7036685505.660007</v>
+        <v>2311249169.78</v>
       </c>
       <c r="H137">
-        <v>1525697571.930004</v>
+        <v>494039363.76</v>
       </c>
       <c r="I137">
-        <v>159163411.9899999</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>6481491235.439994</v>
+        <v>1776560093.2</v>
       </c>
       <c r="K137">
-        <v>5238806555.400002</v>
+        <v>1463690094.36</v>
       </c>
       <c r="L137">
-        <v>1120660681.920002</v>
+        <v>312869998.84</v>
       </c>
       <c r="M137">
-        <v>6359467237.319998</v>
+        <v>1776560093.2</v>
       </c>
       <c r="N137">
-        <v>122023998.1200001</v>
+        <v>-1.117587089538574e-08</v>
       </c>
       <c r="O137">
-        <v>1242684680.040004</v>
+        <v>312869998.84</v>
       </c>
       <c r="P137">
-        <v>2953</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
+          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>V.0.106</t>
+          <t>VI.0.109</t>
         </is>
       </c>
       <c r="C138">
@@ -8268,48 +8268,48 @@
         </is>
       </c>
       <c r="F138">
-        <v>17003300281.43</v>
+        <v>12849833972.96255</v>
       </c>
       <c r="G138">
-        <v>14022271963.98499</v>
+        <v>10602088642.86489</v>
       </c>
       <c r="H138">
-        <v>2254579906.545001</v>
+        <v>2180233606.236572</v>
       </c>
       <c r="I138">
-        <v>726448410.8999983</v>
+        <v>67511723.86108568</v>
       </c>
       <c r="J138">
-        <v>10132600998.14999</v>
+        <v>9749530872.263128</v>
       </c>
       <c r="K138">
-        <v>8363360051.120006</v>
+        <v>8080598515.168733</v>
       </c>
       <c r="L138">
-        <v>1356143307.540001</v>
+        <v>1613412723.210778</v>
       </c>
       <c r="M138">
-        <v>9719503358.65999</v>
+        <v>9694011238.379511</v>
       </c>
       <c r="N138">
-        <v>413097639.4899995</v>
+        <v>55519633.88361719</v>
       </c>
       <c r="O138">
-        <v>1769240947.03</v>
+        <v>1668932357.094395</v>
       </c>
       <c r="P138">
-        <v>2886</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
+          <t>Socio-economic integration of marginalised communities such as the Roma</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>V.0.108</t>
+          <t>VI.0.110</t>
         </is>
       </c>
       <c r="C139">
@@ -8317,57 +8317,57 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F139">
-        <v>2805288533.54</v>
+        <v>4707084158.517385</v>
       </c>
       <c r="G139">
-        <v>2311249169.78</v>
+        <v>3915087278.748426</v>
       </c>
       <c r="H139">
-        <v>494039363.76</v>
+        <v>746623135.9989583</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>45373743.77</v>
       </c>
       <c r="J139">
-        <v>1776560093.2</v>
+        <v>2699349027.157565</v>
       </c>
       <c r="K139">
-        <v>1463690094.36</v>
+        <v>2254951023.017003</v>
       </c>
       <c r="L139">
-        <v>312869998.84</v>
+        <v>401975053.7105613</v>
       </c>
       <c r="M139">
-        <v>1776560093.2</v>
+        <v>2656926076.727564</v>
       </c>
       <c r="N139">
-        <v>-1.117587089538574e-08</v>
+        <v>42422950.43</v>
       </c>
       <c r="O139">
-        <v>312869998.84</v>
+        <v>444398004.1405613</v>
       </c>
       <c r="P139">
-        <v>14</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
+          <t>Combating all forms of discrimination and promoting equal opportunities</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>VI.0.109</t>
+          <t>VI.0.111</t>
         </is>
       </c>
       <c r="C140">
@@ -8375,57 +8375,57 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F140">
-        <v>13538889628.79733</v>
+        <v>637185805.3251368</v>
       </c>
       <c r="G140">
-        <v>11157918473.07183</v>
+        <v>523989412.4110745</v>
       </c>
       <c r="H140">
-        <v>2310746690.143994</v>
+        <v>113196392.9140622</v>
       </c>
       <c r="I140">
-        <v>70224465.58152623</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>10152569909.68719</v>
+        <v>491334711.9533302</v>
       </c>
       <c r="K140">
-        <v>8416352740.745252</v>
+        <v>403563989.4057163</v>
       </c>
       <c r="L140">
-        <v>1678611729.361475</v>
+        <v>87770722.5476139</v>
       </c>
       <c r="M140">
-        <v>10094964470.10674</v>
+        <v>491334711.9533302</v>
       </c>
       <c r="N140">
-        <v>57605439.58045465</v>
+        <v>9.313225746154785e-10</v>
       </c>
       <c r="O140">
-        <v>1736217168.941931</v>
+        <v>87770722.5476139</v>
       </c>
       <c r="P140">
-        <v>1012</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Socio-economic integration of marginalised communities such as the Roma</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>VI.0.110</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C141">
@@ -8433,57 +8433,57 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F141">
-        <v>5186739611.913966</v>
+        <v>776961377.01</v>
       </c>
       <c r="G141">
-        <v>4312232676.28957</v>
+        <v>388480688.26</v>
       </c>
       <c r="H141">
-        <v>829133191.8544273</v>
+        <v>385577617.25</v>
       </c>
       <c r="I141">
-        <v>45373743.77</v>
+        <v>2903071.5</v>
       </c>
       <c r="J141">
-        <v>2819576600.37217</v>
+        <v>615636094.58</v>
       </c>
       <c r="K141">
-        <v>2354137447.085599</v>
+        <v>307818045.82</v>
       </c>
       <c r="L141">
-        <v>423016202.8565878</v>
+        <v>305803900.45</v>
       </c>
       <c r="M141">
-        <v>2777153649.942166</v>
+        <v>613621946.27</v>
       </c>
       <c r="N141">
-        <v>42422950.43000001</v>
+        <v>2014148.30999999</v>
       </c>
       <c r="O141">
-        <v>465439153.2865879</v>
+        <v>307818048.76</v>
       </c>
       <c r="P141">
-        <v>7991</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Combating all forms of discrimination and promoting equal opportunities</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>VI.0.111</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C142">
@@ -8491,57 +8491,57 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F142">
-        <v>739297076.5448161</v>
+        <v>6473667752.614453</v>
       </c>
       <c r="G142">
-        <v>608897779.0369576</v>
+        <v>5063503517.300186</v>
       </c>
       <c r="H142">
-        <v>130399297.5078579</v>
+        <v>1406900769.144268</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3263466.17</v>
       </c>
       <c r="J142">
-        <v>501217846.3246758</v>
+        <v>3940664323.656659</v>
       </c>
       <c r="K142">
-        <v>411726170.5197417</v>
+        <v>3142193965.792468</v>
       </c>
       <c r="L142">
-        <v>89491675.8049345</v>
+        <v>796363790.2041913</v>
       </c>
       <c r="M142">
-        <v>501217846.3246758</v>
+        <v>3938557755.996659</v>
       </c>
       <c r="N142">
-        <v>2.818493521985649e-09</v>
+        <v>2106567.660000065</v>
       </c>
       <c r="O142">
-        <v>89491675.8049345</v>
+        <v>798470357.8641914</v>
       </c>
       <c r="P142">
-        <v>2335</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Community-led local development strategies</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VI.0.114</t>
         </is>
       </c>
       <c r="C143">
@@ -8549,57 +8549,57 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F143">
-        <v>776961377.01</v>
+        <v>1991915741.78</v>
       </c>
       <c r="G143">
-        <v>388480688.2600002</v>
+        <v>1693089963.46</v>
       </c>
       <c r="H143">
-        <v>385577617.2499999</v>
+        <v>262256616.26</v>
       </c>
       <c r="I143">
-        <v>2903071.5</v>
+        <v>36569162.06</v>
       </c>
       <c r="J143">
-        <v>615636094.5800004</v>
+        <v>1185066337.37</v>
       </c>
       <c r="K143">
-        <v>307818045.8200002</v>
+        <v>1007306372.3</v>
       </c>
       <c r="L143">
-        <v>305803900.4500001</v>
+        <v>155370143.45</v>
       </c>
       <c r="M143">
-        <v>613621946.2700005</v>
+        <v>1162676515.75</v>
       </c>
       <c r="N143">
-        <v>2014148.309999988</v>
+        <v>22389821.62</v>
       </c>
       <c r="O143">
-        <v>307818048.76</v>
+        <v>177759965.07</v>
       </c>
       <c r="P143">
-        <v>177</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VII.0.115</t>
         </is>
       </c>
       <c r="C144">
@@ -8607,57 +8607,57 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F144">
-        <v>6683980149.771646</v>
+        <v>1306387489.02</v>
       </c>
       <c r="G144">
-        <v>5206582511.160997</v>
+        <v>653193744.25</v>
       </c>
       <c r="H144">
-        <v>1474134172.440651</v>
+        <v>647724407.24</v>
       </c>
       <c r="I144">
-        <v>3263466.169999999</v>
+        <v>5469337.53</v>
       </c>
       <c r="J144">
-        <v>4037300820.573566</v>
+        <v>609563874.75</v>
       </c>
       <c r="K144">
-        <v>3212579684.209291</v>
+        <v>304781936.39</v>
       </c>
       <c r="L144">
-        <v>822614568.7042749</v>
+        <v>301929974.23</v>
       </c>
       <c r="M144">
-        <v>4035194252.913564</v>
+        <v>606711910.62</v>
       </c>
       <c r="N144">
-        <v>2106567.660000066</v>
+        <v>2851964.129999999</v>
       </c>
       <c r="O144">
-        <v>824721136.3642751</v>
+        <v>304781938.36</v>
       </c>
       <c r="P144">
-        <v>749</v>
+        <v>801</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Community-led local development strategies</t>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>VI.0.114</t>
+          <t>VII.0.115</t>
         </is>
       </c>
       <c r="C145">
@@ -8665,57 +8665,57 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F145">
-        <v>1991915741.780001</v>
+        <v>19193745561.24998</v>
       </c>
       <c r="G145">
-        <v>1693089963.45999</v>
+        <v>15633873951.35065</v>
       </c>
       <c r="H145">
-        <v>262256616.259999</v>
+        <v>3477323188.729506</v>
       </c>
       <c r="I145">
-        <v>36569162.05999999</v>
+        <v>82548421.169828</v>
       </c>
       <c r="J145">
-        <v>1185066337.369999</v>
+        <v>13394496584.7022</v>
       </c>
       <c r="K145">
-        <v>1007306372.299999</v>
+        <v>10960277417.48509</v>
       </c>
       <c r="L145">
-        <v>155370143.4499999</v>
+        <v>2358311871.161198</v>
       </c>
       <c r="M145">
-        <v>1162676515.749998</v>
+        <v>13318589288.64629</v>
       </c>
       <c r="N145">
-        <v>22389821.62000001</v>
+        <v>75907296.05590594</v>
       </c>
       <c r="O145">
-        <v>177759965.0699996</v>
+        <v>2434219167.217104</v>
       </c>
       <c r="P145">
-        <v>1293</v>
+        <v>18359</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VII.0.116</t>
         </is>
       </c>
       <c r="C146">
@@ -8723,57 +8723,57 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F146">
-        <v>1306387489.02</v>
+        <v>9001717784.62738</v>
       </c>
       <c r="G146">
-        <v>653193744.2500002</v>
+        <v>7326670088.117594</v>
       </c>
       <c r="H146">
-        <v>647724407.2399999</v>
+        <v>1458864118.364807</v>
       </c>
       <c r="I146">
-        <v>5469337.53</v>
+        <v>216183578.1449798</v>
       </c>
       <c r="J146">
-        <v>609563874.7500002</v>
+        <v>5519892891.752238</v>
       </c>
       <c r="K146">
-        <v>304781936.39</v>
+        <v>4507277632.275552</v>
       </c>
       <c r="L146">
-        <v>301929974.23</v>
+        <v>833936230.1679794</v>
       </c>
       <c r="M146">
-        <v>606711910.6200002</v>
+        <v>5341213862.443531</v>
       </c>
       <c r="N146">
-        <v>2851964.129999999</v>
+        <v>178679029.3087069</v>
       </c>
       <c r="O146">
-        <v>304781938.3599999</v>
+        <v>1012615259.476686</v>
       </c>
       <c r="P146">
-        <v>801</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VIII.0.119</t>
         </is>
       </c>
       <c r="C147">
@@ -8781,167 +8781,129 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F147">
-        <v>25151597515.01461</v>
+        <v>2750871595.828052</v>
       </c>
       <c r="G147">
-        <v>20569396314.84184</v>
+        <v>2250966559.667801</v>
       </c>
       <c r="H147">
-        <v>4481972115.632733</v>
+        <v>485572951.8010781</v>
       </c>
       <c r="I147">
-        <v>100229084.5399999</v>
+        <v>14332084.3591723</v>
       </c>
       <c r="J147">
-        <v>17107147871.31969</v>
+        <v>1624988638.532786</v>
       </c>
       <c r="K147">
-        <v>14042436329.773</v>
+        <v>1328978964.483634</v>
       </c>
       <c r="L147">
-        <v>2973461216.326825</v>
+        <v>283988565.4413081</v>
       </c>
       <c r="M147">
-        <v>17015897546.09971</v>
+        <v>1612967529.924943</v>
       </c>
       <c r="N147">
-        <v>91250325.21999995</v>
+        <v>12021108.60784308</v>
       </c>
       <c r="O147">
-        <v>3064711541.546818</v>
+        <v>296009674.0491512</v>
       </c>
       <c r="P147">
-        <v>18359</v>
+        <v>621</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>VII.0.116</t>
-        </is>
-      </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>OP VVV</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>10660018280.06001</v>
-      </c>
-      <c r="G148">
-        <v>8682357765.749996</v>
-      </c>
-      <c r="H148">
-        <v>1690419719.250003</v>
-      </c>
-      <c r="I148">
-        <v>287240795.0599999</v>
+          <t>PRV</t>
+        </is>
       </c>
       <c r="J148">
-        <v>6831245610.260001</v>
+        <v>10552666</v>
       </c>
       <c r="K148">
-        <v>5579567257.439996</v>
-      </c>
-      <c r="L148">
-        <v>1013946703.56</v>
-      </c>
-      <c r="M148">
-        <v>6593513960.999995</v>
-      </c>
-      <c r="N148">
-        <v>237731649.26</v>
+        <v>5223552</v>
       </c>
       <c r="O148">
-        <v>1251678352.820002</v>
-      </c>
-      <c r="P148">
-        <v>420</v>
+        <v>5329114</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>1.1.1-Vzdělávací akce</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>VIII.0.119</t>
-        </is>
-      </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>OP Z</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>5167622425.977981</v>
-      </c>
-      <c r="G149">
-        <v>4246166080.883501</v>
-      </c>
-      <c r="H149">
-        <v>891356306.150373</v>
-      </c>
-      <c r="I149">
-        <v>30100038.94410949</v>
+          <t>PRV</t>
+        </is>
       </c>
       <c r="J149">
-        <v>3011244768.920824</v>
+        <v>17736550</v>
       </c>
       <c r="K149">
-        <v>2472626822.00584</v>
-      </c>
-      <c r="L149">
-        <v>513524168.5171339</v>
-      </c>
-      <c r="M149">
-        <v>2986150990.522976</v>
-      </c>
-      <c r="N149">
-        <v>25093778.39784793</v>
+        <v>8779573</v>
       </c>
       <c r="O149">
-        <v>538617946.914982</v>
-      </c>
-      <c r="P149">
-        <v>621</v>
+        <v>8956977</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>1.2.1-Informační akce</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -8949,38 +8911,28 @@
         </is>
       </c>
       <c r="J150">
-        <v>10552666</v>
+        <v>5064036</v>
       </c>
       <c r="K150">
-        <v>5223552</v>
+        <v>2506691</v>
       </c>
       <c r="O150">
-        <v>5329114</v>
+        <v>2557345</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>1.1.1-Vzdělávací akce</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>16.1.1-PE 16.1.1</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -8988,32 +8940,22 @@
         </is>
       </c>
       <c r="J151">
-        <v>17736550</v>
+        <v>119800433</v>
       </c>
       <c r="K151">
-        <v>8779573</v>
+        <v>59301207</v>
       </c>
       <c r="O151">
-        <v>8956977</v>
+        <v>60499226</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>1.2.1-Informační akce</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -9027,17 +8969,17 @@
         </is>
       </c>
       <c r="J152">
-        <v>5064036</v>
+        <v>1425520552</v>
       </c>
       <c r="K152">
-        <v>2506691</v>
+        <v>705632661</v>
       </c>
       <c r="O152">
-        <v>2557345</v>
+        <v>719887891</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>16.1.1-PE 16.1.1</t>
+          <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -9056,17 +8998,17 @@
         </is>
       </c>
       <c r="J153">
-        <v>119800433</v>
+        <v>23444689</v>
       </c>
       <c r="K153">
-        <v>59301207</v>
+        <v>11605116</v>
       </c>
       <c r="O153">
-        <v>60499226</v>
+        <v>11839573</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
+          <t>16.3.1-PE 16.3.1</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -9085,17 +9027,17 @@
         </is>
       </c>
       <c r="J154">
-        <v>1425520552</v>
+        <v>1560265225</v>
       </c>
       <c r="K154">
-        <v>705632661</v>
+        <v>998606513.6</v>
       </c>
       <c r="O154">
-        <v>719887891</v>
+        <v>561658711.4</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
+          <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9114,17 +9056,17 @@
         </is>
       </c>
       <c r="J155">
-        <v>23444689</v>
+        <v>3417031</v>
       </c>
       <c r="K155">
-        <v>11605116</v>
+        <v>2186896</v>
       </c>
       <c r="O155">
-        <v>11839573</v>
+        <v>1230135</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>16.3.1-PE 16.3.1</t>
+          <t>19.3.1-PE 19.3.1</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -9143,17 +9085,17 @@
         </is>
       </c>
       <c r="J156">
-        <v>1560265225</v>
+        <v>207511920</v>
       </c>
       <c r="K156">
-        <v>998606513.6</v>
+        <v>102718316</v>
       </c>
       <c r="O156">
-        <v>561658711.4</v>
+        <v>104793604</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
+          <t>20.1-Podpora technické pomoci (mimo CSV)</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -9172,17 +9114,17 @@
         </is>
       </c>
       <c r="J157">
-        <v>3417031</v>
+        <v>33083552</v>
       </c>
       <c r="K157">
-        <v>2186896</v>
+        <v>16376326</v>
       </c>
       <c r="O157">
-        <v>1230135</v>
+        <v>16707226</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>19.3.1-PE 19.3.1</t>
+          <t>20.2-Podpora pro zřízení a činnost CSV</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -9201,17 +9143,17 @@
         </is>
       </c>
       <c r="J158">
-        <v>207511920</v>
+        <v>8151341343</v>
       </c>
       <c r="K158">
-        <v>102718316</v>
+        <v>4034912512.72</v>
       </c>
       <c r="O158">
-        <v>104793604</v>
+        <v>4116428830.28</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>20.1-Podpora technické pomoci (mimo CSV)</t>
+          <t>4.1.1-Investice do zemědělských podniků</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -9230,17 +9172,17 @@
         </is>
       </c>
       <c r="J159">
-        <v>33083552</v>
+        <v>1870907660</v>
       </c>
       <c r="K159">
-        <v>16376326</v>
+        <v>926098960</v>
       </c>
       <c r="O159">
-        <v>16707226</v>
+        <v>944808700</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20.2-Podpora pro zřízení a činnost CSV</t>
+          <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -9259,17 +9201,17 @@
         </is>
       </c>
       <c r="J160">
-        <v>8151341343</v>
+        <v>2756088829</v>
       </c>
       <c r="K160">
-        <v>4034912512.72</v>
+        <v>1364263827</v>
       </c>
       <c r="O160">
-        <v>4116428830.28</v>
+        <v>1391825002</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>4.1.1-Investice do zemědělských podniků</t>
+          <t>4.3.1-Pozemkové úpravy</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -9288,17 +9230,17 @@
         </is>
       </c>
       <c r="J161">
-        <v>1870907660</v>
+        <v>671466497</v>
       </c>
       <c r="K161">
-        <v>926098960</v>
+        <v>332375802</v>
       </c>
       <c r="O161">
-        <v>944808700</v>
+        <v>339090695</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
+          <t>4.3.2-Lesnická infrastruktura</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -9309,7 +9251,7 @@
     </row>
     <row r="162">
       <c r="C162">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9317,28 +9259,38 @@
         </is>
       </c>
       <c r="J162">
-        <v>2756088829</v>
+        <v>925694805.03</v>
       </c>
       <c r="K162">
-        <v>1364263827</v>
+        <v>458218221.52</v>
       </c>
       <c r="O162">
-        <v>1391825002</v>
+        <v>467476583.51</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>4.3.1-Pozemkové úpravy</t>
+          <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="C163">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9346,22 +9298,32 @@
         </is>
       </c>
       <c r="J163">
-        <v>671466497</v>
+        <v>471381398</v>
       </c>
       <c r="K163">
-        <v>332375802</v>
+        <v>233333660</v>
       </c>
       <c r="O163">
-        <v>339090695</v>
+        <v>238047738</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>4.3.2-Lesnická infrastruktura</t>
+          <t>6.4.1-Investice do nezemědělských činností</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
         <is>
           <t>Projektová opatření</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -9375,17 +9337,17 @@
         </is>
       </c>
       <c r="J164">
-        <v>925694805.03</v>
+        <v>185921951</v>
       </c>
       <c r="K164">
-        <v>458218221.52</v>
+        <v>92031330</v>
       </c>
       <c r="O164">
-        <v>467476583.51</v>
+        <v>93890621</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
+          <t>6.4.2-Podpora agroturistiky</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -9414,17 +9376,17 @@
         </is>
       </c>
       <c r="J165">
-        <v>471381398</v>
+        <v>21946709</v>
       </c>
       <c r="K165">
-        <v>233333660</v>
+        <v>10863614</v>
       </c>
       <c r="O165">
-        <v>238047738</v>
+        <v>11083095</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>6.4.1-Investice do nezemědělských činností</t>
+          <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -9453,22 +9415,22 @@
         </is>
       </c>
       <c r="J166">
-        <v>185921951</v>
+        <v>52156617</v>
       </c>
       <c r="K166">
-        <v>92031330</v>
+        <v>25817516</v>
       </c>
       <c r="O166">
-        <v>93890621</v>
+        <v>26339101</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>6.4.2-Podpora agroturistiky</t>
+          <t>8.3.1-Zavádění preventivních opatření v lesích</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -9478,7 +9440,7 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9492,22 +9454,22 @@
         </is>
       </c>
       <c r="J167">
-        <v>21946709</v>
+        <v>128356732</v>
       </c>
       <c r="K167">
-        <v>10863614</v>
+        <v>63536537</v>
       </c>
       <c r="O167">
-        <v>11083095</v>
+        <v>64820195</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>6.4.3-Investice na podporu energie z obnovitelných zdrojů</t>
+          <t>8.4.1-Obnova lesních porostů po kalamitách</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -9517,7 +9479,7 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9531,17 +9493,17 @@
         </is>
       </c>
       <c r="J168">
-        <v>52156617</v>
+        <v>28497569</v>
       </c>
       <c r="K168">
-        <v>25817516</v>
+        <v>14106292</v>
       </c>
       <c r="O168">
-        <v>26339101</v>
+        <v>14391277</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>8.3.1-Zavádění preventivních opatření v lesích</t>
+          <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -9570,17 +9532,17 @@
         </is>
       </c>
       <c r="J169">
-        <v>128356732</v>
+        <v>32007332</v>
       </c>
       <c r="K169">
-        <v>63536537</v>
+        <v>15843561</v>
       </c>
       <c r="O169">
-        <v>64820195</v>
+        <v>16163771</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>8.4.1-Obnova lesních porostů po kalamitách</t>
+          <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -9609,17 +9571,17 @@
         </is>
       </c>
       <c r="J170">
-        <v>28497569</v>
+        <v>116673057</v>
       </c>
       <c r="K170">
-        <v>14106292</v>
+        <v>57753103</v>
       </c>
       <c r="O170">
-        <v>14391277</v>
+        <v>58919954</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
+          <t>8.5.2-Neproduktivní investice v lesích</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -9648,17 +9610,17 @@
         </is>
       </c>
       <c r="J171">
-        <v>32007332</v>
+        <v>109453796</v>
       </c>
       <c r="K171">
-        <v>15843561</v>
+        <v>54179621</v>
       </c>
       <c r="O171">
-        <v>16163771</v>
+        <v>55274175</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
+          <t>8.5.3-Přeměna porostů náhradních dřevin</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -9687,17 +9649,17 @@
         </is>
       </c>
       <c r="J172">
-        <v>116673057</v>
+        <v>477232720</v>
       </c>
       <c r="K172">
-        <v>57753103</v>
+        <v>236229945</v>
       </c>
       <c r="O172">
-        <v>58919954</v>
+        <v>241002775</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>8.5.2-Neproduktivní investice v lesích</t>
+          <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -9726,17 +9688,17 @@
         </is>
       </c>
       <c r="J173">
-        <v>109453796</v>
+        <v>111471771</v>
       </c>
       <c r="K173">
-        <v>54179621</v>
+        <v>55178496</v>
       </c>
       <c r="O173">
-        <v>55274175</v>
+        <v>56293275</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>8.5.3-Přeměna porostů náhradních dřevin</t>
+          <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -9757,7 +9719,7 @@
     </row>
     <row r="174">
       <c r="C174">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -9765,38 +9727,38 @@
         </is>
       </c>
       <c r="J174">
-        <v>477232720</v>
+        <v>12896222457.44</v>
       </c>
       <c r="K174">
-        <v>236229945</v>
+        <v>9672808263.870001</v>
       </c>
       <c r="O174">
-        <v>241002775</v>
+        <v>3223414193.57</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
+          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>AEKO</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>Projektová opatření</t>
+          <t>Plošná opatření</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -9804,38 +9766,28 @@
         </is>
       </c>
       <c r="J175">
-        <v>111471771</v>
+        <v>143396206.46</v>
       </c>
       <c r="K175">
-        <v>55178496</v>
+        <v>107555281.89</v>
       </c>
       <c r="O175">
-        <v>56293275</v>
+        <v>35840924.57</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
-        </is>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>Projektová opatření</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>Plošná opatření</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -9843,38 +9795,28 @@
         </is>
       </c>
       <c r="J176">
-        <v>12896222457.44</v>
+        <v>8680053794.65</v>
       </c>
       <c r="K176">
-        <v>9672808263.870001</v>
+        <v>6510540691.67</v>
       </c>
       <c r="O176">
-        <v>3223414193.57</v>
+        <v>2169513102.98</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
-        </is>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>AEKO</t>
+          <t>ANC-ANC</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -9882,28 +9824,38 @@
         </is>
       </c>
       <c r="J177">
-        <v>143396206.46</v>
+        <v>5466893578.45</v>
       </c>
       <c r="K177">
-        <v>107555281.89</v>
+        <v>4100404216.54</v>
       </c>
       <c r="O177">
-        <v>35840924.57</v>
+        <v>1366489361.91</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
+          <t>EKOZ-Ekologické zemědělství (EZ)</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>EKOZ</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="C178">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -9911,28 +9863,38 @@
         </is>
       </c>
       <c r="J178">
-        <v>8680053794.65</v>
+        <v>107650775.54</v>
       </c>
       <c r="K178">
-        <v>6510540691.67</v>
+        <v>80738535.95999999</v>
       </c>
       <c r="O178">
-        <v>2169513102.98</v>
+        <v>26912239.58</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>ANC-ANC</t>
+          <t>ELESP-Péče a náhrada</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>ELESP</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -9940,38 +9902,28 @@
         </is>
       </c>
       <c r="J179">
-        <v>5466893578.45</v>
+        <v>13561320.19</v>
       </c>
       <c r="K179">
-        <v>4100404216.54</v>
+        <v>10170985.28</v>
       </c>
       <c r="O179">
-        <v>1366489361.91</v>
+        <v>3390334.91</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>EKOZ-Ekologické zemědělství (EZ)</t>
-        </is>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>EKOZ</t>
+          <t>GEN-GEN</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>EKOZ-Ekologické zemědělství (EZ)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -9979,32 +9931,22 @@
         </is>
       </c>
       <c r="J180">
-        <v>107650775.54</v>
+        <v>-34875</v>
       </c>
       <c r="K180">
-        <v>80738535.95999999</v>
+        <v>-26156.25</v>
       </c>
       <c r="O180">
-        <v>26912239.58</v>
+        <v>-8718.75</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>ELESP-Péče a náhrada</t>
-        </is>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>ELESP</t>
+          <t>I.1.1.1-Modernizace zemědělských podniků</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>ELESP-Péče a náhrada</t>
         </is>
       </c>
     </row>
@@ -10018,17 +9960,17 @@
         </is>
       </c>
       <c r="J181">
-        <v>13561320.19</v>
+        <v>-175944.13</v>
       </c>
       <c r="K181">
-        <v>10170985.28</v>
+        <v>-131958.1</v>
       </c>
       <c r="O181">
-        <v>3390334.91</v>
+        <v>-43986.03</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>GEN-GEN</t>
+          <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -10047,17 +9989,17 @@
         </is>
       </c>
       <c r="J182">
-        <v>-34875</v>
+        <v>130502</v>
       </c>
       <c r="K182">
-        <v>-26156.25</v>
+        <v>64598</v>
       </c>
       <c r="O182">
-        <v>-8718.75</v>
+        <v>65904</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>I.1.1.1-Modernizace zemědělských podniků</t>
+          <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -10076,17 +10018,17 @@
         </is>
       </c>
       <c r="J183">
-        <v>-175944.13</v>
+        <v>6364572</v>
       </c>
       <c r="K183">
-        <v>-131958.1</v>
+        <v>3150463</v>
       </c>
       <c r="O183">
-        <v>-43986.03</v>
+        <v>3214109</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>I.1.1.1.a-Modernizace zemědělských podniků</t>
+          <t>III.1.3.b-Ubytování, sport</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -10097,7 +10039,7 @@
     </row>
     <row r="184">
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -10105,28 +10047,38 @@
         </is>
       </c>
       <c r="J184">
-        <v>130502</v>
+        <v>33974260.9</v>
       </c>
       <c r="K184">
-        <v>64598</v>
+        <v>25480620.42</v>
       </c>
       <c r="O184">
-        <v>65904</v>
+        <v>8493640.48</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
+          <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>LEOD</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>LEOD</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -10134,22 +10086,32 @@
         </is>
       </c>
       <c r="J185">
-        <v>6364572</v>
+        <v>18111505.42</v>
       </c>
       <c r="K185">
-        <v>3150463</v>
+        <v>13583613.92</v>
       </c>
       <c r="O185">
-        <v>3214109</v>
+        <v>4527891.5</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>III.1.3.b-Ubytování, sport</t>
+          <t>LESND-Natura 2000 v lesích</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Natura</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Natura</t>
         </is>
       </c>
     </row>
@@ -10163,22 +10125,22 @@
         </is>
       </c>
       <c r="J186">
-        <v>33974260.9</v>
+        <v>4751134404.82</v>
       </c>
       <c r="K186">
-        <v>25480620.42</v>
+        <v>3563563261.26</v>
       </c>
       <c r="O186">
-        <v>8493640.48</v>
+        <v>1187571143.56</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
+          <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>LEOD</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
@@ -10188,7 +10150,7 @@
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>LEOD</t>
+          <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
     </row>
@@ -10202,17 +10164,17 @@
         </is>
       </c>
       <c r="J187">
-        <v>18111505.42</v>
+        <v>50316366.39</v>
       </c>
       <c r="K187">
-        <v>13583613.92</v>
+        <v>37738356.82</v>
       </c>
       <c r="O187">
-        <v>4527891.5</v>
+        <v>12578009.57</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>LESND-Natura 2000 v lesích</t>
+          <t>NAT-Natura 2000 na zemědělské půdě</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -10233,7 +10195,7 @@
     </row>
     <row r="188">
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -10241,38 +10203,28 @@
         </is>
       </c>
       <c r="J188">
-        <v>4751134404.82</v>
+        <v>130612367.79</v>
       </c>
       <c r="K188">
-        <v>3563563261.26</v>
+        <v>97959317.86</v>
       </c>
       <c r="O188">
-        <v>1187571143.56</v>
+        <v>32653049.93</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>LFA-Méně příznivé oblasti (LFA)</t>
-        </is>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>LFA</t>
+          <t>POR-Zachování porostního typu</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>LFA-Méně příznivé oblasti (LFA)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -10280,32 +10232,22 @@
         </is>
       </c>
       <c r="J189">
-        <v>50316366.39</v>
+        <v>14197879.57</v>
       </c>
       <c r="K189">
-        <v>37738356.82</v>
+        <v>10648941.65</v>
       </c>
       <c r="O189">
-        <v>12578009.57</v>
+        <v>3548937.92</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>NAT-Natura 2000 na zemědělské půdě</t>
-        </is>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>Natura</t>
+          <t>PPO-PPO</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>Natura</t>
         </is>
       </c>
     </row>
@@ -10319,17 +10261,17 @@
         </is>
       </c>
       <c r="J190">
-        <v>130612367.79</v>
+        <v>360348391.45</v>
       </c>
       <c r="K190">
-        <v>97959317.86</v>
+        <v>178367237.6</v>
       </c>
       <c r="O190">
-        <v>32653049.93</v>
+        <v>181981153.85</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>POR-Zachování porostního typu</t>
+          <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -10348,17 +10290,17 @@
         </is>
       </c>
       <c r="J191">
-        <v>14197879.57</v>
+        <v>3151410605.91</v>
       </c>
       <c r="K191">
-        <v>10648941.65</v>
+        <v>1560227897.37</v>
       </c>
       <c r="O191">
-        <v>3548937.92</v>
+        <v>1591182708.54</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>PPO-PPO</t>
+          <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -10369,7 +10311,7 @@
     </row>
     <row r="192">
       <c r="C192">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -10377,28 +10319,38 @@
         </is>
       </c>
       <c r="J192">
-        <v>360348391.45</v>
+        <v>11785416.06</v>
       </c>
       <c r="K192">
-        <v>178367237.6</v>
+        <v>8839234.58</v>
       </c>
       <c r="O192">
-        <v>181981153.85</v>
+        <v>2946181.48</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
+          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>ZZPLP</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
           <t>Plošná opatření</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -10406,17 +10358,22 @@
         </is>
       </c>
       <c r="J193">
-        <v>3151410605.91</v>
+        <v>6447153.27</v>
       </c>
       <c r="K193">
-        <v>1560227897.37</v>
+        <v>4835383.36</v>
       </c>
       <c r="O193">
-        <v>1591182708.54</v>
+        <v>1611769.91</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
+          <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>ZZPPN</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -10424,80 +10381,7 @@
           <t>Plošná opatření</t>
         </is>
       </c>
-    </row>
-    <row r="194">
-      <c r="C194">
-        <v>0.4</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>PRV</t>
-        </is>
-      </c>
-      <c r="J194">
-        <v>11785416.06</v>
-      </c>
-      <c r="K194">
-        <v>8839234.58</v>
-      </c>
-      <c r="O194">
-        <v>2946181.48</v>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
-        </is>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>ZZPLP</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="C195">
-        <v>0.4</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>PRV</t>
-        </is>
-      </c>
-      <c r="J195">
-        <v>6447153.27</v>
-      </c>
-      <c r="K195">
-        <v>4835383.36</v>
-      </c>
-      <c r="O195">
-        <v>1611769.91</v>
-      </c>
-      <c r="Q195" t="inlineStr">
-        <is>
-          <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
-        </is>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>ZZPPN</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>Plošná opatření</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
+      <c r="T193" t="inlineStr">
         <is>
           <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
         </is>
